--- a/Dashboard/media/overall.xlsx
+++ b/Dashboard/media/overall.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
   </bookViews>
   <sheets>
-    <sheet name="CF 2022" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2022 Data on Other Career Optio" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -646,28 +646,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,11 +682,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -992,140 +992,140 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="25.5" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="58" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="66" t="s">
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="52" t="s">
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="53"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="25.5" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50" t="s">
+      <c r="J3" s="49"/>
+      <c r="K3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="50" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50" t="s">
+      <c r="P3" s="49"/>
+      <c r="Q3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="50" t="s">
+      <c r="R3" s="49"/>
+      <c r="S3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="58" t="s">
+      <c r="T3" s="49"/>
+      <c r="U3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="59" t="s">
+      <c r="V3" s="49"/>
+      <c r="W3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="60" t="s">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="60" t="s">
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="61" t="s">
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="63" t="s">
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="63" t="s">
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AH3" s="62"/>
+      <c r="AH3" s="61"/>
       <c r="AI3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AJ3" s="51"/>
+      <c r="AJ3" s="49"/>
       <c r="AK3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="54"/>
     </row>
     <row r="4" spans="1:40" ht="25.5" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="AN9" s="17"/>
     </row>
     <row r="10" spans="1:40" ht="12.75">
-      <c r="A10" s="47">
+      <c r="A10" s="63">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1518,7 +1518,7 @@
       <c r="AN10" s="17"/>
     </row>
     <row r="11" spans="1:40" ht="12.75">
-      <c r="A11" s="48"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="AN11" s="17"/>
     </row>
     <row r="12" spans="1:40" ht="12.75">
-      <c r="A12" s="48"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="AN12" s="17"/>
     </row>
     <row r="13" spans="1:40" ht="12.75">
-      <c r="A13" s="49"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="AN23" s="16"/>
     </row>
     <row r="24" spans="1:40" ht="12.75">
-      <c r="A24" s="47">
+      <c r="A24" s="63">
         <v>17</v>
       </c>
       <c r="B24" s="34" t="s">
@@ -2156,7 +2156,7 @@
       <c r="AN24" s="17"/>
     </row>
     <row r="25" spans="1:40" ht="12.75">
-      <c r="A25" s="48"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="33" t="s">
         <v>43</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="AN25" s="17"/>
     </row>
     <row r="26" spans="1:40" ht="12.75">
-      <c r="A26" s="48"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="33" t="s">
         <v>44</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="AN26" s="17"/>
     </row>
     <row r="27" spans="1:40" ht="12.75">
-      <c r="A27" s="49"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="33" t="s">
         <v>45</v>
       </c>
@@ -2529,6 +2529,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:T2"/>
     <mergeCell ref="U2:AD2"/>
     <mergeCell ref="AE2:AL2"/>
     <mergeCell ref="AM2:AN3"/>
@@ -2545,16 +2555,6 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:T2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -2587,97 +2587,97 @@
       <c r="B1" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="51"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="51"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="49"/>
       <c r="Z1" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="51"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="49"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="48"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="51"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="51"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="67" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="51"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="51"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="49"/>
       <c r="Y2" s="67" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="51"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="49"/>
       <c r="AD2" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="51"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="49"/>
       <c r="AG2" s="67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="49"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="41" t="s">
         <v>7</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="N3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="49"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="41" t="s">
         <v>50</v>
       </c>
@@ -2745,7 +2745,7 @@
       <c r="X3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="49"/>
+      <c r="Y3" s="65"/>
       <c r="Z3" s="41" t="s">
         <v>50</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="AF3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AG3" s="49"/>
+      <c r="AG3" s="65"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="42" t="s">

--- a/Dashboard/media/overall.xlsx
+++ b/Dashboard/media/overall.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitam__\DashBoard-BackEnd\Dashboard\media\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963C48E1-5E77-4D74-A8B9-13BDA6AF7731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CF 2022" sheetId="1" r:id="rId1"/>
-    <sheet name="2022 Data on Other Career Optio" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>2022 OVERALL CAREER FULFILLMENT STATISTICS - GCGC</t>
   </si>
@@ -86,9 +100,6 @@
     <t>Total No. of students in the first year of present final year batch.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Total No. of students in final year.</t>
   </si>
   <si>
@@ -153,55 +164,13 @@
   </si>
   <si>
     <t>(c) Average (Per annum)Rs.in lakhs</t>
-  </si>
-  <si>
-    <t>Career Option</t>
-  </si>
-  <si>
-    <t>Career Guidance Center - Visakhapatnam</t>
-  </si>
-  <si>
-    <t>Career Guidance Center - Hyderabad</t>
-  </si>
-  <si>
-    <t>Career Guidance Center - Bengaluru</t>
-  </si>
-  <si>
-    <t>SoT</t>
-  </si>
-  <si>
-    <t>Placements</t>
-  </si>
-  <si>
-    <t>Deferred Placements</t>
-  </si>
-  <si>
-    <t>Higher Education Overseas</t>
-  </si>
-  <si>
-    <t>Higher Education India</t>
-  </si>
-  <si>
-    <t>Entrepreneurship /Startups</t>
-  </si>
-  <si>
-    <t>Family Business</t>
-  </si>
-  <si>
-    <t>CIVILS/UPSC/SSC/GROUPS</t>
-  </si>
-  <si>
-    <t>Yet to Disclose</t>
-  </si>
-  <si>
-    <t>Not interested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -212,27 +181,32 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -250,39 +224,26 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Courier New"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -510,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,46 +589,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,18 +625,13 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,6 +642,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -907,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -992,140 +932,140 @@
       <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="25.5" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="58" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="66" t="s">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="52" t="s">
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="53"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="25.5" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="50" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="57" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="43"/>
+      <c r="I3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="50" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="50" t="s">
+      <c r="L3" s="43"/>
+      <c r="M3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50" t="s">
+      <c r="P3" s="43"/>
+      <c r="Q3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="50" t="s">
+      <c r="R3" s="43"/>
+      <c r="S3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="58" t="s">
+      <c r="T3" s="43"/>
+      <c r="U3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="51"/>
-      <c r="W3" s="59" t="s">
+      <c r="V3" s="43"/>
+      <c r="W3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="60" t="s">
+      <c r="X3" s="48"/>
+      <c r="Y3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="60" t="s">
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="61" t="s">
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="63" t="s">
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="63" t="s">
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="56" t="s">
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="56" t="s">
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="48"/>
     </row>
     <row r="4" spans="1:40" ht="25.5" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1338,7 +1278,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1384,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1430,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1472,11 +1412,11 @@
       <c r="AN9" s="17"/>
     </row>
     <row r="10" spans="1:40" ht="12.75">
-      <c r="A10" s="47">
+      <c r="A10" s="57">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1518,9 +1458,9 @@
       <c r="AN10" s="17"/>
     </row>
     <row r="11" spans="1:40" ht="12.75">
-      <c r="A11" s="48"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1562,9 +1502,9 @@
       <c r="AN11" s="17"/>
     </row>
     <row r="12" spans="1:40" ht="12.75">
-      <c r="A12" s="48"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1606,9 +1546,9 @@
       <c r="AN12" s="17"/>
     </row>
     <row r="13" spans="1:40" ht="12.75">
-      <c r="A13" s="49"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1654,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1700,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -1746,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -1792,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -1838,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1884,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1930,7 +1870,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1976,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2022,7 +1962,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2068,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -2110,11 +2050,11 @@
       <c r="AN23" s="16"/>
     </row>
     <row r="24" spans="1:40" ht="12.75">
-      <c r="A24" s="47">
+      <c r="A24" s="57">
         <v>17</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2156,9 +2096,9 @@
       <c r="AN24" s="17"/>
     </row>
     <row r="25" spans="1:40" ht="12.75">
-      <c r="A25" s="48"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2200,9 +2140,9 @@
       <c r="AN25" s="17"/>
     </row>
     <row r="26" spans="1:40" ht="12.75">
-      <c r="A26" s="48"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2244,9 +2184,9 @@
       <c r="AN26" s="17"/>
     </row>
     <row r="27" spans="1:40" ht="12.75">
-      <c r="A27" s="49"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2529,6 +2469,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:T2"/>
     <mergeCell ref="U2:AD2"/>
     <mergeCell ref="AE2:AL2"/>
     <mergeCell ref="AM2:AN3"/>
@@ -2545,1260 +2495,9 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:T2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AG13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="33" width="6.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="51"/>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="48"/>
-      <c r="B2" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="49"/>
-      <c r="B3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB3" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="49"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="43">
-        <v>1168</v>
-      </c>
-      <c r="C4" s="43">
-        <v>111</v>
-      </c>
-      <c r="D4" s="43">
-        <v>112</v>
-      </c>
-      <c r="E4" s="43">
-        <v>29</v>
-      </c>
-      <c r="F4" s="43">
-        <v>10</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="41">
-        <v>1430</v>
-      </c>
-      <c r="I4" s="43">
-        <v>296</v>
-      </c>
-      <c r="J4" s="43">
-        <v>198</v>
-      </c>
-      <c r="K4" s="43">
-        <v>31</v>
-      </c>
-      <c r="L4" s="43">
-        <v>5</v>
-      </c>
-      <c r="M4" s="43">
-        <v>0</v>
-      </c>
-      <c r="N4" s="41">
-        <v>530</v>
-      </c>
-      <c r="O4" s="41">
-        <v>1960</v>
-      </c>
-      <c r="P4" s="44">
-        <v>651</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>32</v>
-      </c>
-      <c r="R4" s="43">
-        <v>16</v>
-      </c>
-      <c r="S4" s="43">
-        <v>148</v>
-      </c>
-      <c r="T4" s="41">
-        <v>847</v>
-      </c>
-      <c r="U4" s="43">
-        <v>14</v>
-      </c>
-      <c r="V4" s="43">
-        <v>30</v>
-      </c>
-      <c r="W4" s="43">
-        <v>76</v>
-      </c>
-      <c r="X4" s="41">
-        <v>120</v>
-      </c>
-      <c r="Y4" s="41">
-        <v>970</v>
-      </c>
-      <c r="Z4" s="43">
-        <v>506</v>
-      </c>
-      <c r="AA4" s="43">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="43">
-        <v>90</v>
-      </c>
-      <c r="AC4" s="41">
-        <v>601</v>
-      </c>
-      <c r="AD4" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="43">
-        <v>33</v>
-      </c>
-      <c r="AF4" s="41">
-        <v>34</v>
-      </c>
-      <c r="AG4" s="41">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="43">
-        <v>55</v>
-      </c>
-      <c r="C5" s="43">
-        <v>18</v>
-      </c>
-      <c r="D5" s="43">
-        <v>8</v>
-      </c>
-      <c r="E5" s="43">
-        <v>13</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="41">
-        <v>94</v>
-      </c>
-      <c r="I5" s="43">
-        <v>12</v>
-      </c>
-      <c r="J5" s="43">
-        <v>19</v>
-      </c>
-      <c r="K5" s="43">
-        <v>0</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="43">
-        <v>0</v>
-      </c>
-      <c r="N5" s="41">
-        <v>31</v>
-      </c>
-      <c r="O5" s="41">
-        <v>125</v>
-      </c>
-      <c r="P5" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>0</v>
-      </c>
-      <c r="R5" s="43">
-        <v>0</v>
-      </c>
-      <c r="S5" s="43">
-        <v>0</v>
-      </c>
-      <c r="T5" s="41">
-        <v>0</v>
-      </c>
-      <c r="U5" s="43">
-        <v>0</v>
-      </c>
-      <c r="V5" s="43">
-        <v>0</v>
-      </c>
-      <c r="W5" s="43">
-        <v>0</v>
-      </c>
-      <c r="X5" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC5" s="41">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF5" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="43">
-        <v>208</v>
-      </c>
-      <c r="C6" s="43">
-        <v>12</v>
-      </c>
-      <c r="D6" s="43">
-        <v>61</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="43">
-        <v>15</v>
-      </c>
-      <c r="G6" s="43">
-        <v>9</v>
-      </c>
-      <c r="H6" s="41">
-        <v>305</v>
-      </c>
-      <c r="I6" s="43">
-        <v>0</v>
-      </c>
-      <c r="J6" s="43">
-        <v>1</v>
-      </c>
-      <c r="K6" s="43">
-        <v>0</v>
-      </c>
-      <c r="L6" s="43">
-        <v>1</v>
-      </c>
-      <c r="M6" s="43">
-        <v>13</v>
-      </c>
-      <c r="N6" s="41">
-        <v>15</v>
-      </c>
-      <c r="O6" s="41">
-        <v>320</v>
-      </c>
-      <c r="P6" s="44">
-        <v>120</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>12</v>
-      </c>
-      <c r="R6" s="43">
-        <v>0</v>
-      </c>
-      <c r="S6" s="43">
-        <v>0</v>
-      </c>
-      <c r="T6" s="41">
-        <v>132</v>
-      </c>
-      <c r="U6" s="43">
-        <v>0</v>
-      </c>
-      <c r="V6" s="43">
-        <v>0</v>
-      </c>
-      <c r="W6" s="43">
-        <v>0</v>
-      </c>
-      <c r="X6" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="41">
-        <v>139</v>
-      </c>
-      <c r="Z6" s="43">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC6" s="41">
-        <v>28</v>
-      </c>
-      <c r="AD6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE6" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF6" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="41">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="43">
-        <v>13</v>
-      </c>
-      <c r="C7" s="43">
-        <v>172</v>
-      </c>
-      <c r="D7" s="43">
-        <v>36</v>
-      </c>
-      <c r="E7" s="43">
-        <v>39</v>
-      </c>
-      <c r="F7" s="43">
-        <v>5</v>
-      </c>
-      <c r="G7" s="43">
-        <v>13</v>
-      </c>
-      <c r="H7" s="41">
-        <v>278</v>
-      </c>
-      <c r="I7" s="43">
-        <v>18</v>
-      </c>
-      <c r="J7" s="43">
-        <v>0</v>
-      </c>
-      <c r="K7" s="43">
-        <v>1</v>
-      </c>
-      <c r="L7" s="43">
-        <v>0</v>
-      </c>
-      <c r="M7" s="43">
-        <v>15</v>
-      </c>
-      <c r="N7" s="41">
-        <v>34</v>
-      </c>
-      <c r="O7" s="41">
-        <v>312</v>
-      </c>
-      <c r="P7" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>0</v>
-      </c>
-      <c r="R7" s="43">
-        <v>15</v>
-      </c>
-      <c r="S7" s="43">
-        <v>13</v>
-      </c>
-      <c r="T7" s="41">
-        <v>28</v>
-      </c>
-      <c r="U7" s="43">
-        <v>0</v>
-      </c>
-      <c r="V7" s="43">
-        <v>0</v>
-      </c>
-      <c r="W7" s="43">
-        <v>0</v>
-      </c>
-      <c r="X7" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="41">
-        <v>38</v>
-      </c>
-      <c r="Z7" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA7" s="43">
-        <v>15</v>
-      </c>
-      <c r="AB7" s="43">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="41">
-        <v>20</v>
-      </c>
-      <c r="AD7" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE7" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF7" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="43">
-        <v>3</v>
-      </c>
-      <c r="C8" s="43">
-        <v>0</v>
-      </c>
-      <c r="D8" s="43">
-        <v>15</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="43">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="41">
-        <v>20</v>
-      </c>
-      <c r="I8" s="43">
-        <v>0</v>
-      </c>
-      <c r="J8" s="43">
-        <v>3</v>
-      </c>
-      <c r="K8" s="43">
-        <v>0</v>
-      </c>
-      <c r="L8" s="43">
-        <v>3</v>
-      </c>
-      <c r="M8" s="43">
-        <v>0</v>
-      </c>
-      <c r="N8" s="41">
-        <v>6</v>
-      </c>
-      <c r="O8" s="41">
-        <v>26</v>
-      </c>
-      <c r="P8" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>0</v>
-      </c>
-      <c r="R8" s="43">
-        <v>2</v>
-      </c>
-      <c r="S8" s="43">
-        <v>0</v>
-      </c>
-      <c r="T8" s="41">
-        <v>2</v>
-      </c>
-      <c r="U8" s="43">
-        <v>0</v>
-      </c>
-      <c r="V8" s="43">
-        <v>0</v>
-      </c>
-      <c r="W8" s="43">
-        <v>0</v>
-      </c>
-      <c r="X8" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="41">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC8" s="41">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF8" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="43">
-        <v>0</v>
-      </c>
-      <c r="C9" s="43">
-        <v>0</v>
-      </c>
-      <c r="D9" s="43">
-        <v>0</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="43">
-        <v>0</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="41">
-        <v>0</v>
-      </c>
-      <c r="I9" s="43">
-        <v>0</v>
-      </c>
-      <c r="J9" s="43">
-        <v>0</v>
-      </c>
-      <c r="K9" s="43">
-        <v>0</v>
-      </c>
-      <c r="L9" s="43">
-        <v>0</v>
-      </c>
-      <c r="M9" s="43">
-        <v>0</v>
-      </c>
-      <c r="N9" s="41">
-        <v>0</v>
-      </c>
-      <c r="O9" s="41">
-        <v>0</v>
-      </c>
-      <c r="P9" s="43">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="43">
-        <v>0</v>
-      </c>
-      <c r="R9" s="43">
-        <v>0</v>
-      </c>
-      <c r="S9" s="43">
-        <v>2</v>
-      </c>
-      <c r="T9" s="41">
-        <v>4</v>
-      </c>
-      <c r="U9" s="43">
-        <v>0</v>
-      </c>
-      <c r="V9" s="43">
-        <v>0</v>
-      </c>
-      <c r="W9" s="43">
-        <v>0</v>
-      </c>
-      <c r="X9" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="41">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC9" s="41">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE9" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF9" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="43">
-        <v>4</v>
-      </c>
-      <c r="C10" s="43">
-        <v>0</v>
-      </c>
-      <c r="D10" s="43">
-        <v>6</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="43">
-        <v>2</v>
-      </c>
-      <c r="G10" s="43">
-        <v>21</v>
-      </c>
-      <c r="H10" s="41">
-        <v>33</v>
-      </c>
-      <c r="I10" s="43">
-        <v>0</v>
-      </c>
-      <c r="J10" s="43">
-        <v>0</v>
-      </c>
-      <c r="K10" s="43">
-        <v>0</v>
-      </c>
-      <c r="L10" s="43">
-        <v>0</v>
-      </c>
-      <c r="M10" s="43">
-        <v>1</v>
-      </c>
-      <c r="N10" s="41">
-        <v>1</v>
-      </c>
-      <c r="O10" s="41">
-        <v>34</v>
-      </c>
-      <c r="P10" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="43">
-        <v>0</v>
-      </c>
-      <c r="R10" s="43">
-        <v>0</v>
-      </c>
-      <c r="S10" s="43">
-        <v>0</v>
-      </c>
-      <c r="T10" s="41">
-        <v>0</v>
-      </c>
-      <c r="U10" s="43">
-        <v>0</v>
-      </c>
-      <c r="V10" s="43">
-        <v>0</v>
-      </c>
-      <c r="W10" s="43">
-        <v>0</v>
-      </c>
-      <c r="X10" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC10" s="41">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF10" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="43">
-        <v>4</v>
-      </c>
-      <c r="C11" s="43">
-        <v>2</v>
-      </c>
-      <c r="D11" s="43">
-        <v>24</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="43">
-        <v>0</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="41">
-        <v>30</v>
-      </c>
-      <c r="I11" s="43">
-        <v>0</v>
-      </c>
-      <c r="J11" s="43">
-        <v>11</v>
-      </c>
-      <c r="K11" s="43">
-        <v>0</v>
-      </c>
-      <c r="L11" s="43">
-        <v>0</v>
-      </c>
-      <c r="M11" s="43">
-        <v>9</v>
-      </c>
-      <c r="N11" s="41">
-        <v>20</v>
-      </c>
-      <c r="O11" s="41">
-        <v>50</v>
-      </c>
-      <c r="P11" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="43">
-        <v>0</v>
-      </c>
-      <c r="R11" s="43">
-        <v>0</v>
-      </c>
-      <c r="S11" s="43">
-        <v>0</v>
-      </c>
-      <c r="T11" s="41">
-        <v>0</v>
-      </c>
-      <c r="U11" s="43">
-        <v>0</v>
-      </c>
-      <c r="V11" s="43">
-        <v>0</v>
-      </c>
-      <c r="W11" s="43">
-        <v>0</v>
-      </c>
-      <c r="X11" s="41">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC11" s="41">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE11" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF11" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="43">
-        <v>14</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="41">
-        <v>14</v>
-      </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="41">
-        <v>0</v>
-      </c>
-      <c r="O12" s="41">
-        <v>14</v>
-      </c>
-      <c r="P12" s="44">
-        <v>89</v>
-      </c>
-      <c r="Q12" s="43">
-        <v>147</v>
-      </c>
-      <c r="R12" s="43">
-        <v>0</v>
-      </c>
-      <c r="S12" s="43">
-        <v>153</v>
-      </c>
-      <c r="T12" s="41">
-        <v>389</v>
-      </c>
-      <c r="U12" s="43">
-        <v>12</v>
-      </c>
-      <c r="V12" s="43">
-        <v>46</v>
-      </c>
-      <c r="W12" s="43">
-        <v>0</v>
-      </c>
-      <c r="X12" s="41">
-        <v>58</v>
-      </c>
-      <c r="Y12" s="41">
-        <v>416</v>
-      </c>
-      <c r="Z12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC12" s="41">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE12" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF12" s="41">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="45">
-        <f t="shared" ref="B13:E13" si="0">SUM(B4:B12)</f>
-        <v>1469</v>
-      </c>
-      <c r="C13" s="45">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="D13" s="45">
-        <f t="shared" si="0"/>
-        <v>262</v>
-      </c>
-      <c r="E13" s="45">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="F13" s="45">
-        <v>34</v>
-      </c>
-      <c r="G13" s="45">
-        <v>43</v>
-      </c>
-      <c r="H13" s="45">
-        <v>2204</v>
-      </c>
-      <c r="I13" s="45">
-        <v>326</v>
-      </c>
-      <c r="J13" s="45">
-        <v>232</v>
-      </c>
-      <c r="K13" s="45">
-        <v>32</v>
-      </c>
-      <c r="L13" s="45">
-        <v>9</v>
-      </c>
-      <c r="M13" s="45">
-        <v>38</v>
-      </c>
-      <c r="N13" s="45">
-        <v>637</v>
-      </c>
-      <c r="O13" s="45">
-        <v>2841</v>
-      </c>
-      <c r="P13" s="46">
-        <f t="shared" ref="P13:Y13" si="1">SUM(P4:P12)</f>
-        <v>862</v>
-      </c>
-      <c r="Q13" s="46">
-        <f t="shared" si="1"/>
-        <v>191</v>
-      </c>
-      <c r="R13" s="46">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="S13" s="46">
-        <f t="shared" si="1"/>
-        <v>316</v>
-      </c>
-      <c r="T13" s="46">
-        <f t="shared" si="1"/>
-        <v>1402</v>
-      </c>
-      <c r="U13" s="46">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="V13" s="46">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="W13" s="46">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="X13" s="46">
-        <f t="shared" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="Y13" s="46">
-        <f t="shared" si="1"/>
-        <v>1575</v>
-      </c>
-      <c r="Z13" s="45">
-        <v>534</v>
-      </c>
-      <c r="AA13" s="45">
-        <v>20</v>
-      </c>
-      <c r="AB13" s="45">
-        <v>95</v>
-      </c>
-      <c r="AC13" s="45">
-        <v>649</v>
-      </c>
-      <c r="AD13" s="45">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="45">
-        <v>33</v>
-      </c>
-      <c r="AF13" s="45">
-        <v>34</v>
-      </c>
-      <c r="AG13" s="45">
-        <v>683</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="P1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Dashboard/media/overall.xlsx
+++ b/Dashboard/media/overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitam__\DashBoard-BackEnd\Dashboard\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF5730-599E-4B52-B192-FAA7EF9CFE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF55D0-49C2-40CE-86AF-255267432F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="5355" windowWidth="21600" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CF 2022" sheetId="1" r:id="rId1"/>
@@ -631,37 +631,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,6 +661,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,13 +894,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CA35"/>
+  <dimension ref="A1:CY35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AM2" sqref="AM2:AN3"/>
+      <selection pane="bottomRight" activeCell="CV16" sqref="CV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -930,7 +930,7 @@
     <col min="40" max="40" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="33" customHeight="1">
+    <row r="1" spans="1:103" ht="33" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -972,142 +972,331 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="42"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="42"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="42"/>
+      <c r="BP1" s="42"/>
+      <c r="BQ1" s="42"/>
+      <c r="BR1" s="42"/>
+      <c r="BS1" s="42"/>
+      <c r="BT1" s="42"/>
+      <c r="BU1" s="42"/>
+      <c r="BV1" s="42"/>
+      <c r="BW1" s="42"/>
+      <c r="BX1" s="42"/>
+      <c r="BY1" s="42"/>
+      <c r="BZ1" s="42"/>
+      <c r="CA1" s="42"/>
+      <c r="CB1" s="42"/>
+      <c r="CC1" s="42"/>
+      <c r="CD1" s="42"/>
+      <c r="CE1" s="42"/>
+      <c r="CF1" s="42"/>
+      <c r="CG1" s="42"/>
+      <c r="CH1" s="42"/>
+      <c r="CI1" s="42"/>
+      <c r="CJ1" s="42"/>
+      <c r="CK1" s="42"/>
+      <c r="CL1" s="42"/>
+      <c r="CM1" s="42"/>
+      <c r="CN1" s="42"/>
+      <c r="CO1" s="42"/>
+      <c r="CP1" s="42"/>
+      <c r="CQ1" s="42"/>
+      <c r="CR1" s="42"/>
+      <c r="CS1" s="42"/>
+      <c r="CT1" s="42"/>
+      <c r="CU1" s="42"/>
+      <c r="CV1" s="42"/>
+      <c r="CW1" s="42"/>
+      <c r="CX1" s="42"/>
+      <c r="CY1" s="42"/>
     </row>
-    <row r="2" spans="1:79" ht="25.5" customHeight="1">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:103" ht="25.5" customHeight="1">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="46" t="s">
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="52" t="s">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="53"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="42"/>
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="42"/>
+      <c r="AZ2" s="42"/>
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="42"/>
+      <c r="BF2" s="42"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="42"/>
+      <c r="BL2" s="42"/>
+      <c r="BM2" s="42"/>
+      <c r="BN2" s="42"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="42"/>
+      <c r="BQ2" s="42"/>
+      <c r="BR2" s="42"/>
+      <c r="BS2" s="42"/>
+      <c r="BT2" s="42"/>
+      <c r="BU2" s="42"/>
+      <c r="BV2" s="42"/>
+      <c r="BW2" s="42"/>
+      <c r="BX2" s="42"/>
+      <c r="BY2" s="42"/>
+      <c r="BZ2" s="42"/>
+      <c r="CA2" s="42"/>
+      <c r="CB2" s="42"/>
+      <c r="CC2" s="42"/>
+      <c r="CD2" s="42"/>
+      <c r="CE2" s="42"/>
+      <c r="CF2" s="42"/>
+      <c r="CG2" s="42"/>
+      <c r="CH2" s="42"/>
+      <c r="CI2" s="42"/>
+      <c r="CJ2" s="42"/>
+      <c r="CK2" s="42"/>
+      <c r="CL2" s="42"/>
+      <c r="CM2" s="42"/>
+      <c r="CN2" s="42"/>
+      <c r="CO2" s="42"/>
+      <c r="CP2" s="42"/>
+      <c r="CQ2" s="42"/>
+      <c r="CR2" s="42"/>
+      <c r="CS2" s="42"/>
+      <c r="CT2" s="42"/>
+      <c r="CU2" s="42"/>
+      <c r="CV2" s="42"/>
+      <c r="CW2" s="42"/>
+      <c r="CX2" s="42"/>
+      <c r="CY2" s="42"/>
     </row>
-    <row r="3" spans="1:79" ht="25.5" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="50" t="s">
+    <row r="3" spans="1:103" ht="25.5" customHeight="1">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="57" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="50" t="s">
+      <c r="J3" s="48"/>
+      <c r="K3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="50" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="48"/>
+      <c r="O3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="50" t="s">
+      <c r="P3" s="48"/>
+      <c r="Q3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="50" t="s">
+      <c r="R3" s="48"/>
+      <c r="S3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="43" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="58" t="s">
+      <c r="V3" s="48"/>
+      <c r="W3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="59" t="s">
+      <c r="X3" s="46"/>
+      <c r="Y3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="59" t="s">
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="60" t="s">
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="62" t="s">
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="62" t="s">
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="56" t="s">
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="56" t="s">
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42"/>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
+      <c r="CM3" s="42"/>
+      <c r="CN3" s="42"/>
+      <c r="CO3" s="42"/>
+      <c r="CP3" s="42"/>
+      <c r="CQ3" s="42"/>
+      <c r="CR3" s="42"/>
+      <c r="CS3" s="42"/>
+      <c r="CT3" s="42"/>
+      <c r="CU3" s="42"/>
+      <c r="CV3" s="42"/>
+      <c r="CW3" s="42"/>
+      <c r="CX3" s="42"/>
+      <c r="CY3" s="42"/>
     </row>
-    <row r="4" spans="1:79" ht="25.5" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:103" ht="25.5" customHeight="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1222,8 +1411,71 @@
       <c r="AN4" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42"/>
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="42"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="42"/>
+      <c r="CL4" s="42"/>
+      <c r="CM4" s="42"/>
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42"/>
+      <c r="CT4" s="42"/>
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
     </row>
-    <row r="5" spans="1:79" s="19" customFormat="1" ht="12.75">
+    <row r="5" spans="1:103" s="19" customFormat="1" ht="12.75">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -1331,8 +1583,32 @@
       <c r="BY5" s="42"/>
       <c r="BZ5" s="42"/>
       <c r="CA5" s="42"/>
+      <c r="CB5" s="42"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42"/>
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="42"/>
+      <c r="CM5" s="42"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="42"/>
+      <c r="CT5" s="42"/>
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
+      <c r="CW5" s="42"/>
+      <c r="CX5" s="42"/>
+      <c r="CY5" s="42"/>
     </row>
-    <row r="6" spans="1:79" s="19" customFormat="1" ht="12.75">
+    <row r="6" spans="1:103" s="19" customFormat="1" ht="12.75">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -1440,8 +1716,32 @@
       <c r="BY6" s="42"/>
       <c r="BZ6" s="42"/>
       <c r="CA6" s="42"/>
+      <c r="CB6" s="42"/>
+      <c r="CC6" s="42"/>
+      <c r="CD6" s="42"/>
+      <c r="CE6" s="42"/>
+      <c r="CF6" s="42"/>
+      <c r="CG6" s="42"/>
+      <c r="CH6" s="42"/>
+      <c r="CI6" s="42"/>
+      <c r="CJ6" s="42"/>
+      <c r="CK6" s="42"/>
+      <c r="CL6" s="42"/>
+      <c r="CM6" s="42"/>
+      <c r="CN6" s="42"/>
+      <c r="CO6" s="42"/>
+      <c r="CP6" s="42"/>
+      <c r="CQ6" s="42"/>
+      <c r="CR6" s="42"/>
+      <c r="CS6" s="42"/>
+      <c r="CT6" s="42"/>
+      <c r="CU6" s="42"/>
+      <c r="CV6" s="42"/>
+      <c r="CW6" s="42"/>
+      <c r="CX6" s="42"/>
+      <c r="CY6" s="42"/>
     </row>
-    <row r="7" spans="1:79" s="19" customFormat="1" ht="12.75">
+    <row r="7" spans="1:103" s="19" customFormat="1" ht="12.75">
       <c r="A7" s="20">
         <v>3</v>
       </c>
@@ -1549,8 +1849,32 @@
       <c r="BY7" s="42"/>
       <c r="BZ7" s="42"/>
       <c r="CA7" s="42"/>
+      <c r="CB7" s="42"/>
+      <c r="CC7" s="42"/>
+      <c r="CD7" s="42"/>
+      <c r="CE7" s="42"/>
+      <c r="CF7" s="42"/>
+      <c r="CG7" s="42"/>
+      <c r="CH7" s="42"/>
+      <c r="CI7" s="42"/>
+      <c r="CJ7" s="42"/>
+      <c r="CK7" s="42"/>
+      <c r="CL7" s="42"/>
+      <c r="CM7" s="42"/>
+      <c r="CN7" s="42"/>
+      <c r="CO7" s="42"/>
+      <c r="CP7" s="42"/>
+      <c r="CQ7" s="42"/>
+      <c r="CR7" s="42"/>
+      <c r="CS7" s="42"/>
+      <c r="CT7" s="42"/>
+      <c r="CU7" s="42"/>
+      <c r="CV7" s="42"/>
+      <c r="CW7" s="42"/>
+      <c r="CX7" s="42"/>
+      <c r="CY7" s="42"/>
     </row>
-    <row r="8" spans="1:79" s="19" customFormat="1" ht="12.75">
+    <row r="8" spans="1:103" s="19" customFormat="1" ht="12.75">
       <c r="A8" s="20">
         <v>4</v>
       </c>
@@ -1658,8 +1982,32 @@
       <c r="BY8" s="42"/>
       <c r="BZ8" s="42"/>
       <c r="CA8" s="42"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="42"/>
+      <c r="CD8" s="42"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="42"/>
+      <c r="CJ8" s="42"/>
+      <c r="CK8" s="42"/>
+      <c r="CL8" s="42"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="42"/>
+      <c r="CR8" s="42"/>
+      <c r="CS8" s="42"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="42"/>
+      <c r="CX8" s="42"/>
+      <c r="CY8" s="42"/>
     </row>
-    <row r="9" spans="1:79" s="19" customFormat="1" ht="12.75">
+    <row r="9" spans="1:103" s="19" customFormat="1" ht="12.75">
       <c r="A9" s="20">
         <v>5</v>
       </c>
@@ -1767,9 +2115,33 @@
       <c r="BY9" s="42"/>
       <c r="BZ9" s="42"/>
       <c r="CA9" s="42"/>
+      <c r="CB9" s="42"/>
+      <c r="CC9" s="42"/>
+      <c r="CD9" s="42"/>
+      <c r="CE9" s="42"/>
+      <c r="CF9" s="42"/>
+      <c r="CG9" s="42"/>
+      <c r="CH9" s="42"/>
+      <c r="CI9" s="42"/>
+      <c r="CJ9" s="42"/>
+      <c r="CK9" s="42"/>
+      <c r="CL9" s="42"/>
+      <c r="CM9" s="42"/>
+      <c r="CN9" s="42"/>
+      <c r="CO9" s="42"/>
+      <c r="CP9" s="42"/>
+      <c r="CQ9" s="42"/>
+      <c r="CR9" s="42"/>
+      <c r="CS9" s="42"/>
+      <c r="CT9" s="42"/>
+      <c r="CU9" s="42"/>
+      <c r="CV9" s="42"/>
+      <c r="CW9" s="42"/>
+      <c r="CX9" s="42"/>
+      <c r="CY9" s="42"/>
     </row>
-    <row r="10" spans="1:79" ht="12.75">
-      <c r="A10" s="47">
+    <row r="10" spans="1:103" ht="12.75">
+      <c r="A10" s="59">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1876,9 +2248,33 @@
       <c r="BY10" s="42"/>
       <c r="BZ10" s="42"/>
       <c r="CA10" s="42"/>
+      <c r="CB10" s="42"/>
+      <c r="CC10" s="42"/>
+      <c r="CD10" s="42"/>
+      <c r="CE10" s="42"/>
+      <c r="CF10" s="42"/>
+      <c r="CG10" s="42"/>
+      <c r="CH10" s="42"/>
+      <c r="CI10" s="42"/>
+      <c r="CJ10" s="42"/>
+      <c r="CK10" s="42"/>
+      <c r="CL10" s="42"/>
+      <c r="CM10" s="42"/>
+      <c r="CN10" s="42"/>
+      <c r="CO10" s="42"/>
+      <c r="CP10" s="42"/>
+      <c r="CQ10" s="42"/>
+      <c r="CR10" s="42"/>
+      <c r="CS10" s="42"/>
+      <c r="CT10" s="42"/>
+      <c r="CU10" s="42"/>
+      <c r="CV10" s="42"/>
+      <c r="CW10" s="42"/>
+      <c r="CX10" s="42"/>
+      <c r="CY10" s="42"/>
     </row>
-    <row r="11" spans="1:79" s="16" customFormat="1" ht="12.75">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:103" s="16" customFormat="1" ht="12.75">
+      <c r="A11" s="60"/>
       <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
@@ -1983,9 +2379,33 @@
       <c r="BY11" s="42"/>
       <c r="BZ11" s="42"/>
       <c r="CA11" s="42"/>
+      <c r="CB11" s="42"/>
+      <c r="CC11" s="42"/>
+      <c r="CD11" s="42"/>
+      <c r="CE11" s="42"/>
+      <c r="CF11" s="42"/>
+      <c r="CG11" s="42"/>
+      <c r="CH11" s="42"/>
+      <c r="CI11" s="42"/>
+      <c r="CJ11" s="42"/>
+      <c r="CK11" s="42"/>
+      <c r="CL11" s="42"/>
+      <c r="CM11" s="42"/>
+      <c r="CN11" s="42"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="42"/>
+      <c r="CR11" s="42"/>
+      <c r="CS11" s="42"/>
+      <c r="CT11" s="42"/>
+      <c r="CU11" s="42"/>
+      <c r="CV11" s="42"/>
+      <c r="CW11" s="42"/>
+      <c r="CX11" s="42"/>
+      <c r="CY11" s="42"/>
     </row>
-    <row r="12" spans="1:79" s="16" customFormat="1" ht="12.75">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:103" s="16" customFormat="1" ht="12.75">
+      <c r="A12" s="60"/>
       <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
@@ -2090,9 +2510,33 @@
       <c r="BY12" s="42"/>
       <c r="BZ12" s="42"/>
       <c r="CA12" s="42"/>
+      <c r="CB12" s="42"/>
+      <c r="CC12" s="42"/>
+      <c r="CD12" s="42"/>
+      <c r="CE12" s="42"/>
+      <c r="CF12" s="42"/>
+      <c r="CG12" s="42"/>
+      <c r="CH12" s="42"/>
+      <c r="CI12" s="42"/>
+      <c r="CJ12" s="42"/>
+      <c r="CK12" s="42"/>
+      <c r="CL12" s="42"/>
+      <c r="CM12" s="42"/>
+      <c r="CN12" s="42"/>
+      <c r="CO12" s="42"/>
+      <c r="CP12" s="42"/>
+      <c r="CQ12" s="42"/>
+      <c r="CR12" s="42"/>
+      <c r="CS12" s="42"/>
+      <c r="CT12" s="42"/>
+      <c r="CU12" s="42"/>
+      <c r="CV12" s="42"/>
+      <c r="CW12" s="42"/>
+      <c r="CX12" s="42"/>
+      <c r="CY12" s="42"/>
     </row>
-    <row r="13" spans="1:79" s="16" customFormat="1" ht="12.75">
-      <c r="A13" s="49"/>
+    <row r="13" spans="1:103" s="16" customFormat="1" ht="12.75">
+      <c r="A13" s="61"/>
       <c r="B13" s="15" t="s">
         <v>27</v>
       </c>
@@ -2197,8 +2641,32 @@
       <c r="BY13" s="42"/>
       <c r="BZ13" s="42"/>
       <c r="CA13" s="42"/>
+      <c r="CB13" s="42"/>
+      <c r="CC13" s="42"/>
+      <c r="CD13" s="42"/>
+      <c r="CE13" s="42"/>
+      <c r="CF13" s="42"/>
+      <c r="CG13" s="42"/>
+      <c r="CH13" s="42"/>
+      <c r="CI13" s="42"/>
+      <c r="CJ13" s="42"/>
+      <c r="CK13" s="42"/>
+      <c r="CL13" s="42"/>
+      <c r="CM13" s="42"/>
+      <c r="CN13" s="42"/>
+      <c r="CO13" s="42"/>
+      <c r="CP13" s="42"/>
+      <c r="CQ13" s="42"/>
+      <c r="CR13" s="42"/>
+      <c r="CS13" s="42"/>
+      <c r="CT13" s="42"/>
+      <c r="CU13" s="42"/>
+      <c r="CV13" s="42"/>
+      <c r="CW13" s="42"/>
+      <c r="CX13" s="42"/>
+      <c r="CY13" s="42"/>
     </row>
-    <row r="14" spans="1:79" ht="12.75">
+    <row r="14" spans="1:103" ht="12.75">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -2306,8 +2774,32 @@
       <c r="BY14" s="42"/>
       <c r="BZ14" s="42"/>
       <c r="CA14" s="42"/>
+      <c r="CB14" s="42"/>
+      <c r="CC14" s="42"/>
+      <c r="CD14" s="42"/>
+      <c r="CE14" s="42"/>
+      <c r="CF14" s="42"/>
+      <c r="CG14" s="42"/>
+      <c r="CH14" s="42"/>
+      <c r="CI14" s="42"/>
+      <c r="CJ14" s="42"/>
+      <c r="CK14" s="42"/>
+      <c r="CL14" s="42"/>
+      <c r="CM14" s="42"/>
+      <c r="CN14" s="42"/>
+      <c r="CO14" s="42"/>
+      <c r="CP14" s="42"/>
+      <c r="CQ14" s="42"/>
+      <c r="CR14" s="42"/>
+      <c r="CS14" s="42"/>
+      <c r="CT14" s="42"/>
+      <c r="CU14" s="42"/>
+      <c r="CV14" s="42"/>
+      <c r="CW14" s="42"/>
+      <c r="CX14" s="42"/>
+      <c r="CY14" s="42"/>
     </row>
-    <row r="15" spans="1:79" s="23" customFormat="1" ht="12.75">
+    <row r="15" spans="1:103" s="23" customFormat="1" ht="12.75">
       <c r="A15" s="21">
         <v>8</v>
       </c>
@@ -2415,8 +2907,32 @@
       <c r="BY15" s="42"/>
       <c r="BZ15" s="42"/>
       <c r="CA15" s="42"/>
+      <c r="CB15" s="42"/>
+      <c r="CC15" s="42"/>
+      <c r="CD15" s="42"/>
+      <c r="CE15" s="42"/>
+      <c r="CF15" s="42"/>
+      <c r="CG15" s="42"/>
+      <c r="CH15" s="42"/>
+      <c r="CI15" s="42"/>
+      <c r="CJ15" s="42"/>
+      <c r="CK15" s="42"/>
+      <c r="CL15" s="42"/>
+      <c r="CM15" s="42"/>
+      <c r="CN15" s="42"/>
+      <c r="CO15" s="42"/>
+      <c r="CP15" s="42"/>
+      <c r="CQ15" s="42"/>
+      <c r="CR15" s="42"/>
+      <c r="CS15" s="42"/>
+      <c r="CT15" s="42"/>
+      <c r="CU15" s="42"/>
+      <c r="CV15" s="42"/>
+      <c r="CW15" s="42"/>
+      <c r="CX15" s="42"/>
+      <c r="CY15" s="42"/>
     </row>
-    <row r="16" spans="1:79" s="23" customFormat="1" ht="12.75">
+    <row r="16" spans="1:103" s="23" customFormat="1" ht="12.75">
       <c r="A16" s="21">
         <v>9</v>
       </c>
@@ -2524,8 +3040,32 @@
       <c r="BY16" s="42"/>
       <c r="BZ16" s="42"/>
       <c r="CA16" s="42"/>
+      <c r="CB16" s="42"/>
+      <c r="CC16" s="42"/>
+      <c r="CD16" s="42"/>
+      <c r="CE16" s="42"/>
+      <c r="CF16" s="42"/>
+      <c r="CG16" s="42"/>
+      <c r="CH16" s="42"/>
+      <c r="CI16" s="42"/>
+      <c r="CJ16" s="42"/>
+      <c r="CK16" s="42"/>
+      <c r="CL16" s="42"/>
+      <c r="CM16" s="42"/>
+      <c r="CN16" s="42"/>
+      <c r="CO16" s="42"/>
+      <c r="CP16" s="42"/>
+      <c r="CQ16" s="42"/>
+      <c r="CR16" s="42"/>
+      <c r="CS16" s="42"/>
+      <c r="CT16" s="42"/>
+      <c r="CU16" s="42"/>
+      <c r="CV16" s="42"/>
+      <c r="CW16" s="42"/>
+      <c r="CX16" s="42"/>
+      <c r="CY16" s="42"/>
     </row>
-    <row r="17" spans="1:79" ht="12.75">
+    <row r="17" spans="1:103" ht="12.75">
       <c r="A17" s="9">
         <v>10</v>
       </c>
@@ -2633,8 +3173,32 @@
       <c r="BY17" s="42"/>
       <c r="BZ17" s="42"/>
       <c r="CA17" s="42"/>
+      <c r="CB17" s="42"/>
+      <c r="CC17" s="42"/>
+      <c r="CD17" s="42"/>
+      <c r="CE17" s="42"/>
+      <c r="CF17" s="42"/>
+      <c r="CG17" s="42"/>
+      <c r="CH17" s="42"/>
+      <c r="CI17" s="42"/>
+      <c r="CJ17" s="42"/>
+      <c r="CK17" s="42"/>
+      <c r="CL17" s="42"/>
+      <c r="CM17" s="42"/>
+      <c r="CN17" s="42"/>
+      <c r="CO17" s="42"/>
+      <c r="CP17" s="42"/>
+      <c r="CQ17" s="42"/>
+      <c r="CR17" s="42"/>
+      <c r="CS17" s="42"/>
+      <c r="CT17" s="42"/>
+      <c r="CU17" s="42"/>
+      <c r="CV17" s="42"/>
+      <c r="CW17" s="42"/>
+      <c r="CX17" s="42"/>
+      <c r="CY17" s="42"/>
     </row>
-    <row r="18" spans="1:79" ht="12.75">
+    <row r="18" spans="1:103" ht="12.75">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -2742,8 +3306,32 @@
       <c r="BY18" s="42"/>
       <c r="BZ18" s="42"/>
       <c r="CA18" s="42"/>
+      <c r="CB18" s="42"/>
+      <c r="CC18" s="42"/>
+      <c r="CD18" s="42"/>
+      <c r="CE18" s="42"/>
+      <c r="CF18" s="42"/>
+      <c r="CG18" s="42"/>
+      <c r="CH18" s="42"/>
+      <c r="CI18" s="42"/>
+      <c r="CJ18" s="42"/>
+      <c r="CK18" s="42"/>
+      <c r="CL18" s="42"/>
+      <c r="CM18" s="42"/>
+      <c r="CN18" s="42"/>
+      <c r="CO18" s="42"/>
+      <c r="CP18" s="42"/>
+      <c r="CQ18" s="42"/>
+      <c r="CR18" s="42"/>
+      <c r="CS18" s="42"/>
+      <c r="CT18" s="42"/>
+      <c r="CU18" s="42"/>
+      <c r="CV18" s="42"/>
+      <c r="CW18" s="42"/>
+      <c r="CX18" s="42"/>
+      <c r="CY18" s="42"/>
     </row>
-    <row r="19" spans="1:79" ht="12.75">
+    <row r="19" spans="1:103" ht="12.75">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -2851,8 +3439,32 @@
       <c r="BY19" s="42"/>
       <c r="BZ19" s="42"/>
       <c r="CA19" s="42"/>
+      <c r="CB19" s="42"/>
+      <c r="CC19" s="42"/>
+      <c r="CD19" s="42"/>
+      <c r="CE19" s="42"/>
+      <c r="CF19" s="42"/>
+      <c r="CG19" s="42"/>
+      <c r="CH19" s="42"/>
+      <c r="CI19" s="42"/>
+      <c r="CJ19" s="42"/>
+      <c r="CK19" s="42"/>
+      <c r="CL19" s="42"/>
+      <c r="CM19" s="42"/>
+      <c r="CN19" s="42"/>
+      <c r="CO19" s="42"/>
+      <c r="CP19" s="42"/>
+      <c r="CQ19" s="42"/>
+      <c r="CR19" s="42"/>
+      <c r="CS19" s="42"/>
+      <c r="CT19" s="42"/>
+      <c r="CU19" s="42"/>
+      <c r="CV19" s="42"/>
+      <c r="CW19" s="42"/>
+      <c r="CX19" s="42"/>
+      <c r="CY19" s="42"/>
     </row>
-    <row r="20" spans="1:79" ht="12.75">
+    <row r="20" spans="1:103" ht="12.75">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -2960,8 +3572,32 @@
       <c r="BY20" s="42"/>
       <c r="BZ20" s="42"/>
       <c r="CA20" s="42"/>
+      <c r="CB20" s="42"/>
+      <c r="CC20" s="42"/>
+      <c r="CD20" s="42"/>
+      <c r="CE20" s="42"/>
+      <c r="CF20" s="42"/>
+      <c r="CG20" s="42"/>
+      <c r="CH20" s="42"/>
+      <c r="CI20" s="42"/>
+      <c r="CJ20" s="42"/>
+      <c r="CK20" s="42"/>
+      <c r="CL20" s="42"/>
+      <c r="CM20" s="42"/>
+      <c r="CN20" s="42"/>
+      <c r="CO20" s="42"/>
+      <c r="CP20" s="42"/>
+      <c r="CQ20" s="42"/>
+      <c r="CR20" s="42"/>
+      <c r="CS20" s="42"/>
+      <c r="CT20" s="42"/>
+      <c r="CU20" s="42"/>
+      <c r="CV20" s="42"/>
+      <c r="CW20" s="42"/>
+      <c r="CX20" s="42"/>
+      <c r="CY20" s="42"/>
     </row>
-    <row r="21" spans="1:79" ht="12.75">
+    <row r="21" spans="1:103" ht="12.75">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -3069,8 +3705,32 @@
       <c r="BY21" s="42"/>
       <c r="BZ21" s="42"/>
       <c r="CA21" s="42"/>
+      <c r="CB21" s="42"/>
+      <c r="CC21" s="42"/>
+      <c r="CD21" s="42"/>
+      <c r="CE21" s="42"/>
+      <c r="CF21" s="42"/>
+      <c r="CG21" s="42"/>
+      <c r="CH21" s="42"/>
+      <c r="CI21" s="42"/>
+      <c r="CJ21" s="42"/>
+      <c r="CK21" s="42"/>
+      <c r="CL21" s="42"/>
+      <c r="CM21" s="42"/>
+      <c r="CN21" s="42"/>
+      <c r="CO21" s="42"/>
+      <c r="CP21" s="42"/>
+      <c r="CQ21" s="42"/>
+      <c r="CR21" s="42"/>
+      <c r="CS21" s="42"/>
+      <c r="CT21" s="42"/>
+      <c r="CU21" s="42"/>
+      <c r="CV21" s="42"/>
+      <c r="CW21" s="42"/>
+      <c r="CX21" s="42"/>
+      <c r="CY21" s="42"/>
     </row>
-    <row r="22" spans="1:79" ht="12.75">
+    <row r="22" spans="1:103" ht="12.75">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -3178,8 +3838,32 @@
       <c r="BY22" s="42"/>
       <c r="BZ22" s="42"/>
       <c r="CA22" s="42"/>
+      <c r="CB22" s="42"/>
+      <c r="CC22" s="42"/>
+      <c r="CD22" s="42"/>
+      <c r="CE22" s="42"/>
+      <c r="CF22" s="42"/>
+      <c r="CG22" s="42"/>
+      <c r="CH22" s="42"/>
+      <c r="CI22" s="42"/>
+      <c r="CJ22" s="42"/>
+      <c r="CK22" s="42"/>
+      <c r="CL22" s="42"/>
+      <c r="CM22" s="42"/>
+      <c r="CN22" s="42"/>
+      <c r="CO22" s="42"/>
+      <c r="CP22" s="42"/>
+      <c r="CQ22" s="42"/>
+      <c r="CR22" s="42"/>
+      <c r="CS22" s="42"/>
+      <c r="CT22" s="42"/>
+      <c r="CU22" s="42"/>
+      <c r="CV22" s="42"/>
+      <c r="CW22" s="42"/>
+      <c r="CX22" s="42"/>
+      <c r="CY22" s="42"/>
     </row>
-    <row r="23" spans="1:79" ht="12.75">
+    <row r="23" spans="1:103" ht="12.75">
       <c r="A23" s="11">
         <v>16</v>
       </c>
@@ -3287,9 +3971,33 @@
       <c r="BY23" s="42"/>
       <c r="BZ23" s="42"/>
       <c r="CA23" s="42"/>
+      <c r="CB23" s="42"/>
+      <c r="CC23" s="42"/>
+      <c r="CD23" s="42"/>
+      <c r="CE23" s="42"/>
+      <c r="CF23" s="42"/>
+      <c r="CG23" s="42"/>
+      <c r="CH23" s="42"/>
+      <c r="CI23" s="42"/>
+      <c r="CJ23" s="42"/>
+      <c r="CK23" s="42"/>
+      <c r="CL23" s="42"/>
+      <c r="CM23" s="42"/>
+      <c r="CN23" s="42"/>
+      <c r="CO23" s="42"/>
+      <c r="CP23" s="42"/>
+      <c r="CQ23" s="42"/>
+      <c r="CR23" s="42"/>
+      <c r="CS23" s="42"/>
+      <c r="CT23" s="42"/>
+      <c r="CU23" s="42"/>
+      <c r="CV23" s="42"/>
+      <c r="CW23" s="42"/>
+      <c r="CX23" s="42"/>
+      <c r="CY23" s="42"/>
     </row>
-    <row r="24" spans="1:79" ht="12.75">
-      <c r="A24" s="47">
+    <row r="24" spans="1:103" ht="12.75">
+      <c r="A24" s="59">
         <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3372,9 +4080,33 @@
       <c r="BY24" s="42"/>
       <c r="BZ24" s="42"/>
       <c r="CA24" s="42"/>
+      <c r="CB24" s="42"/>
+      <c r="CC24" s="42"/>
+      <c r="CD24" s="42"/>
+      <c r="CE24" s="42"/>
+      <c r="CF24" s="42"/>
+      <c r="CG24" s="42"/>
+      <c r="CH24" s="42"/>
+      <c r="CI24" s="42"/>
+      <c r="CJ24" s="42"/>
+      <c r="CK24" s="42"/>
+      <c r="CL24" s="42"/>
+      <c r="CM24" s="42"/>
+      <c r="CN24" s="42"/>
+      <c r="CO24" s="42"/>
+      <c r="CP24" s="42"/>
+      <c r="CQ24" s="42"/>
+      <c r="CR24" s="42"/>
+      <c r="CS24" s="42"/>
+      <c r="CT24" s="42"/>
+      <c r="CU24" s="42"/>
+      <c r="CV24" s="42"/>
+      <c r="CW24" s="42"/>
+      <c r="CX24" s="42"/>
+      <c r="CY24" s="42"/>
     </row>
-    <row r="25" spans="1:79" s="16" customFormat="1" ht="12.75">
-      <c r="A25" s="48"/>
+    <row r="25" spans="1:103" s="16" customFormat="1" ht="12.75">
+      <c r="A25" s="60"/>
       <c r="B25" s="15" t="s">
         <v>39</v>
       </c>
@@ -3479,9 +4211,33 @@
       <c r="BY25" s="42"/>
       <c r="BZ25" s="42"/>
       <c r="CA25" s="42"/>
+      <c r="CB25" s="42"/>
+      <c r="CC25" s="42"/>
+      <c r="CD25" s="42"/>
+      <c r="CE25" s="42"/>
+      <c r="CF25" s="42"/>
+      <c r="CG25" s="42"/>
+      <c r="CH25" s="42"/>
+      <c r="CI25" s="42"/>
+      <c r="CJ25" s="42"/>
+      <c r="CK25" s="42"/>
+      <c r="CL25" s="42"/>
+      <c r="CM25" s="42"/>
+      <c r="CN25" s="42"/>
+      <c r="CO25" s="42"/>
+      <c r="CP25" s="42"/>
+      <c r="CQ25" s="42"/>
+      <c r="CR25" s="42"/>
+      <c r="CS25" s="42"/>
+      <c r="CT25" s="42"/>
+      <c r="CU25" s="42"/>
+      <c r="CV25" s="42"/>
+      <c r="CW25" s="42"/>
+      <c r="CX25" s="42"/>
+      <c r="CY25" s="42"/>
     </row>
-    <row r="26" spans="1:79" s="16" customFormat="1" ht="12.75">
-      <c r="A26" s="48"/>
+    <row r="26" spans="1:103" s="16" customFormat="1" ht="12.75">
+      <c r="A26" s="60"/>
       <c r="B26" s="15" t="s">
         <v>40</v>
       </c>
@@ -3586,9 +4342,33 @@
       <c r="BY26" s="42"/>
       <c r="BZ26" s="42"/>
       <c r="CA26" s="42"/>
+      <c r="CB26" s="42"/>
+      <c r="CC26" s="42"/>
+      <c r="CD26" s="42"/>
+      <c r="CE26" s="42"/>
+      <c r="CF26" s="42"/>
+      <c r="CG26" s="42"/>
+      <c r="CH26" s="42"/>
+      <c r="CI26" s="42"/>
+      <c r="CJ26" s="42"/>
+      <c r="CK26" s="42"/>
+      <c r="CL26" s="42"/>
+      <c r="CM26" s="42"/>
+      <c r="CN26" s="42"/>
+      <c r="CO26" s="42"/>
+      <c r="CP26" s="42"/>
+      <c r="CQ26" s="42"/>
+      <c r="CR26" s="42"/>
+      <c r="CS26" s="42"/>
+      <c r="CT26" s="42"/>
+      <c r="CU26" s="42"/>
+      <c r="CV26" s="42"/>
+      <c r="CW26" s="42"/>
+      <c r="CX26" s="42"/>
+      <c r="CY26" s="42"/>
     </row>
-    <row r="27" spans="1:79" s="16" customFormat="1" ht="12.75">
-      <c r="A27" s="49"/>
+    <row r="27" spans="1:103" s="16" customFormat="1" ht="12.75">
+      <c r="A27" s="61"/>
       <c r="B27" s="15" t="s">
         <v>41</v>
       </c>
@@ -3693,8 +4473,32 @@
       <c r="BY27" s="42"/>
       <c r="BZ27" s="42"/>
       <c r="CA27" s="42"/>
+      <c r="CB27" s="42"/>
+      <c r="CC27" s="42"/>
+      <c r="CD27" s="42"/>
+      <c r="CE27" s="42"/>
+      <c r="CF27" s="42"/>
+      <c r="CG27" s="42"/>
+      <c r="CH27" s="42"/>
+      <c r="CI27" s="42"/>
+      <c r="CJ27" s="42"/>
+      <c r="CK27" s="42"/>
+      <c r="CL27" s="42"/>
+      <c r="CM27" s="42"/>
+      <c r="CN27" s="42"/>
+      <c r="CO27" s="42"/>
+      <c r="CP27" s="42"/>
+      <c r="CQ27" s="42"/>
+      <c r="CR27" s="42"/>
+      <c r="CS27" s="42"/>
+      <c r="CT27" s="42"/>
+      <c r="CU27" s="42"/>
+      <c r="CV27" s="42"/>
+      <c r="CW27" s="42"/>
+      <c r="CX27" s="42"/>
+      <c r="CY27" s="42"/>
     </row>
-    <row r="28" spans="1:79" ht="12.75">
+    <row r="28" spans="1:103" ht="12.75">
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -3724,7 +4528,7 @@
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
     </row>
-    <row r="29" spans="1:79" ht="12.75">
+    <row r="29" spans="1:103" ht="12.75">
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -3754,7 +4558,7 @@
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
     </row>
-    <row r="30" spans="1:79" ht="12.75">
+    <row r="30" spans="1:103" ht="12.75">
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -3784,7 +4588,7 @@
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
     </row>
-    <row r="31" spans="1:79" ht="12.75">
+    <row r="31" spans="1:103" ht="12.75">
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -3814,7 +4618,7 @@
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
     </row>
-    <row r="32" spans="1:79" ht="12.75">
+    <row r="32" spans="1:103" ht="12.75">
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -3936,6 +4740,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="AE2:AL2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:T2"/>
     <mergeCell ref="AM2:AN3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="AK3:AL3"/>
@@ -3952,16 +4766,6 @@
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="AE2:AL2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:T2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Dashboard/media/overall.xlsx
+++ b/Dashboard/media/overall.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitam__\DashBoard-BackEnd\Dashboard\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF55D0-49C2-40CE-86AF-255267432F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C7C04-1C9F-437F-8B0E-A4C0151570A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,23 +631,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,18 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,13 +894,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CY35"/>
+  <dimension ref="A1:JU35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="AP5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="CV16" sqref="CV16"/>
+      <selection pane="bottomRight" activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -930,7 +930,7 @@
     <col min="40" max="40" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" ht="33" customHeight="1">
+    <row r="1" spans="1:281" ht="33" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1035,60 +1035,238 @@
       <c r="CW1" s="42"/>
       <c r="CX1" s="42"/>
       <c r="CY1" s="42"/>
+      <c r="CZ1" s="42"/>
+      <c r="DA1" s="42"/>
+      <c r="DB1" s="42"/>
+      <c r="DC1" s="42"/>
+      <c r="DD1" s="42"/>
+      <c r="DE1" s="42"/>
+      <c r="DF1" s="42"/>
+      <c r="DG1" s="42"/>
+      <c r="DH1" s="42"/>
+      <c r="DI1" s="42"/>
+      <c r="DJ1" s="42"/>
+      <c r="DK1" s="42"/>
+      <c r="DL1" s="42"/>
+      <c r="DM1" s="42"/>
+      <c r="DN1" s="42"/>
+      <c r="DO1" s="42"/>
+      <c r="DP1" s="42"/>
+      <c r="DQ1" s="42"/>
+      <c r="DR1" s="42"/>
+      <c r="DS1" s="42"/>
+      <c r="DT1" s="42"/>
+      <c r="DU1" s="42"/>
+      <c r="DV1" s="42"/>
+      <c r="DW1" s="42"/>
+      <c r="DX1" s="42"/>
+      <c r="DY1" s="42"/>
+      <c r="DZ1" s="42"/>
+      <c r="EA1" s="42"/>
+      <c r="EB1" s="42"/>
+      <c r="EC1" s="42"/>
+      <c r="ED1" s="42"/>
+      <c r="EE1" s="42"/>
+      <c r="EF1" s="42"/>
+      <c r="EG1" s="42"/>
+      <c r="EH1" s="42"/>
+      <c r="EI1" s="42"/>
+      <c r="EJ1" s="42"/>
+      <c r="EK1" s="42"/>
+      <c r="EL1" s="42"/>
+      <c r="EM1" s="42"/>
+      <c r="EN1" s="42"/>
+      <c r="EO1" s="42"/>
+      <c r="EP1" s="42"/>
+      <c r="EQ1" s="42"/>
+      <c r="ER1" s="42"/>
+      <c r="ES1" s="42"/>
+      <c r="ET1" s="42"/>
+      <c r="EU1" s="42"/>
+      <c r="EV1" s="42"/>
+      <c r="EW1" s="42"/>
+      <c r="EX1" s="42"/>
+      <c r="EY1" s="42"/>
+      <c r="EZ1" s="42"/>
+      <c r="FA1" s="42"/>
+      <c r="FB1" s="42"/>
+      <c r="FC1" s="42"/>
+      <c r="FD1" s="42"/>
+      <c r="FE1" s="42"/>
+      <c r="FF1" s="42"/>
+      <c r="FG1" s="42"/>
+      <c r="FH1" s="42"/>
+      <c r="FI1" s="42"/>
+      <c r="FJ1" s="42"/>
+      <c r="FK1" s="42"/>
+      <c r="FL1" s="42"/>
+      <c r="FM1" s="42"/>
+      <c r="FN1" s="42"/>
+      <c r="FO1" s="42"/>
+      <c r="FP1" s="42"/>
+      <c r="FQ1" s="42"/>
+      <c r="FR1" s="42"/>
+      <c r="FS1" s="42"/>
+      <c r="FT1" s="42"/>
+      <c r="FU1" s="42"/>
+      <c r="FV1" s="42"/>
+      <c r="FW1" s="42"/>
+      <c r="FX1" s="42"/>
+      <c r="FY1" s="42"/>
+      <c r="FZ1" s="42"/>
+      <c r="GA1" s="42"/>
+      <c r="GB1" s="42"/>
+      <c r="GC1" s="42"/>
+      <c r="GD1" s="42"/>
+      <c r="GE1" s="42"/>
+      <c r="GF1" s="42"/>
+      <c r="GG1" s="42"/>
+      <c r="GH1" s="42"/>
+      <c r="GI1" s="42"/>
+      <c r="GJ1" s="42"/>
+      <c r="GK1" s="42"/>
+      <c r="GL1" s="42"/>
+      <c r="GM1" s="42"/>
+      <c r="GN1" s="42"/>
+      <c r="GO1" s="42"/>
+      <c r="GP1" s="42"/>
+      <c r="GQ1" s="42"/>
+      <c r="GR1" s="42"/>
+      <c r="GS1" s="42"/>
+      <c r="GT1" s="42"/>
+      <c r="GU1" s="42"/>
+      <c r="GV1" s="42"/>
+      <c r="GW1" s="42"/>
+      <c r="GX1" s="42"/>
+      <c r="GY1" s="42"/>
+      <c r="GZ1" s="42"/>
+      <c r="HA1" s="42"/>
+      <c r="HB1" s="42"/>
+      <c r="HC1" s="42"/>
+      <c r="HD1" s="42"/>
+      <c r="HE1" s="42"/>
+      <c r="HF1" s="42"/>
+      <c r="HG1" s="42"/>
+      <c r="HH1" s="42"/>
+      <c r="HI1" s="42"/>
+      <c r="HJ1" s="42"/>
+      <c r="HK1" s="42"/>
+      <c r="HL1" s="42"/>
+      <c r="HM1" s="42"/>
+      <c r="HN1" s="42"/>
+      <c r="HO1" s="42"/>
+      <c r="HP1" s="42"/>
+      <c r="HQ1" s="42"/>
+      <c r="HR1" s="42"/>
+      <c r="HS1" s="42"/>
+      <c r="HT1" s="42"/>
+      <c r="HU1" s="42"/>
+      <c r="HV1" s="42"/>
+      <c r="HW1" s="42"/>
+      <c r="HX1" s="42"/>
+      <c r="HY1" s="42"/>
+      <c r="HZ1" s="42"/>
+      <c r="IA1" s="42"/>
+      <c r="IB1" s="42"/>
+      <c r="IC1" s="42"/>
+      <c r="ID1" s="42"/>
+      <c r="IE1" s="42"/>
+      <c r="IF1" s="42"/>
+      <c r="IG1" s="42"/>
+      <c r="IH1" s="42"/>
+      <c r="II1" s="42"/>
+      <c r="IJ1" s="42"/>
+      <c r="IK1" s="42"/>
+      <c r="IL1" s="42"/>
+      <c r="IM1" s="42"/>
+      <c r="IN1" s="42"/>
+      <c r="IO1" s="42"/>
+      <c r="IP1" s="42"/>
+      <c r="IQ1" s="42"/>
+      <c r="IR1" s="42"/>
+      <c r="IS1" s="42"/>
+      <c r="IT1" s="42"/>
+      <c r="IU1" s="42"/>
+      <c r="IV1" s="42"/>
+      <c r="IW1" s="42"/>
+      <c r="IX1" s="42"/>
+      <c r="IY1" s="42"/>
+      <c r="IZ1" s="42"/>
+      <c r="JA1" s="42"/>
+      <c r="JB1" s="42"/>
+      <c r="JC1" s="42"/>
+      <c r="JD1" s="42"/>
+      <c r="JE1" s="42"/>
+      <c r="JF1" s="42"/>
+      <c r="JG1" s="42"/>
+      <c r="JH1" s="42"/>
+      <c r="JI1" s="42"/>
+      <c r="JJ1" s="42"/>
+      <c r="JK1" s="42"/>
+      <c r="JL1" s="42"/>
+      <c r="JM1" s="42"/>
+      <c r="JN1" s="42"/>
+      <c r="JO1" s="42"/>
+      <c r="JP1" s="42"/>
+      <c r="JQ1" s="42"/>
+      <c r="JR1" s="42"/>
+      <c r="JS1" s="42"/>
+      <c r="JT1" s="42"/>
+      <c r="JU1" s="42"/>
     </row>
-    <row r="2" spans="1:103" ht="25.5" customHeight="1">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:281" ht="25.5" customHeight="1">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="51" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="58" t="s">
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="43" t="s">
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="44"/>
+      <c r="AN2" s="53"/>
       <c r="AO2" s="42"/>
       <c r="AP2" s="42"/>
       <c r="AQ2" s="42"/>
@@ -1152,84 +1330,262 @@
       <c r="CW2" s="42"/>
       <c r="CX2" s="42"/>
       <c r="CY2" s="42"/>
+      <c r="CZ2" s="42"/>
+      <c r="DA2" s="42"/>
+      <c r="DB2" s="42"/>
+      <c r="DC2" s="42"/>
+      <c r="DD2" s="42"/>
+      <c r="DE2" s="42"/>
+      <c r="DF2" s="42"/>
+      <c r="DG2" s="42"/>
+      <c r="DH2" s="42"/>
+      <c r="DI2" s="42"/>
+      <c r="DJ2" s="42"/>
+      <c r="DK2" s="42"/>
+      <c r="DL2" s="42"/>
+      <c r="DM2" s="42"/>
+      <c r="DN2" s="42"/>
+      <c r="DO2" s="42"/>
+      <c r="DP2" s="42"/>
+      <c r="DQ2" s="42"/>
+      <c r="DR2" s="42"/>
+      <c r="DS2" s="42"/>
+      <c r="DT2" s="42"/>
+      <c r="DU2" s="42"/>
+      <c r="DV2" s="42"/>
+      <c r="DW2" s="42"/>
+      <c r="DX2" s="42"/>
+      <c r="DY2" s="42"/>
+      <c r="DZ2" s="42"/>
+      <c r="EA2" s="42"/>
+      <c r="EB2" s="42"/>
+      <c r="EC2" s="42"/>
+      <c r="ED2" s="42"/>
+      <c r="EE2" s="42"/>
+      <c r="EF2" s="42"/>
+      <c r="EG2" s="42"/>
+      <c r="EH2" s="42"/>
+      <c r="EI2" s="42"/>
+      <c r="EJ2" s="42"/>
+      <c r="EK2" s="42"/>
+      <c r="EL2" s="42"/>
+      <c r="EM2" s="42"/>
+      <c r="EN2" s="42"/>
+      <c r="EO2" s="42"/>
+      <c r="EP2" s="42"/>
+      <c r="EQ2" s="42"/>
+      <c r="ER2" s="42"/>
+      <c r="ES2" s="42"/>
+      <c r="ET2" s="42"/>
+      <c r="EU2" s="42"/>
+      <c r="EV2" s="42"/>
+      <c r="EW2" s="42"/>
+      <c r="EX2" s="42"/>
+      <c r="EY2" s="42"/>
+      <c r="EZ2" s="42"/>
+      <c r="FA2" s="42"/>
+      <c r="FB2" s="42"/>
+      <c r="FC2" s="42"/>
+      <c r="FD2" s="42"/>
+      <c r="FE2" s="42"/>
+      <c r="FF2" s="42"/>
+      <c r="FG2" s="42"/>
+      <c r="FH2" s="42"/>
+      <c r="FI2" s="42"/>
+      <c r="FJ2" s="42"/>
+      <c r="FK2" s="42"/>
+      <c r="FL2" s="42"/>
+      <c r="FM2" s="42"/>
+      <c r="FN2" s="42"/>
+      <c r="FO2" s="42"/>
+      <c r="FP2" s="42"/>
+      <c r="FQ2" s="42"/>
+      <c r="FR2" s="42"/>
+      <c r="FS2" s="42"/>
+      <c r="FT2" s="42"/>
+      <c r="FU2" s="42"/>
+      <c r="FV2" s="42"/>
+      <c r="FW2" s="42"/>
+      <c r="FX2" s="42"/>
+      <c r="FY2" s="42"/>
+      <c r="FZ2" s="42"/>
+      <c r="GA2" s="42"/>
+      <c r="GB2" s="42"/>
+      <c r="GC2" s="42"/>
+      <c r="GD2" s="42"/>
+      <c r="GE2" s="42"/>
+      <c r="GF2" s="42"/>
+      <c r="GG2" s="42"/>
+      <c r="GH2" s="42"/>
+      <c r="GI2" s="42"/>
+      <c r="GJ2" s="42"/>
+      <c r="GK2" s="42"/>
+      <c r="GL2" s="42"/>
+      <c r="GM2" s="42"/>
+      <c r="GN2" s="42"/>
+      <c r="GO2" s="42"/>
+      <c r="GP2" s="42"/>
+      <c r="GQ2" s="42"/>
+      <c r="GR2" s="42"/>
+      <c r="GS2" s="42"/>
+      <c r="GT2" s="42"/>
+      <c r="GU2" s="42"/>
+      <c r="GV2" s="42"/>
+      <c r="GW2" s="42"/>
+      <c r="GX2" s="42"/>
+      <c r="GY2" s="42"/>
+      <c r="GZ2" s="42"/>
+      <c r="HA2" s="42"/>
+      <c r="HB2" s="42"/>
+      <c r="HC2" s="42"/>
+      <c r="HD2" s="42"/>
+      <c r="HE2" s="42"/>
+      <c r="HF2" s="42"/>
+      <c r="HG2" s="42"/>
+      <c r="HH2" s="42"/>
+      <c r="HI2" s="42"/>
+      <c r="HJ2" s="42"/>
+      <c r="HK2" s="42"/>
+      <c r="HL2" s="42"/>
+      <c r="HM2" s="42"/>
+      <c r="HN2" s="42"/>
+      <c r="HO2" s="42"/>
+      <c r="HP2" s="42"/>
+      <c r="HQ2" s="42"/>
+      <c r="HR2" s="42"/>
+      <c r="HS2" s="42"/>
+      <c r="HT2" s="42"/>
+      <c r="HU2" s="42"/>
+      <c r="HV2" s="42"/>
+      <c r="HW2" s="42"/>
+      <c r="HX2" s="42"/>
+      <c r="HY2" s="42"/>
+      <c r="HZ2" s="42"/>
+      <c r="IA2" s="42"/>
+      <c r="IB2" s="42"/>
+      <c r="IC2" s="42"/>
+      <c r="ID2" s="42"/>
+      <c r="IE2" s="42"/>
+      <c r="IF2" s="42"/>
+      <c r="IG2" s="42"/>
+      <c r="IH2" s="42"/>
+      <c r="II2" s="42"/>
+      <c r="IJ2" s="42"/>
+      <c r="IK2" s="42"/>
+      <c r="IL2" s="42"/>
+      <c r="IM2" s="42"/>
+      <c r="IN2" s="42"/>
+      <c r="IO2" s="42"/>
+      <c r="IP2" s="42"/>
+      <c r="IQ2" s="42"/>
+      <c r="IR2" s="42"/>
+      <c r="IS2" s="42"/>
+      <c r="IT2" s="42"/>
+      <c r="IU2" s="42"/>
+      <c r="IV2" s="42"/>
+      <c r="IW2" s="42"/>
+      <c r="IX2" s="42"/>
+      <c r="IY2" s="42"/>
+      <c r="IZ2" s="42"/>
+      <c r="JA2" s="42"/>
+      <c r="JB2" s="42"/>
+      <c r="JC2" s="42"/>
+      <c r="JD2" s="42"/>
+      <c r="JE2" s="42"/>
+      <c r="JF2" s="42"/>
+      <c r="JG2" s="42"/>
+      <c r="JH2" s="42"/>
+      <c r="JI2" s="42"/>
+      <c r="JJ2" s="42"/>
+      <c r="JK2" s="42"/>
+      <c r="JL2" s="42"/>
+      <c r="JM2" s="42"/>
+      <c r="JN2" s="42"/>
+      <c r="JO2" s="42"/>
+      <c r="JP2" s="42"/>
+      <c r="JQ2" s="42"/>
+      <c r="JR2" s="42"/>
+      <c r="JS2" s="42"/>
+      <c r="JT2" s="42"/>
+      <c r="JU2" s="42"/>
     </row>
-    <row r="3" spans="1:103" ht="25.5" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="47" t="s">
+    <row r="3" spans="1:281" ht="25.5" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="50" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="47" t="s">
+      <c r="J3" s="45"/>
+      <c r="K3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="47" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="47" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="47" t="s">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="48"/>
-      <c r="S3" s="47" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="51" t="s">
+      <c r="T3" s="45"/>
+      <c r="U3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="48"/>
-      <c r="W3" s="52" t="s">
+      <c r="V3" s="45"/>
+      <c r="W3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="53" t="s">
+      <c r="X3" s="55"/>
+      <c r="Y3" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="53" t="s">
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="54" t="s">
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="56" t="s">
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="56" t="s">
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="49" t="s">
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="49" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="46"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="55"/>
       <c r="AO3" s="42"/>
       <c r="AP3" s="42"/>
       <c r="AQ3" s="42"/>
@@ -1293,10 +1649,188 @@
       <c r="CW3" s="42"/>
       <c r="CX3" s="42"/>
       <c r="CY3" s="42"/>
+      <c r="CZ3" s="42"/>
+      <c r="DA3" s="42"/>
+      <c r="DB3" s="42"/>
+      <c r="DC3" s="42"/>
+      <c r="DD3" s="42"/>
+      <c r="DE3" s="42"/>
+      <c r="DF3" s="42"/>
+      <c r="DG3" s="42"/>
+      <c r="DH3" s="42"/>
+      <c r="DI3" s="42"/>
+      <c r="DJ3" s="42"/>
+      <c r="DK3" s="42"/>
+      <c r="DL3" s="42"/>
+      <c r="DM3" s="42"/>
+      <c r="DN3" s="42"/>
+      <c r="DO3" s="42"/>
+      <c r="DP3" s="42"/>
+      <c r="DQ3" s="42"/>
+      <c r="DR3" s="42"/>
+      <c r="DS3" s="42"/>
+      <c r="DT3" s="42"/>
+      <c r="DU3" s="42"/>
+      <c r="DV3" s="42"/>
+      <c r="DW3" s="42"/>
+      <c r="DX3" s="42"/>
+      <c r="DY3" s="42"/>
+      <c r="DZ3" s="42"/>
+      <c r="EA3" s="42"/>
+      <c r="EB3" s="42"/>
+      <c r="EC3" s="42"/>
+      <c r="ED3" s="42"/>
+      <c r="EE3" s="42"/>
+      <c r="EF3" s="42"/>
+      <c r="EG3" s="42"/>
+      <c r="EH3" s="42"/>
+      <c r="EI3" s="42"/>
+      <c r="EJ3" s="42"/>
+      <c r="EK3" s="42"/>
+      <c r="EL3" s="42"/>
+      <c r="EM3" s="42"/>
+      <c r="EN3" s="42"/>
+      <c r="EO3" s="42"/>
+      <c r="EP3" s="42"/>
+      <c r="EQ3" s="42"/>
+      <c r="ER3" s="42"/>
+      <c r="ES3" s="42"/>
+      <c r="ET3" s="42"/>
+      <c r="EU3" s="42"/>
+      <c r="EV3" s="42"/>
+      <c r="EW3" s="42"/>
+      <c r="EX3" s="42"/>
+      <c r="EY3" s="42"/>
+      <c r="EZ3" s="42"/>
+      <c r="FA3" s="42"/>
+      <c r="FB3" s="42"/>
+      <c r="FC3" s="42"/>
+      <c r="FD3" s="42"/>
+      <c r="FE3" s="42"/>
+      <c r="FF3" s="42"/>
+      <c r="FG3" s="42"/>
+      <c r="FH3" s="42"/>
+      <c r="FI3" s="42"/>
+      <c r="FJ3" s="42"/>
+      <c r="FK3" s="42"/>
+      <c r="FL3" s="42"/>
+      <c r="FM3" s="42"/>
+      <c r="FN3" s="42"/>
+      <c r="FO3" s="42"/>
+      <c r="FP3" s="42"/>
+      <c r="FQ3" s="42"/>
+      <c r="FR3" s="42"/>
+      <c r="FS3" s="42"/>
+      <c r="FT3" s="42"/>
+      <c r="FU3" s="42"/>
+      <c r="FV3" s="42"/>
+      <c r="FW3" s="42"/>
+      <c r="FX3" s="42"/>
+      <c r="FY3" s="42"/>
+      <c r="FZ3" s="42"/>
+      <c r="GA3" s="42"/>
+      <c r="GB3" s="42"/>
+      <c r="GC3" s="42"/>
+      <c r="GD3" s="42"/>
+      <c r="GE3" s="42"/>
+      <c r="GF3" s="42"/>
+      <c r="GG3" s="42"/>
+      <c r="GH3" s="42"/>
+      <c r="GI3" s="42"/>
+      <c r="GJ3" s="42"/>
+      <c r="GK3" s="42"/>
+      <c r="GL3" s="42"/>
+      <c r="GM3" s="42"/>
+      <c r="GN3" s="42"/>
+      <c r="GO3" s="42"/>
+      <c r="GP3" s="42"/>
+      <c r="GQ3" s="42"/>
+      <c r="GR3" s="42"/>
+      <c r="GS3" s="42"/>
+      <c r="GT3" s="42"/>
+      <c r="GU3" s="42"/>
+      <c r="GV3" s="42"/>
+      <c r="GW3" s="42"/>
+      <c r="GX3" s="42"/>
+      <c r="GY3" s="42"/>
+      <c r="GZ3" s="42"/>
+      <c r="HA3" s="42"/>
+      <c r="HB3" s="42"/>
+      <c r="HC3" s="42"/>
+      <c r="HD3" s="42"/>
+      <c r="HE3" s="42"/>
+      <c r="HF3" s="42"/>
+      <c r="HG3" s="42"/>
+      <c r="HH3" s="42"/>
+      <c r="HI3" s="42"/>
+      <c r="HJ3" s="42"/>
+      <c r="HK3" s="42"/>
+      <c r="HL3" s="42"/>
+      <c r="HM3" s="42"/>
+      <c r="HN3" s="42"/>
+      <c r="HO3" s="42"/>
+      <c r="HP3" s="42"/>
+      <c r="HQ3" s="42"/>
+      <c r="HR3" s="42"/>
+      <c r="HS3" s="42"/>
+      <c r="HT3" s="42"/>
+      <c r="HU3" s="42"/>
+      <c r="HV3" s="42"/>
+      <c r="HW3" s="42"/>
+      <c r="HX3" s="42"/>
+      <c r="HY3" s="42"/>
+      <c r="HZ3" s="42"/>
+      <c r="IA3" s="42"/>
+      <c r="IB3" s="42"/>
+      <c r="IC3" s="42"/>
+      <c r="ID3" s="42"/>
+      <c r="IE3" s="42"/>
+      <c r="IF3" s="42"/>
+      <c r="IG3" s="42"/>
+      <c r="IH3" s="42"/>
+      <c r="II3" s="42"/>
+      <c r="IJ3" s="42"/>
+      <c r="IK3" s="42"/>
+      <c r="IL3" s="42"/>
+      <c r="IM3" s="42"/>
+      <c r="IN3" s="42"/>
+      <c r="IO3" s="42"/>
+      <c r="IP3" s="42"/>
+      <c r="IQ3" s="42"/>
+      <c r="IR3" s="42"/>
+      <c r="IS3" s="42"/>
+      <c r="IT3" s="42"/>
+      <c r="IU3" s="42"/>
+      <c r="IV3" s="42"/>
+      <c r="IW3" s="42"/>
+      <c r="IX3" s="42"/>
+      <c r="IY3" s="42"/>
+      <c r="IZ3" s="42"/>
+      <c r="JA3" s="42"/>
+      <c r="JB3" s="42"/>
+      <c r="JC3" s="42"/>
+      <c r="JD3" s="42"/>
+      <c r="JE3" s="42"/>
+      <c r="JF3" s="42"/>
+      <c r="JG3" s="42"/>
+      <c r="JH3" s="42"/>
+      <c r="JI3" s="42"/>
+      <c r="JJ3" s="42"/>
+      <c r="JK3" s="42"/>
+      <c r="JL3" s="42"/>
+      <c r="JM3" s="42"/>
+      <c r="JN3" s="42"/>
+      <c r="JO3" s="42"/>
+      <c r="JP3" s="42"/>
+      <c r="JQ3" s="42"/>
+      <c r="JR3" s="42"/>
+      <c r="JS3" s="42"/>
+      <c r="JT3" s="42"/>
+      <c r="JU3" s="42"/>
     </row>
-    <row r="4" spans="1:103" ht="25.5" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
+    <row r="4" spans="1:281" ht="25.5" customHeight="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1474,8 +2008,186 @@
       <c r="CW4" s="42"/>
       <c r="CX4" s="42"/>
       <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
+      <c r="DA4" s="42"/>
+      <c r="DB4" s="42"/>
+      <c r="DC4" s="42"/>
+      <c r="DD4" s="42"/>
+      <c r="DE4" s="42"/>
+      <c r="DF4" s="42"/>
+      <c r="DG4" s="42"/>
+      <c r="DH4" s="42"/>
+      <c r="DI4" s="42"/>
+      <c r="DJ4" s="42"/>
+      <c r="DK4" s="42"/>
+      <c r="DL4" s="42"/>
+      <c r="DM4" s="42"/>
+      <c r="DN4" s="42"/>
+      <c r="DO4" s="42"/>
+      <c r="DP4" s="42"/>
+      <c r="DQ4" s="42"/>
+      <c r="DR4" s="42"/>
+      <c r="DS4" s="42"/>
+      <c r="DT4" s="42"/>
+      <c r="DU4" s="42"/>
+      <c r="DV4" s="42"/>
+      <c r="DW4" s="42"/>
+      <c r="DX4" s="42"/>
+      <c r="DY4" s="42"/>
+      <c r="DZ4" s="42"/>
+      <c r="EA4" s="42"/>
+      <c r="EB4" s="42"/>
+      <c r="EC4" s="42"/>
+      <c r="ED4" s="42"/>
+      <c r="EE4" s="42"/>
+      <c r="EF4" s="42"/>
+      <c r="EG4" s="42"/>
+      <c r="EH4" s="42"/>
+      <c r="EI4" s="42"/>
+      <c r="EJ4" s="42"/>
+      <c r="EK4" s="42"/>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="42"/>
+      <c r="EN4" s="42"/>
+      <c r="EO4" s="42"/>
+      <c r="EP4" s="42"/>
+      <c r="EQ4" s="42"/>
+      <c r="ER4" s="42"/>
+      <c r="ES4" s="42"/>
+      <c r="ET4" s="42"/>
+      <c r="EU4" s="42"/>
+      <c r="EV4" s="42"/>
+      <c r="EW4" s="42"/>
+      <c r="EX4" s="42"/>
+      <c r="EY4" s="42"/>
+      <c r="EZ4" s="42"/>
+      <c r="FA4" s="42"/>
+      <c r="FB4" s="42"/>
+      <c r="FC4" s="42"/>
+      <c r="FD4" s="42"/>
+      <c r="FE4" s="42"/>
+      <c r="FF4" s="42"/>
+      <c r="FG4" s="42"/>
+      <c r="FH4" s="42"/>
+      <c r="FI4" s="42"/>
+      <c r="FJ4" s="42"/>
+      <c r="FK4" s="42"/>
+      <c r="FL4" s="42"/>
+      <c r="FM4" s="42"/>
+      <c r="FN4" s="42"/>
+      <c r="FO4" s="42"/>
+      <c r="FP4" s="42"/>
+      <c r="FQ4" s="42"/>
+      <c r="FR4" s="42"/>
+      <c r="FS4" s="42"/>
+      <c r="FT4" s="42"/>
+      <c r="FU4" s="42"/>
+      <c r="FV4" s="42"/>
+      <c r="FW4" s="42"/>
+      <c r="FX4" s="42"/>
+      <c r="FY4" s="42"/>
+      <c r="FZ4" s="42"/>
+      <c r="GA4" s="42"/>
+      <c r="GB4" s="42"/>
+      <c r="GC4" s="42"/>
+      <c r="GD4" s="42"/>
+      <c r="GE4" s="42"/>
+      <c r="GF4" s="42"/>
+      <c r="GG4" s="42"/>
+      <c r="GH4" s="42"/>
+      <c r="GI4" s="42"/>
+      <c r="GJ4" s="42"/>
+      <c r="GK4" s="42"/>
+      <c r="GL4" s="42"/>
+      <c r="GM4" s="42"/>
+      <c r="GN4" s="42"/>
+      <c r="GO4" s="42"/>
+      <c r="GP4" s="42"/>
+      <c r="GQ4" s="42"/>
+      <c r="GR4" s="42"/>
+      <c r="GS4" s="42"/>
+      <c r="GT4" s="42"/>
+      <c r="GU4" s="42"/>
+      <c r="GV4" s="42"/>
+      <c r="GW4" s="42"/>
+      <c r="GX4" s="42"/>
+      <c r="GY4" s="42"/>
+      <c r="GZ4" s="42"/>
+      <c r="HA4" s="42"/>
+      <c r="HB4" s="42"/>
+      <c r="HC4" s="42"/>
+      <c r="HD4" s="42"/>
+      <c r="HE4" s="42"/>
+      <c r="HF4" s="42"/>
+      <c r="HG4" s="42"/>
+      <c r="HH4" s="42"/>
+      <c r="HI4" s="42"/>
+      <c r="HJ4" s="42"/>
+      <c r="HK4" s="42"/>
+      <c r="HL4" s="42"/>
+      <c r="HM4" s="42"/>
+      <c r="HN4" s="42"/>
+      <c r="HO4" s="42"/>
+      <c r="HP4" s="42"/>
+      <c r="HQ4" s="42"/>
+      <c r="HR4" s="42"/>
+      <c r="HS4" s="42"/>
+      <c r="HT4" s="42"/>
+      <c r="HU4" s="42"/>
+      <c r="HV4" s="42"/>
+      <c r="HW4" s="42"/>
+      <c r="HX4" s="42"/>
+      <c r="HY4" s="42"/>
+      <c r="HZ4" s="42"/>
+      <c r="IA4" s="42"/>
+      <c r="IB4" s="42"/>
+      <c r="IC4" s="42"/>
+      <c r="ID4" s="42"/>
+      <c r="IE4" s="42"/>
+      <c r="IF4" s="42"/>
+      <c r="IG4" s="42"/>
+      <c r="IH4" s="42"/>
+      <c r="II4" s="42"/>
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="42"/>
+      <c r="IU4" s="42"/>
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="42"/>
+      <c r="JE4" s="42"/>
+      <c r="JF4" s="42"/>
+      <c r="JG4" s="42"/>
+      <c r="JH4" s="42"/>
+      <c r="JI4" s="42"/>
+      <c r="JJ4" s="42"/>
+      <c r="JK4" s="42"/>
+      <c r="JL4" s="42"/>
+      <c r="JM4" s="42"/>
+      <c r="JN4" s="42"/>
+      <c r="JO4" s="42"/>
+      <c r="JP4" s="42"/>
+      <c r="JQ4" s="42"/>
+      <c r="JR4" s="42"/>
+      <c r="JS4" s="42"/>
+      <c r="JT4" s="42"/>
+      <c r="JU4" s="42"/>
     </row>
-    <row r="5" spans="1:103" s="19" customFormat="1" ht="12.75">
+    <row r="5" spans="1:281" s="19" customFormat="1" ht="12.75">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -1607,8 +2319,186 @@
       <c r="CW5" s="42"/>
       <c r="CX5" s="42"/>
       <c r="CY5" s="42"/>
+      <c r="CZ5" s="42"/>
+      <c r="DA5" s="42"/>
+      <c r="DB5" s="42"/>
+      <c r="DC5" s="42"/>
+      <c r="DD5" s="42"/>
+      <c r="DE5" s="42"/>
+      <c r="DF5" s="42"/>
+      <c r="DG5" s="42"/>
+      <c r="DH5" s="42"/>
+      <c r="DI5" s="42"/>
+      <c r="DJ5" s="42"/>
+      <c r="DK5" s="42"/>
+      <c r="DL5" s="42"/>
+      <c r="DM5" s="42"/>
+      <c r="DN5" s="42"/>
+      <c r="DO5" s="42"/>
+      <c r="DP5" s="42"/>
+      <c r="DQ5" s="42"/>
+      <c r="DR5" s="42"/>
+      <c r="DS5" s="42"/>
+      <c r="DT5" s="42"/>
+      <c r="DU5" s="42"/>
+      <c r="DV5" s="42"/>
+      <c r="DW5" s="42"/>
+      <c r="DX5" s="42"/>
+      <c r="DY5" s="42"/>
+      <c r="DZ5" s="42"/>
+      <c r="EA5" s="42"/>
+      <c r="EB5" s="42"/>
+      <c r="EC5" s="42"/>
+      <c r="ED5" s="42"/>
+      <c r="EE5" s="42"/>
+      <c r="EF5" s="42"/>
+      <c r="EG5" s="42"/>
+      <c r="EH5" s="42"/>
+      <c r="EI5" s="42"/>
+      <c r="EJ5" s="42"/>
+      <c r="EK5" s="42"/>
+      <c r="EL5" s="42"/>
+      <c r="EM5" s="42"/>
+      <c r="EN5" s="42"/>
+      <c r="EO5" s="42"/>
+      <c r="EP5" s="42"/>
+      <c r="EQ5" s="42"/>
+      <c r="ER5" s="42"/>
+      <c r="ES5" s="42"/>
+      <c r="ET5" s="42"/>
+      <c r="EU5" s="42"/>
+      <c r="EV5" s="42"/>
+      <c r="EW5" s="42"/>
+      <c r="EX5" s="42"/>
+      <c r="EY5" s="42"/>
+      <c r="EZ5" s="42"/>
+      <c r="FA5" s="42"/>
+      <c r="FB5" s="42"/>
+      <c r="FC5" s="42"/>
+      <c r="FD5" s="42"/>
+      <c r="FE5" s="42"/>
+      <c r="FF5" s="42"/>
+      <c r="FG5" s="42"/>
+      <c r="FH5" s="42"/>
+      <c r="FI5" s="42"/>
+      <c r="FJ5" s="42"/>
+      <c r="FK5" s="42"/>
+      <c r="FL5" s="42"/>
+      <c r="FM5" s="42"/>
+      <c r="FN5" s="42"/>
+      <c r="FO5" s="42"/>
+      <c r="FP5" s="42"/>
+      <c r="FQ5" s="42"/>
+      <c r="FR5" s="42"/>
+      <c r="FS5" s="42"/>
+      <c r="FT5" s="42"/>
+      <c r="FU5" s="42"/>
+      <c r="FV5" s="42"/>
+      <c r="FW5" s="42"/>
+      <c r="FX5" s="42"/>
+      <c r="FY5" s="42"/>
+      <c r="FZ5" s="42"/>
+      <c r="GA5" s="42"/>
+      <c r="GB5" s="42"/>
+      <c r="GC5" s="42"/>
+      <c r="GD5" s="42"/>
+      <c r="GE5" s="42"/>
+      <c r="GF5" s="42"/>
+      <c r="GG5" s="42"/>
+      <c r="GH5" s="42"/>
+      <c r="GI5" s="42"/>
+      <c r="GJ5" s="42"/>
+      <c r="GK5" s="42"/>
+      <c r="GL5" s="42"/>
+      <c r="GM5" s="42"/>
+      <c r="GN5" s="42"/>
+      <c r="GO5" s="42"/>
+      <c r="GP5" s="42"/>
+      <c r="GQ5" s="42"/>
+      <c r="GR5" s="42"/>
+      <c r="GS5" s="42"/>
+      <c r="GT5" s="42"/>
+      <c r="GU5" s="42"/>
+      <c r="GV5" s="42"/>
+      <c r="GW5" s="42"/>
+      <c r="GX5" s="42"/>
+      <c r="GY5" s="42"/>
+      <c r="GZ5" s="42"/>
+      <c r="HA5" s="42"/>
+      <c r="HB5" s="42"/>
+      <c r="HC5" s="42"/>
+      <c r="HD5" s="42"/>
+      <c r="HE5" s="42"/>
+      <c r="HF5" s="42"/>
+      <c r="HG5" s="42"/>
+      <c r="HH5" s="42"/>
+      <c r="HI5" s="42"/>
+      <c r="HJ5" s="42"/>
+      <c r="HK5" s="42"/>
+      <c r="HL5" s="42"/>
+      <c r="HM5" s="42"/>
+      <c r="HN5" s="42"/>
+      <c r="HO5" s="42"/>
+      <c r="HP5" s="42"/>
+      <c r="HQ5" s="42"/>
+      <c r="HR5" s="42"/>
+      <c r="HS5" s="42"/>
+      <c r="HT5" s="42"/>
+      <c r="HU5" s="42"/>
+      <c r="HV5" s="42"/>
+      <c r="HW5" s="42"/>
+      <c r="HX5" s="42"/>
+      <c r="HY5" s="42"/>
+      <c r="HZ5" s="42"/>
+      <c r="IA5" s="42"/>
+      <c r="IB5" s="42"/>
+      <c r="IC5" s="42"/>
+      <c r="ID5" s="42"/>
+      <c r="IE5" s="42"/>
+      <c r="IF5" s="42"/>
+      <c r="IG5" s="42"/>
+      <c r="IH5" s="42"/>
+      <c r="II5" s="42"/>
+      <c r="IJ5" s="42"/>
+      <c r="IK5" s="42"/>
+      <c r="IL5" s="42"/>
+      <c r="IM5" s="42"/>
+      <c r="IN5" s="42"/>
+      <c r="IO5" s="42"/>
+      <c r="IP5" s="42"/>
+      <c r="IQ5" s="42"/>
+      <c r="IR5" s="42"/>
+      <c r="IS5" s="42"/>
+      <c r="IT5" s="42"/>
+      <c r="IU5" s="42"/>
+      <c r="IV5" s="42"/>
+      <c r="IW5" s="42"/>
+      <c r="IX5" s="42"/>
+      <c r="IY5" s="42"/>
+      <c r="IZ5" s="42"/>
+      <c r="JA5" s="42"/>
+      <c r="JB5" s="42"/>
+      <c r="JC5" s="42"/>
+      <c r="JD5" s="42"/>
+      <c r="JE5" s="42"/>
+      <c r="JF5" s="42"/>
+      <c r="JG5" s="42"/>
+      <c r="JH5" s="42"/>
+      <c r="JI5" s="42"/>
+      <c r="JJ5" s="42"/>
+      <c r="JK5" s="42"/>
+      <c r="JL5" s="42"/>
+      <c r="JM5" s="42"/>
+      <c r="JN5" s="42"/>
+      <c r="JO5" s="42"/>
+      <c r="JP5" s="42"/>
+      <c r="JQ5" s="42"/>
+      <c r="JR5" s="42"/>
+      <c r="JS5" s="42"/>
+      <c r="JT5" s="42"/>
+      <c r="JU5" s="42"/>
     </row>
-    <row r="6" spans="1:103" s="19" customFormat="1" ht="12.75">
+    <row r="6" spans="1:281" s="19" customFormat="1" ht="12.75">
       <c r="A6" s="20">
         <v>2</v>
       </c>
@@ -1740,8 +2630,186 @@
       <c r="CW6" s="42"/>
       <c r="CX6" s="42"/>
       <c r="CY6" s="42"/>
+      <c r="CZ6" s="42"/>
+      <c r="DA6" s="42"/>
+      <c r="DB6" s="42"/>
+      <c r="DC6" s="42"/>
+      <c r="DD6" s="42"/>
+      <c r="DE6" s="42"/>
+      <c r="DF6" s="42"/>
+      <c r="DG6" s="42"/>
+      <c r="DH6" s="42"/>
+      <c r="DI6" s="42"/>
+      <c r="DJ6" s="42"/>
+      <c r="DK6" s="42"/>
+      <c r="DL6" s="42"/>
+      <c r="DM6" s="42"/>
+      <c r="DN6" s="42"/>
+      <c r="DO6" s="42"/>
+      <c r="DP6" s="42"/>
+      <c r="DQ6" s="42"/>
+      <c r="DR6" s="42"/>
+      <c r="DS6" s="42"/>
+      <c r="DT6" s="42"/>
+      <c r="DU6" s="42"/>
+      <c r="DV6" s="42"/>
+      <c r="DW6" s="42"/>
+      <c r="DX6" s="42"/>
+      <c r="DY6" s="42"/>
+      <c r="DZ6" s="42"/>
+      <c r="EA6" s="42"/>
+      <c r="EB6" s="42"/>
+      <c r="EC6" s="42"/>
+      <c r="ED6" s="42"/>
+      <c r="EE6" s="42"/>
+      <c r="EF6" s="42"/>
+      <c r="EG6" s="42"/>
+      <c r="EH6" s="42"/>
+      <c r="EI6" s="42"/>
+      <c r="EJ6" s="42"/>
+      <c r="EK6" s="42"/>
+      <c r="EL6" s="42"/>
+      <c r="EM6" s="42"/>
+      <c r="EN6" s="42"/>
+      <c r="EO6" s="42"/>
+      <c r="EP6" s="42"/>
+      <c r="EQ6" s="42"/>
+      <c r="ER6" s="42"/>
+      <c r="ES6" s="42"/>
+      <c r="ET6" s="42"/>
+      <c r="EU6" s="42"/>
+      <c r="EV6" s="42"/>
+      <c r="EW6" s="42"/>
+      <c r="EX6" s="42"/>
+      <c r="EY6" s="42"/>
+      <c r="EZ6" s="42"/>
+      <c r="FA6" s="42"/>
+      <c r="FB6" s="42"/>
+      <c r="FC6" s="42"/>
+      <c r="FD6" s="42"/>
+      <c r="FE6" s="42"/>
+      <c r="FF6" s="42"/>
+      <c r="FG6" s="42"/>
+      <c r="FH6" s="42"/>
+      <c r="FI6" s="42"/>
+      <c r="FJ6" s="42"/>
+      <c r="FK6" s="42"/>
+      <c r="FL6" s="42"/>
+      <c r="FM6" s="42"/>
+      <c r="FN6" s="42"/>
+      <c r="FO6" s="42"/>
+      <c r="FP6" s="42"/>
+      <c r="FQ6" s="42"/>
+      <c r="FR6" s="42"/>
+      <c r="FS6" s="42"/>
+      <c r="FT6" s="42"/>
+      <c r="FU6" s="42"/>
+      <c r="FV6" s="42"/>
+      <c r="FW6" s="42"/>
+      <c r="FX6" s="42"/>
+      <c r="FY6" s="42"/>
+      <c r="FZ6" s="42"/>
+      <c r="GA6" s="42"/>
+      <c r="GB6" s="42"/>
+      <c r="GC6" s="42"/>
+      <c r="GD6" s="42"/>
+      <c r="GE6" s="42"/>
+      <c r="GF6" s="42"/>
+      <c r="GG6" s="42"/>
+      <c r="GH6" s="42"/>
+      <c r="GI6" s="42"/>
+      <c r="GJ6" s="42"/>
+      <c r="GK6" s="42"/>
+      <c r="GL6" s="42"/>
+      <c r="GM6" s="42"/>
+      <c r="GN6" s="42"/>
+      <c r="GO6" s="42"/>
+      <c r="GP6" s="42"/>
+      <c r="GQ6" s="42"/>
+      <c r="GR6" s="42"/>
+      <c r="GS6" s="42"/>
+      <c r="GT6" s="42"/>
+      <c r="GU6" s="42"/>
+      <c r="GV6" s="42"/>
+      <c r="GW6" s="42"/>
+      <c r="GX6" s="42"/>
+      <c r="GY6" s="42"/>
+      <c r="GZ6" s="42"/>
+      <c r="HA6" s="42"/>
+      <c r="HB6" s="42"/>
+      <c r="HC6" s="42"/>
+      <c r="HD6" s="42"/>
+      <c r="HE6" s="42"/>
+      <c r="HF6" s="42"/>
+      <c r="HG6" s="42"/>
+      <c r="HH6" s="42"/>
+      <c r="HI6" s="42"/>
+      <c r="HJ6" s="42"/>
+      <c r="HK6" s="42"/>
+      <c r="HL6" s="42"/>
+      <c r="HM6" s="42"/>
+      <c r="HN6" s="42"/>
+      <c r="HO6" s="42"/>
+      <c r="HP6" s="42"/>
+      <c r="HQ6" s="42"/>
+      <c r="HR6" s="42"/>
+      <c r="HS6" s="42"/>
+      <c r="HT6" s="42"/>
+      <c r="HU6" s="42"/>
+      <c r="HV6" s="42"/>
+      <c r="HW6" s="42"/>
+      <c r="HX6" s="42"/>
+      <c r="HY6" s="42"/>
+      <c r="HZ6" s="42"/>
+      <c r="IA6" s="42"/>
+      <c r="IB6" s="42"/>
+      <c r="IC6" s="42"/>
+      <c r="ID6" s="42"/>
+      <c r="IE6" s="42"/>
+      <c r="IF6" s="42"/>
+      <c r="IG6" s="42"/>
+      <c r="IH6" s="42"/>
+      <c r="II6" s="42"/>
+      <c r="IJ6" s="42"/>
+      <c r="IK6" s="42"/>
+      <c r="IL6" s="42"/>
+      <c r="IM6" s="42"/>
+      <c r="IN6" s="42"/>
+      <c r="IO6" s="42"/>
+      <c r="IP6" s="42"/>
+      <c r="IQ6" s="42"/>
+      <c r="IR6" s="42"/>
+      <c r="IS6" s="42"/>
+      <c r="IT6" s="42"/>
+      <c r="IU6" s="42"/>
+      <c r="IV6" s="42"/>
+      <c r="IW6" s="42"/>
+      <c r="IX6" s="42"/>
+      <c r="IY6" s="42"/>
+      <c r="IZ6" s="42"/>
+      <c r="JA6" s="42"/>
+      <c r="JB6" s="42"/>
+      <c r="JC6" s="42"/>
+      <c r="JD6" s="42"/>
+      <c r="JE6" s="42"/>
+      <c r="JF6" s="42"/>
+      <c r="JG6" s="42"/>
+      <c r="JH6" s="42"/>
+      <c r="JI6" s="42"/>
+      <c r="JJ6" s="42"/>
+      <c r="JK6" s="42"/>
+      <c r="JL6" s="42"/>
+      <c r="JM6" s="42"/>
+      <c r="JN6" s="42"/>
+      <c r="JO6" s="42"/>
+      <c r="JP6" s="42"/>
+      <c r="JQ6" s="42"/>
+      <c r="JR6" s="42"/>
+      <c r="JS6" s="42"/>
+      <c r="JT6" s="42"/>
+      <c r="JU6" s="42"/>
     </row>
-    <row r="7" spans="1:103" s="19" customFormat="1" ht="12.75">
+    <row r="7" spans="1:281" s="19" customFormat="1" ht="12.75">
       <c r="A7" s="20">
         <v>3</v>
       </c>
@@ -1873,8 +2941,186 @@
       <c r="CW7" s="42"/>
       <c r="CX7" s="42"/>
       <c r="CY7" s="42"/>
+      <c r="CZ7" s="42"/>
+      <c r="DA7" s="42"/>
+      <c r="DB7" s="42"/>
+      <c r="DC7" s="42"/>
+      <c r="DD7" s="42"/>
+      <c r="DE7" s="42"/>
+      <c r="DF7" s="42"/>
+      <c r="DG7" s="42"/>
+      <c r="DH7" s="42"/>
+      <c r="DI7" s="42"/>
+      <c r="DJ7" s="42"/>
+      <c r="DK7" s="42"/>
+      <c r="DL7" s="42"/>
+      <c r="DM7" s="42"/>
+      <c r="DN7" s="42"/>
+      <c r="DO7" s="42"/>
+      <c r="DP7" s="42"/>
+      <c r="DQ7" s="42"/>
+      <c r="DR7" s="42"/>
+      <c r="DS7" s="42"/>
+      <c r="DT7" s="42"/>
+      <c r="DU7" s="42"/>
+      <c r="DV7" s="42"/>
+      <c r="DW7" s="42"/>
+      <c r="DX7" s="42"/>
+      <c r="DY7" s="42"/>
+      <c r="DZ7" s="42"/>
+      <c r="EA7" s="42"/>
+      <c r="EB7" s="42"/>
+      <c r="EC7" s="42"/>
+      <c r="ED7" s="42"/>
+      <c r="EE7" s="42"/>
+      <c r="EF7" s="42"/>
+      <c r="EG7" s="42"/>
+      <c r="EH7" s="42"/>
+      <c r="EI7" s="42"/>
+      <c r="EJ7" s="42"/>
+      <c r="EK7" s="42"/>
+      <c r="EL7" s="42"/>
+      <c r="EM7" s="42"/>
+      <c r="EN7" s="42"/>
+      <c r="EO7" s="42"/>
+      <c r="EP7" s="42"/>
+      <c r="EQ7" s="42"/>
+      <c r="ER7" s="42"/>
+      <c r="ES7" s="42"/>
+      <c r="ET7" s="42"/>
+      <c r="EU7" s="42"/>
+      <c r="EV7" s="42"/>
+      <c r="EW7" s="42"/>
+      <c r="EX7" s="42"/>
+      <c r="EY7" s="42"/>
+      <c r="EZ7" s="42"/>
+      <c r="FA7" s="42"/>
+      <c r="FB7" s="42"/>
+      <c r="FC7" s="42"/>
+      <c r="FD7" s="42"/>
+      <c r="FE7" s="42"/>
+      <c r="FF7" s="42"/>
+      <c r="FG7" s="42"/>
+      <c r="FH7" s="42"/>
+      <c r="FI7" s="42"/>
+      <c r="FJ7" s="42"/>
+      <c r="FK7" s="42"/>
+      <c r="FL7" s="42"/>
+      <c r="FM7" s="42"/>
+      <c r="FN7" s="42"/>
+      <c r="FO7" s="42"/>
+      <c r="FP7" s="42"/>
+      <c r="FQ7" s="42"/>
+      <c r="FR7" s="42"/>
+      <c r="FS7" s="42"/>
+      <c r="FT7" s="42"/>
+      <c r="FU7" s="42"/>
+      <c r="FV7" s="42"/>
+      <c r="FW7" s="42"/>
+      <c r="FX7" s="42"/>
+      <c r="FY7" s="42"/>
+      <c r="FZ7" s="42"/>
+      <c r="GA7" s="42"/>
+      <c r="GB7" s="42"/>
+      <c r="GC7" s="42"/>
+      <c r="GD7" s="42"/>
+      <c r="GE7" s="42"/>
+      <c r="GF7" s="42"/>
+      <c r="GG7" s="42"/>
+      <c r="GH7" s="42"/>
+      <c r="GI7" s="42"/>
+      <c r="GJ7" s="42"/>
+      <c r="GK7" s="42"/>
+      <c r="GL7" s="42"/>
+      <c r="GM7" s="42"/>
+      <c r="GN7" s="42"/>
+      <c r="GO7" s="42"/>
+      <c r="GP7" s="42"/>
+      <c r="GQ7" s="42"/>
+      <c r="GR7" s="42"/>
+      <c r="GS7" s="42"/>
+      <c r="GT7" s="42"/>
+      <c r="GU7" s="42"/>
+      <c r="GV7" s="42"/>
+      <c r="GW7" s="42"/>
+      <c r="GX7" s="42"/>
+      <c r="GY7" s="42"/>
+      <c r="GZ7" s="42"/>
+      <c r="HA7" s="42"/>
+      <c r="HB7" s="42"/>
+      <c r="HC7" s="42"/>
+      <c r="HD7" s="42"/>
+      <c r="HE7" s="42"/>
+      <c r="HF7" s="42"/>
+      <c r="HG7" s="42"/>
+      <c r="HH7" s="42"/>
+      <c r="HI7" s="42"/>
+      <c r="HJ7" s="42"/>
+      <c r="HK7" s="42"/>
+      <c r="HL7" s="42"/>
+      <c r="HM7" s="42"/>
+      <c r="HN7" s="42"/>
+      <c r="HO7" s="42"/>
+      <c r="HP7" s="42"/>
+      <c r="HQ7" s="42"/>
+      <c r="HR7" s="42"/>
+      <c r="HS7" s="42"/>
+      <c r="HT7" s="42"/>
+      <c r="HU7" s="42"/>
+      <c r="HV7" s="42"/>
+      <c r="HW7" s="42"/>
+      <c r="HX7" s="42"/>
+      <c r="HY7" s="42"/>
+      <c r="HZ7" s="42"/>
+      <c r="IA7" s="42"/>
+      <c r="IB7" s="42"/>
+      <c r="IC7" s="42"/>
+      <c r="ID7" s="42"/>
+      <c r="IE7" s="42"/>
+      <c r="IF7" s="42"/>
+      <c r="IG7" s="42"/>
+      <c r="IH7" s="42"/>
+      <c r="II7" s="42"/>
+      <c r="IJ7" s="42"/>
+      <c r="IK7" s="42"/>
+      <c r="IL7" s="42"/>
+      <c r="IM7" s="42"/>
+      <c r="IN7" s="42"/>
+      <c r="IO7" s="42"/>
+      <c r="IP7" s="42"/>
+      <c r="IQ7" s="42"/>
+      <c r="IR7" s="42"/>
+      <c r="IS7" s="42"/>
+      <c r="IT7" s="42"/>
+      <c r="IU7" s="42"/>
+      <c r="IV7" s="42"/>
+      <c r="IW7" s="42"/>
+      <c r="IX7" s="42"/>
+      <c r="IY7" s="42"/>
+      <c r="IZ7" s="42"/>
+      <c r="JA7" s="42"/>
+      <c r="JB7" s="42"/>
+      <c r="JC7" s="42"/>
+      <c r="JD7" s="42"/>
+      <c r="JE7" s="42"/>
+      <c r="JF7" s="42"/>
+      <c r="JG7" s="42"/>
+      <c r="JH7" s="42"/>
+      <c r="JI7" s="42"/>
+      <c r="JJ7" s="42"/>
+      <c r="JK7" s="42"/>
+      <c r="JL7" s="42"/>
+      <c r="JM7" s="42"/>
+      <c r="JN7" s="42"/>
+      <c r="JO7" s="42"/>
+      <c r="JP7" s="42"/>
+      <c r="JQ7" s="42"/>
+      <c r="JR7" s="42"/>
+      <c r="JS7" s="42"/>
+      <c r="JT7" s="42"/>
+      <c r="JU7" s="42"/>
     </row>
-    <row r="8" spans="1:103" s="19" customFormat="1" ht="12.75">
+    <row r="8" spans="1:281" s="19" customFormat="1" ht="12.75">
       <c r="A8" s="20">
         <v>4</v>
       </c>
@@ -2006,8 +3252,186 @@
       <c r="CW8" s="42"/>
       <c r="CX8" s="42"/>
       <c r="CY8" s="42"/>
+      <c r="CZ8" s="42"/>
+      <c r="DA8" s="42"/>
+      <c r="DB8" s="42"/>
+      <c r="DC8" s="42"/>
+      <c r="DD8" s="42"/>
+      <c r="DE8" s="42"/>
+      <c r="DF8" s="42"/>
+      <c r="DG8" s="42"/>
+      <c r="DH8" s="42"/>
+      <c r="DI8" s="42"/>
+      <c r="DJ8" s="42"/>
+      <c r="DK8" s="42"/>
+      <c r="DL8" s="42"/>
+      <c r="DM8" s="42"/>
+      <c r="DN8" s="42"/>
+      <c r="DO8" s="42"/>
+      <c r="DP8" s="42"/>
+      <c r="DQ8" s="42"/>
+      <c r="DR8" s="42"/>
+      <c r="DS8" s="42"/>
+      <c r="DT8" s="42"/>
+      <c r="DU8" s="42"/>
+      <c r="DV8" s="42"/>
+      <c r="DW8" s="42"/>
+      <c r="DX8" s="42"/>
+      <c r="DY8" s="42"/>
+      <c r="DZ8" s="42"/>
+      <c r="EA8" s="42"/>
+      <c r="EB8" s="42"/>
+      <c r="EC8" s="42"/>
+      <c r="ED8" s="42"/>
+      <c r="EE8" s="42"/>
+      <c r="EF8" s="42"/>
+      <c r="EG8" s="42"/>
+      <c r="EH8" s="42"/>
+      <c r="EI8" s="42"/>
+      <c r="EJ8" s="42"/>
+      <c r="EK8" s="42"/>
+      <c r="EL8" s="42"/>
+      <c r="EM8" s="42"/>
+      <c r="EN8" s="42"/>
+      <c r="EO8" s="42"/>
+      <c r="EP8" s="42"/>
+      <c r="EQ8" s="42"/>
+      <c r="ER8" s="42"/>
+      <c r="ES8" s="42"/>
+      <c r="ET8" s="42"/>
+      <c r="EU8" s="42"/>
+      <c r="EV8" s="42"/>
+      <c r="EW8" s="42"/>
+      <c r="EX8" s="42"/>
+      <c r="EY8" s="42"/>
+      <c r="EZ8" s="42"/>
+      <c r="FA8" s="42"/>
+      <c r="FB8" s="42"/>
+      <c r="FC8" s="42"/>
+      <c r="FD8" s="42"/>
+      <c r="FE8" s="42"/>
+      <c r="FF8" s="42"/>
+      <c r="FG8" s="42"/>
+      <c r="FH8" s="42"/>
+      <c r="FI8" s="42"/>
+      <c r="FJ8" s="42"/>
+      <c r="FK8" s="42"/>
+      <c r="FL8" s="42"/>
+      <c r="FM8" s="42"/>
+      <c r="FN8" s="42"/>
+      <c r="FO8" s="42"/>
+      <c r="FP8" s="42"/>
+      <c r="FQ8" s="42"/>
+      <c r="FR8" s="42"/>
+      <c r="FS8" s="42"/>
+      <c r="FT8" s="42"/>
+      <c r="FU8" s="42"/>
+      <c r="FV8" s="42"/>
+      <c r="FW8" s="42"/>
+      <c r="FX8" s="42"/>
+      <c r="FY8" s="42"/>
+      <c r="FZ8" s="42"/>
+      <c r="GA8" s="42"/>
+      <c r="GB8" s="42"/>
+      <c r="GC8" s="42"/>
+      <c r="GD8" s="42"/>
+      <c r="GE8" s="42"/>
+      <c r="GF8" s="42"/>
+      <c r="GG8" s="42"/>
+      <c r="GH8" s="42"/>
+      <c r="GI8" s="42"/>
+      <c r="GJ8" s="42"/>
+      <c r="GK8" s="42"/>
+      <c r="GL8" s="42"/>
+      <c r="GM8" s="42"/>
+      <c r="GN8" s="42"/>
+      <c r="GO8" s="42"/>
+      <c r="GP8" s="42"/>
+      <c r="GQ8" s="42"/>
+      <c r="GR8" s="42"/>
+      <c r="GS8" s="42"/>
+      <c r="GT8" s="42"/>
+      <c r="GU8" s="42"/>
+      <c r="GV8" s="42"/>
+      <c r="GW8" s="42"/>
+      <c r="GX8" s="42"/>
+      <c r="GY8" s="42"/>
+      <c r="GZ8" s="42"/>
+      <c r="HA8" s="42"/>
+      <c r="HB8" s="42"/>
+      <c r="HC8" s="42"/>
+      <c r="HD8" s="42"/>
+      <c r="HE8" s="42"/>
+      <c r="HF8" s="42"/>
+      <c r="HG8" s="42"/>
+      <c r="HH8" s="42"/>
+      <c r="HI8" s="42"/>
+      <c r="HJ8" s="42"/>
+      <c r="HK8" s="42"/>
+      <c r="HL8" s="42"/>
+      <c r="HM8" s="42"/>
+      <c r="HN8" s="42"/>
+      <c r="HO8" s="42"/>
+      <c r="HP8" s="42"/>
+      <c r="HQ8" s="42"/>
+      <c r="HR8" s="42"/>
+      <c r="HS8" s="42"/>
+      <c r="HT8" s="42"/>
+      <c r="HU8" s="42"/>
+      <c r="HV8" s="42"/>
+      <c r="HW8" s="42"/>
+      <c r="HX8" s="42"/>
+      <c r="HY8" s="42"/>
+      <c r="HZ8" s="42"/>
+      <c r="IA8" s="42"/>
+      <c r="IB8" s="42"/>
+      <c r="IC8" s="42"/>
+      <c r="ID8" s="42"/>
+      <c r="IE8" s="42"/>
+      <c r="IF8" s="42"/>
+      <c r="IG8" s="42"/>
+      <c r="IH8" s="42"/>
+      <c r="II8" s="42"/>
+      <c r="IJ8" s="42"/>
+      <c r="IK8" s="42"/>
+      <c r="IL8" s="42"/>
+      <c r="IM8" s="42"/>
+      <c r="IN8" s="42"/>
+      <c r="IO8" s="42"/>
+      <c r="IP8" s="42"/>
+      <c r="IQ8" s="42"/>
+      <c r="IR8" s="42"/>
+      <c r="IS8" s="42"/>
+      <c r="IT8" s="42"/>
+      <c r="IU8" s="42"/>
+      <c r="IV8" s="42"/>
+      <c r="IW8" s="42"/>
+      <c r="IX8" s="42"/>
+      <c r="IY8" s="42"/>
+      <c r="IZ8" s="42"/>
+      <c r="JA8" s="42"/>
+      <c r="JB8" s="42"/>
+      <c r="JC8" s="42"/>
+      <c r="JD8" s="42"/>
+      <c r="JE8" s="42"/>
+      <c r="JF8" s="42"/>
+      <c r="JG8" s="42"/>
+      <c r="JH8" s="42"/>
+      <c r="JI8" s="42"/>
+      <c r="JJ8" s="42"/>
+      <c r="JK8" s="42"/>
+      <c r="JL8" s="42"/>
+      <c r="JM8" s="42"/>
+      <c r="JN8" s="42"/>
+      <c r="JO8" s="42"/>
+      <c r="JP8" s="42"/>
+      <c r="JQ8" s="42"/>
+      <c r="JR8" s="42"/>
+      <c r="JS8" s="42"/>
+      <c r="JT8" s="42"/>
+      <c r="JU8" s="42"/>
     </row>
-    <row r="9" spans="1:103" s="19" customFormat="1" ht="12.75">
+    <row r="9" spans="1:281" s="19" customFormat="1" ht="12.75">
       <c r="A9" s="20">
         <v>5</v>
       </c>
@@ -2139,9 +3563,187 @@
       <c r="CW9" s="42"/>
       <c r="CX9" s="42"/>
       <c r="CY9" s="42"/>
+      <c r="CZ9" s="42"/>
+      <c r="DA9" s="42"/>
+      <c r="DB9" s="42"/>
+      <c r="DC9" s="42"/>
+      <c r="DD9" s="42"/>
+      <c r="DE9" s="42"/>
+      <c r="DF9" s="42"/>
+      <c r="DG9" s="42"/>
+      <c r="DH9" s="42"/>
+      <c r="DI9" s="42"/>
+      <c r="DJ9" s="42"/>
+      <c r="DK9" s="42"/>
+      <c r="DL9" s="42"/>
+      <c r="DM9" s="42"/>
+      <c r="DN9" s="42"/>
+      <c r="DO9" s="42"/>
+      <c r="DP9" s="42"/>
+      <c r="DQ9" s="42"/>
+      <c r="DR9" s="42"/>
+      <c r="DS9" s="42"/>
+      <c r="DT9" s="42"/>
+      <c r="DU9" s="42"/>
+      <c r="DV9" s="42"/>
+      <c r="DW9" s="42"/>
+      <c r="DX9" s="42"/>
+      <c r="DY9" s="42"/>
+      <c r="DZ9" s="42"/>
+      <c r="EA9" s="42"/>
+      <c r="EB9" s="42"/>
+      <c r="EC9" s="42"/>
+      <c r="ED9" s="42"/>
+      <c r="EE9" s="42"/>
+      <c r="EF9" s="42"/>
+      <c r="EG9" s="42"/>
+      <c r="EH9" s="42"/>
+      <c r="EI9" s="42"/>
+      <c r="EJ9" s="42"/>
+      <c r="EK9" s="42"/>
+      <c r="EL9" s="42"/>
+      <c r="EM9" s="42"/>
+      <c r="EN9" s="42"/>
+      <c r="EO9" s="42"/>
+      <c r="EP9" s="42"/>
+      <c r="EQ9" s="42"/>
+      <c r="ER9" s="42"/>
+      <c r="ES9" s="42"/>
+      <c r="ET9" s="42"/>
+      <c r="EU9" s="42"/>
+      <c r="EV9" s="42"/>
+      <c r="EW9" s="42"/>
+      <c r="EX9" s="42"/>
+      <c r="EY9" s="42"/>
+      <c r="EZ9" s="42"/>
+      <c r="FA9" s="42"/>
+      <c r="FB9" s="42"/>
+      <c r="FC9" s="42"/>
+      <c r="FD9" s="42"/>
+      <c r="FE9" s="42"/>
+      <c r="FF9" s="42"/>
+      <c r="FG9" s="42"/>
+      <c r="FH9" s="42"/>
+      <c r="FI9" s="42"/>
+      <c r="FJ9" s="42"/>
+      <c r="FK9" s="42"/>
+      <c r="FL9" s="42"/>
+      <c r="FM9" s="42"/>
+      <c r="FN9" s="42"/>
+      <c r="FO9" s="42"/>
+      <c r="FP9" s="42"/>
+      <c r="FQ9" s="42"/>
+      <c r="FR9" s="42"/>
+      <c r="FS9" s="42"/>
+      <c r="FT9" s="42"/>
+      <c r="FU9" s="42"/>
+      <c r="FV9" s="42"/>
+      <c r="FW9" s="42"/>
+      <c r="FX9" s="42"/>
+      <c r="FY9" s="42"/>
+      <c r="FZ9" s="42"/>
+      <c r="GA9" s="42"/>
+      <c r="GB9" s="42"/>
+      <c r="GC9" s="42"/>
+      <c r="GD9" s="42"/>
+      <c r="GE9" s="42"/>
+      <c r="GF9" s="42"/>
+      <c r="GG9" s="42"/>
+      <c r="GH9" s="42"/>
+      <c r="GI9" s="42"/>
+      <c r="GJ9" s="42"/>
+      <c r="GK9" s="42"/>
+      <c r="GL9" s="42"/>
+      <c r="GM9" s="42"/>
+      <c r="GN9" s="42"/>
+      <c r="GO9" s="42"/>
+      <c r="GP9" s="42"/>
+      <c r="GQ9" s="42"/>
+      <c r="GR9" s="42"/>
+      <c r="GS9" s="42"/>
+      <c r="GT9" s="42"/>
+      <c r="GU9" s="42"/>
+      <c r="GV9" s="42"/>
+      <c r="GW9" s="42"/>
+      <c r="GX9" s="42"/>
+      <c r="GY9" s="42"/>
+      <c r="GZ9" s="42"/>
+      <c r="HA9" s="42"/>
+      <c r="HB9" s="42"/>
+      <c r="HC9" s="42"/>
+      <c r="HD9" s="42"/>
+      <c r="HE9" s="42"/>
+      <c r="HF9" s="42"/>
+      <c r="HG9" s="42"/>
+      <c r="HH9" s="42"/>
+      <c r="HI9" s="42"/>
+      <c r="HJ9" s="42"/>
+      <c r="HK9" s="42"/>
+      <c r="HL9" s="42"/>
+      <c r="HM9" s="42"/>
+      <c r="HN9" s="42"/>
+      <c r="HO9" s="42"/>
+      <c r="HP9" s="42"/>
+      <c r="HQ9" s="42"/>
+      <c r="HR9" s="42"/>
+      <c r="HS9" s="42"/>
+      <c r="HT9" s="42"/>
+      <c r="HU9" s="42"/>
+      <c r="HV9" s="42"/>
+      <c r="HW9" s="42"/>
+      <c r="HX9" s="42"/>
+      <c r="HY9" s="42"/>
+      <c r="HZ9" s="42"/>
+      <c r="IA9" s="42"/>
+      <c r="IB9" s="42"/>
+      <c r="IC9" s="42"/>
+      <c r="ID9" s="42"/>
+      <c r="IE9" s="42"/>
+      <c r="IF9" s="42"/>
+      <c r="IG9" s="42"/>
+      <c r="IH9" s="42"/>
+      <c r="II9" s="42"/>
+      <c r="IJ9" s="42"/>
+      <c r="IK9" s="42"/>
+      <c r="IL9" s="42"/>
+      <c r="IM9" s="42"/>
+      <c r="IN9" s="42"/>
+      <c r="IO9" s="42"/>
+      <c r="IP9" s="42"/>
+      <c r="IQ9" s="42"/>
+      <c r="IR9" s="42"/>
+      <c r="IS9" s="42"/>
+      <c r="IT9" s="42"/>
+      <c r="IU9" s="42"/>
+      <c r="IV9" s="42"/>
+      <c r="IW9" s="42"/>
+      <c r="IX9" s="42"/>
+      <c r="IY9" s="42"/>
+      <c r="IZ9" s="42"/>
+      <c r="JA9" s="42"/>
+      <c r="JB9" s="42"/>
+      <c r="JC9" s="42"/>
+      <c r="JD9" s="42"/>
+      <c r="JE9" s="42"/>
+      <c r="JF9" s="42"/>
+      <c r="JG9" s="42"/>
+      <c r="JH9" s="42"/>
+      <c r="JI9" s="42"/>
+      <c r="JJ9" s="42"/>
+      <c r="JK9" s="42"/>
+      <c r="JL9" s="42"/>
+      <c r="JM9" s="42"/>
+      <c r="JN9" s="42"/>
+      <c r="JO9" s="42"/>
+      <c r="JP9" s="42"/>
+      <c r="JQ9" s="42"/>
+      <c r="JR9" s="42"/>
+      <c r="JS9" s="42"/>
+      <c r="JT9" s="42"/>
+      <c r="JU9" s="42"/>
     </row>
-    <row r="10" spans="1:103" ht="12.75">
-      <c r="A10" s="59">
+    <row r="10" spans="1:281" ht="12.75">
+      <c r="A10" s="47">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2272,9 +3874,187 @@
       <c r="CW10" s="42"/>
       <c r="CX10" s="42"/>
       <c r="CY10" s="42"/>
+      <c r="CZ10" s="42"/>
+      <c r="DA10" s="42"/>
+      <c r="DB10" s="42"/>
+      <c r="DC10" s="42"/>
+      <c r="DD10" s="42"/>
+      <c r="DE10" s="42"/>
+      <c r="DF10" s="42"/>
+      <c r="DG10" s="42"/>
+      <c r="DH10" s="42"/>
+      <c r="DI10" s="42"/>
+      <c r="DJ10" s="42"/>
+      <c r="DK10" s="42"/>
+      <c r="DL10" s="42"/>
+      <c r="DM10" s="42"/>
+      <c r="DN10" s="42"/>
+      <c r="DO10" s="42"/>
+      <c r="DP10" s="42"/>
+      <c r="DQ10" s="42"/>
+      <c r="DR10" s="42"/>
+      <c r="DS10" s="42"/>
+      <c r="DT10" s="42"/>
+      <c r="DU10" s="42"/>
+      <c r="DV10" s="42"/>
+      <c r="DW10" s="42"/>
+      <c r="DX10" s="42"/>
+      <c r="DY10" s="42"/>
+      <c r="DZ10" s="42"/>
+      <c r="EA10" s="42"/>
+      <c r="EB10" s="42"/>
+      <c r="EC10" s="42"/>
+      <c r="ED10" s="42"/>
+      <c r="EE10" s="42"/>
+      <c r="EF10" s="42"/>
+      <c r="EG10" s="42"/>
+      <c r="EH10" s="42"/>
+      <c r="EI10" s="42"/>
+      <c r="EJ10" s="42"/>
+      <c r="EK10" s="42"/>
+      <c r="EL10" s="42"/>
+      <c r="EM10" s="42"/>
+      <c r="EN10" s="42"/>
+      <c r="EO10" s="42"/>
+      <c r="EP10" s="42"/>
+      <c r="EQ10" s="42"/>
+      <c r="ER10" s="42"/>
+      <c r="ES10" s="42"/>
+      <c r="ET10" s="42"/>
+      <c r="EU10" s="42"/>
+      <c r="EV10" s="42"/>
+      <c r="EW10" s="42"/>
+      <c r="EX10" s="42"/>
+      <c r="EY10" s="42"/>
+      <c r="EZ10" s="42"/>
+      <c r="FA10" s="42"/>
+      <c r="FB10" s="42"/>
+      <c r="FC10" s="42"/>
+      <c r="FD10" s="42"/>
+      <c r="FE10" s="42"/>
+      <c r="FF10" s="42"/>
+      <c r="FG10" s="42"/>
+      <c r="FH10" s="42"/>
+      <c r="FI10" s="42"/>
+      <c r="FJ10" s="42"/>
+      <c r="FK10" s="42"/>
+      <c r="FL10" s="42"/>
+      <c r="FM10" s="42"/>
+      <c r="FN10" s="42"/>
+      <c r="FO10" s="42"/>
+      <c r="FP10" s="42"/>
+      <c r="FQ10" s="42"/>
+      <c r="FR10" s="42"/>
+      <c r="FS10" s="42"/>
+      <c r="FT10" s="42"/>
+      <c r="FU10" s="42"/>
+      <c r="FV10" s="42"/>
+      <c r="FW10" s="42"/>
+      <c r="FX10" s="42"/>
+      <c r="FY10" s="42"/>
+      <c r="FZ10" s="42"/>
+      <c r="GA10" s="42"/>
+      <c r="GB10" s="42"/>
+      <c r="GC10" s="42"/>
+      <c r="GD10" s="42"/>
+      <c r="GE10" s="42"/>
+      <c r="GF10" s="42"/>
+      <c r="GG10" s="42"/>
+      <c r="GH10" s="42"/>
+      <c r="GI10" s="42"/>
+      <c r="GJ10" s="42"/>
+      <c r="GK10" s="42"/>
+      <c r="GL10" s="42"/>
+      <c r="GM10" s="42"/>
+      <c r="GN10" s="42"/>
+      <c r="GO10" s="42"/>
+      <c r="GP10" s="42"/>
+      <c r="GQ10" s="42"/>
+      <c r="GR10" s="42"/>
+      <c r="GS10" s="42"/>
+      <c r="GT10" s="42"/>
+      <c r="GU10" s="42"/>
+      <c r="GV10" s="42"/>
+      <c r="GW10" s="42"/>
+      <c r="GX10" s="42"/>
+      <c r="GY10" s="42"/>
+      <c r="GZ10" s="42"/>
+      <c r="HA10" s="42"/>
+      <c r="HB10" s="42"/>
+      <c r="HC10" s="42"/>
+      <c r="HD10" s="42"/>
+      <c r="HE10" s="42"/>
+      <c r="HF10" s="42"/>
+      <c r="HG10" s="42"/>
+      <c r="HH10" s="42"/>
+      <c r="HI10" s="42"/>
+      <c r="HJ10" s="42"/>
+      <c r="HK10" s="42"/>
+      <c r="HL10" s="42"/>
+      <c r="HM10" s="42"/>
+      <c r="HN10" s="42"/>
+      <c r="HO10" s="42"/>
+      <c r="HP10" s="42"/>
+      <c r="HQ10" s="42"/>
+      <c r="HR10" s="42"/>
+      <c r="HS10" s="42"/>
+      <c r="HT10" s="42"/>
+      <c r="HU10" s="42"/>
+      <c r="HV10" s="42"/>
+      <c r="HW10" s="42"/>
+      <c r="HX10" s="42"/>
+      <c r="HY10" s="42"/>
+      <c r="HZ10" s="42"/>
+      <c r="IA10" s="42"/>
+      <c r="IB10" s="42"/>
+      <c r="IC10" s="42"/>
+      <c r="ID10" s="42"/>
+      <c r="IE10" s="42"/>
+      <c r="IF10" s="42"/>
+      <c r="IG10" s="42"/>
+      <c r="IH10" s="42"/>
+      <c r="II10" s="42"/>
+      <c r="IJ10" s="42"/>
+      <c r="IK10" s="42"/>
+      <c r="IL10" s="42"/>
+      <c r="IM10" s="42"/>
+      <c r="IN10" s="42"/>
+      <c r="IO10" s="42"/>
+      <c r="IP10" s="42"/>
+      <c r="IQ10" s="42"/>
+      <c r="IR10" s="42"/>
+      <c r="IS10" s="42"/>
+      <c r="IT10" s="42"/>
+      <c r="IU10" s="42"/>
+      <c r="IV10" s="42"/>
+      <c r="IW10" s="42"/>
+      <c r="IX10" s="42"/>
+      <c r="IY10" s="42"/>
+      <c r="IZ10" s="42"/>
+      <c r="JA10" s="42"/>
+      <c r="JB10" s="42"/>
+      <c r="JC10" s="42"/>
+      <c r="JD10" s="42"/>
+      <c r="JE10" s="42"/>
+      <c r="JF10" s="42"/>
+      <c r="JG10" s="42"/>
+      <c r="JH10" s="42"/>
+      <c r="JI10" s="42"/>
+      <c r="JJ10" s="42"/>
+      <c r="JK10" s="42"/>
+      <c r="JL10" s="42"/>
+      <c r="JM10" s="42"/>
+      <c r="JN10" s="42"/>
+      <c r="JO10" s="42"/>
+      <c r="JP10" s="42"/>
+      <c r="JQ10" s="42"/>
+      <c r="JR10" s="42"/>
+      <c r="JS10" s="42"/>
+      <c r="JT10" s="42"/>
+      <c r="JU10" s="42"/>
     </row>
-    <row r="11" spans="1:103" s="16" customFormat="1" ht="12.75">
-      <c r="A11" s="60"/>
+    <row r="11" spans="1:281" s="16" customFormat="1" ht="12.75">
+      <c r="A11" s="48"/>
       <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
@@ -2403,9 +4183,187 @@
       <c r="CW11" s="42"/>
       <c r="CX11" s="42"/>
       <c r="CY11" s="42"/>
+      <c r="CZ11" s="42"/>
+      <c r="DA11" s="42"/>
+      <c r="DB11" s="42"/>
+      <c r="DC11" s="42"/>
+      <c r="DD11" s="42"/>
+      <c r="DE11" s="42"/>
+      <c r="DF11" s="42"/>
+      <c r="DG11" s="42"/>
+      <c r="DH11" s="42"/>
+      <c r="DI11" s="42"/>
+      <c r="DJ11" s="42"/>
+      <c r="DK11" s="42"/>
+      <c r="DL11" s="42"/>
+      <c r="DM11" s="42"/>
+      <c r="DN11" s="42"/>
+      <c r="DO11" s="42"/>
+      <c r="DP11" s="42"/>
+      <c r="DQ11" s="42"/>
+      <c r="DR11" s="42"/>
+      <c r="DS11" s="42"/>
+      <c r="DT11" s="42"/>
+      <c r="DU11" s="42"/>
+      <c r="DV11" s="42"/>
+      <c r="DW11" s="42"/>
+      <c r="DX11" s="42"/>
+      <c r="DY11" s="42"/>
+      <c r="DZ11" s="42"/>
+      <c r="EA11" s="42"/>
+      <c r="EB11" s="42"/>
+      <c r="EC11" s="42"/>
+      <c r="ED11" s="42"/>
+      <c r="EE11" s="42"/>
+      <c r="EF11" s="42"/>
+      <c r="EG11" s="42"/>
+      <c r="EH11" s="42"/>
+      <c r="EI11" s="42"/>
+      <c r="EJ11" s="42"/>
+      <c r="EK11" s="42"/>
+      <c r="EL11" s="42"/>
+      <c r="EM11" s="42"/>
+      <c r="EN11" s="42"/>
+      <c r="EO11" s="42"/>
+      <c r="EP11" s="42"/>
+      <c r="EQ11" s="42"/>
+      <c r="ER11" s="42"/>
+      <c r="ES11" s="42"/>
+      <c r="ET11" s="42"/>
+      <c r="EU11" s="42"/>
+      <c r="EV11" s="42"/>
+      <c r="EW11" s="42"/>
+      <c r="EX11" s="42"/>
+      <c r="EY11" s="42"/>
+      <c r="EZ11" s="42"/>
+      <c r="FA11" s="42"/>
+      <c r="FB11" s="42"/>
+      <c r="FC11" s="42"/>
+      <c r="FD11" s="42"/>
+      <c r="FE11" s="42"/>
+      <c r="FF11" s="42"/>
+      <c r="FG11" s="42"/>
+      <c r="FH11" s="42"/>
+      <c r="FI11" s="42"/>
+      <c r="FJ11" s="42"/>
+      <c r="FK11" s="42"/>
+      <c r="FL11" s="42"/>
+      <c r="FM11" s="42"/>
+      <c r="FN11" s="42"/>
+      <c r="FO11" s="42"/>
+      <c r="FP11" s="42"/>
+      <c r="FQ11" s="42"/>
+      <c r="FR11" s="42"/>
+      <c r="FS11" s="42"/>
+      <c r="FT11" s="42"/>
+      <c r="FU11" s="42"/>
+      <c r="FV11" s="42"/>
+      <c r="FW11" s="42"/>
+      <c r="FX11" s="42"/>
+      <c r="FY11" s="42"/>
+      <c r="FZ11" s="42"/>
+      <c r="GA11" s="42"/>
+      <c r="GB11" s="42"/>
+      <c r="GC11" s="42"/>
+      <c r="GD11" s="42"/>
+      <c r="GE11" s="42"/>
+      <c r="GF11" s="42"/>
+      <c r="GG11" s="42"/>
+      <c r="GH11" s="42"/>
+      <c r="GI11" s="42"/>
+      <c r="GJ11" s="42"/>
+      <c r="GK11" s="42"/>
+      <c r="GL11" s="42"/>
+      <c r="GM11" s="42"/>
+      <c r="GN11" s="42"/>
+      <c r="GO11" s="42"/>
+      <c r="GP11" s="42"/>
+      <c r="GQ11" s="42"/>
+      <c r="GR11" s="42"/>
+      <c r="GS11" s="42"/>
+      <c r="GT11" s="42"/>
+      <c r="GU11" s="42"/>
+      <c r="GV11" s="42"/>
+      <c r="GW11" s="42"/>
+      <c r="GX11" s="42"/>
+      <c r="GY11" s="42"/>
+      <c r="GZ11" s="42"/>
+      <c r="HA11" s="42"/>
+      <c r="HB11" s="42"/>
+      <c r="HC11" s="42"/>
+      <c r="HD11" s="42"/>
+      <c r="HE11" s="42"/>
+      <c r="HF11" s="42"/>
+      <c r="HG11" s="42"/>
+      <c r="HH11" s="42"/>
+      <c r="HI11" s="42"/>
+      <c r="HJ11" s="42"/>
+      <c r="HK11" s="42"/>
+      <c r="HL11" s="42"/>
+      <c r="HM11" s="42"/>
+      <c r="HN11" s="42"/>
+      <c r="HO11" s="42"/>
+      <c r="HP11" s="42"/>
+      <c r="HQ11" s="42"/>
+      <c r="HR11" s="42"/>
+      <c r="HS11" s="42"/>
+      <c r="HT11" s="42"/>
+      <c r="HU11" s="42"/>
+      <c r="HV11" s="42"/>
+      <c r="HW11" s="42"/>
+      <c r="HX11" s="42"/>
+      <c r="HY11" s="42"/>
+      <c r="HZ11" s="42"/>
+      <c r="IA11" s="42"/>
+      <c r="IB11" s="42"/>
+      <c r="IC11" s="42"/>
+      <c r="ID11" s="42"/>
+      <c r="IE11" s="42"/>
+      <c r="IF11" s="42"/>
+      <c r="IG11" s="42"/>
+      <c r="IH11" s="42"/>
+      <c r="II11" s="42"/>
+      <c r="IJ11" s="42"/>
+      <c r="IK11" s="42"/>
+      <c r="IL11" s="42"/>
+      <c r="IM11" s="42"/>
+      <c r="IN11" s="42"/>
+      <c r="IO11" s="42"/>
+      <c r="IP11" s="42"/>
+      <c r="IQ11" s="42"/>
+      <c r="IR11" s="42"/>
+      <c r="IS11" s="42"/>
+      <c r="IT11" s="42"/>
+      <c r="IU11" s="42"/>
+      <c r="IV11" s="42"/>
+      <c r="IW11" s="42"/>
+      <c r="IX11" s="42"/>
+      <c r="IY11" s="42"/>
+      <c r="IZ11" s="42"/>
+      <c r="JA11" s="42"/>
+      <c r="JB11" s="42"/>
+      <c r="JC11" s="42"/>
+      <c r="JD11" s="42"/>
+      <c r="JE11" s="42"/>
+      <c r="JF11" s="42"/>
+      <c r="JG11" s="42"/>
+      <c r="JH11" s="42"/>
+      <c r="JI11" s="42"/>
+      <c r="JJ11" s="42"/>
+      <c r="JK11" s="42"/>
+      <c r="JL11" s="42"/>
+      <c r="JM11" s="42"/>
+      <c r="JN11" s="42"/>
+      <c r="JO11" s="42"/>
+      <c r="JP11" s="42"/>
+      <c r="JQ11" s="42"/>
+      <c r="JR11" s="42"/>
+      <c r="JS11" s="42"/>
+      <c r="JT11" s="42"/>
+      <c r="JU11" s="42"/>
     </row>
-    <row r="12" spans="1:103" s="16" customFormat="1" ht="12.75">
-      <c r="A12" s="60"/>
+    <row r="12" spans="1:281" s="16" customFormat="1" ht="12.75">
+      <c r="A12" s="48"/>
       <c r="B12" s="15" t="s">
         <v>26</v>
       </c>
@@ -2534,9 +4492,187 @@
       <c r="CW12" s="42"/>
       <c r="CX12" s="42"/>
       <c r="CY12" s="42"/>
+      <c r="CZ12" s="42"/>
+      <c r="DA12" s="42"/>
+      <c r="DB12" s="42"/>
+      <c r="DC12" s="42"/>
+      <c r="DD12" s="42"/>
+      <c r="DE12" s="42"/>
+      <c r="DF12" s="42"/>
+      <c r="DG12" s="42"/>
+      <c r="DH12" s="42"/>
+      <c r="DI12" s="42"/>
+      <c r="DJ12" s="42"/>
+      <c r="DK12" s="42"/>
+      <c r="DL12" s="42"/>
+      <c r="DM12" s="42"/>
+      <c r="DN12" s="42"/>
+      <c r="DO12" s="42"/>
+      <c r="DP12" s="42"/>
+      <c r="DQ12" s="42"/>
+      <c r="DR12" s="42"/>
+      <c r="DS12" s="42"/>
+      <c r="DT12" s="42"/>
+      <c r="DU12" s="42"/>
+      <c r="DV12" s="42"/>
+      <c r="DW12" s="42"/>
+      <c r="DX12" s="42"/>
+      <c r="DY12" s="42"/>
+      <c r="DZ12" s="42"/>
+      <c r="EA12" s="42"/>
+      <c r="EB12" s="42"/>
+      <c r="EC12" s="42"/>
+      <c r="ED12" s="42"/>
+      <c r="EE12" s="42"/>
+      <c r="EF12" s="42"/>
+      <c r="EG12" s="42"/>
+      <c r="EH12" s="42"/>
+      <c r="EI12" s="42"/>
+      <c r="EJ12" s="42"/>
+      <c r="EK12" s="42"/>
+      <c r="EL12" s="42"/>
+      <c r="EM12" s="42"/>
+      <c r="EN12" s="42"/>
+      <c r="EO12" s="42"/>
+      <c r="EP12" s="42"/>
+      <c r="EQ12" s="42"/>
+      <c r="ER12" s="42"/>
+      <c r="ES12" s="42"/>
+      <c r="ET12" s="42"/>
+      <c r="EU12" s="42"/>
+      <c r="EV12" s="42"/>
+      <c r="EW12" s="42"/>
+      <c r="EX12" s="42"/>
+      <c r="EY12" s="42"/>
+      <c r="EZ12" s="42"/>
+      <c r="FA12" s="42"/>
+      <c r="FB12" s="42"/>
+      <c r="FC12" s="42"/>
+      <c r="FD12" s="42"/>
+      <c r="FE12" s="42"/>
+      <c r="FF12" s="42"/>
+      <c r="FG12" s="42"/>
+      <c r="FH12" s="42"/>
+      <c r="FI12" s="42"/>
+      <c r="FJ12" s="42"/>
+      <c r="FK12" s="42"/>
+      <c r="FL12" s="42"/>
+      <c r="FM12" s="42"/>
+      <c r="FN12" s="42"/>
+      <c r="FO12" s="42"/>
+      <c r="FP12" s="42"/>
+      <c r="FQ12" s="42"/>
+      <c r="FR12" s="42"/>
+      <c r="FS12" s="42"/>
+      <c r="FT12" s="42"/>
+      <c r="FU12" s="42"/>
+      <c r="FV12" s="42"/>
+      <c r="FW12" s="42"/>
+      <c r="FX12" s="42"/>
+      <c r="FY12" s="42"/>
+      <c r="FZ12" s="42"/>
+      <c r="GA12" s="42"/>
+      <c r="GB12" s="42"/>
+      <c r="GC12" s="42"/>
+      <c r="GD12" s="42"/>
+      <c r="GE12" s="42"/>
+      <c r="GF12" s="42"/>
+      <c r="GG12" s="42"/>
+      <c r="GH12" s="42"/>
+      <c r="GI12" s="42"/>
+      <c r="GJ12" s="42"/>
+      <c r="GK12" s="42"/>
+      <c r="GL12" s="42"/>
+      <c r="GM12" s="42"/>
+      <c r="GN12" s="42"/>
+      <c r="GO12" s="42"/>
+      <c r="GP12" s="42"/>
+      <c r="GQ12" s="42"/>
+      <c r="GR12" s="42"/>
+      <c r="GS12" s="42"/>
+      <c r="GT12" s="42"/>
+      <c r="GU12" s="42"/>
+      <c r="GV12" s="42"/>
+      <c r="GW12" s="42"/>
+      <c r="GX12" s="42"/>
+      <c r="GY12" s="42"/>
+      <c r="GZ12" s="42"/>
+      <c r="HA12" s="42"/>
+      <c r="HB12" s="42"/>
+      <c r="HC12" s="42"/>
+      <c r="HD12" s="42"/>
+      <c r="HE12" s="42"/>
+      <c r="HF12" s="42"/>
+      <c r="HG12" s="42"/>
+      <c r="HH12" s="42"/>
+      <c r="HI12" s="42"/>
+      <c r="HJ12" s="42"/>
+      <c r="HK12" s="42"/>
+      <c r="HL12" s="42"/>
+      <c r="HM12" s="42"/>
+      <c r="HN12" s="42"/>
+      <c r="HO12" s="42"/>
+      <c r="HP12" s="42"/>
+      <c r="HQ12" s="42"/>
+      <c r="HR12" s="42"/>
+      <c r="HS12" s="42"/>
+      <c r="HT12" s="42"/>
+      <c r="HU12" s="42"/>
+      <c r="HV12" s="42"/>
+      <c r="HW12" s="42"/>
+      <c r="HX12" s="42"/>
+      <c r="HY12" s="42"/>
+      <c r="HZ12" s="42"/>
+      <c r="IA12" s="42"/>
+      <c r="IB12" s="42"/>
+      <c r="IC12" s="42"/>
+      <c r="ID12" s="42"/>
+      <c r="IE12" s="42"/>
+      <c r="IF12" s="42"/>
+      <c r="IG12" s="42"/>
+      <c r="IH12" s="42"/>
+      <c r="II12" s="42"/>
+      <c r="IJ12" s="42"/>
+      <c r="IK12" s="42"/>
+      <c r="IL12" s="42"/>
+      <c r="IM12" s="42"/>
+      <c r="IN12" s="42"/>
+      <c r="IO12" s="42"/>
+      <c r="IP12" s="42"/>
+      <c r="IQ12" s="42"/>
+      <c r="IR12" s="42"/>
+      <c r="IS12" s="42"/>
+      <c r="IT12" s="42"/>
+      <c r="IU12" s="42"/>
+      <c r="IV12" s="42"/>
+      <c r="IW12" s="42"/>
+      <c r="IX12" s="42"/>
+      <c r="IY12" s="42"/>
+      <c r="IZ12" s="42"/>
+      <c r="JA12" s="42"/>
+      <c r="JB12" s="42"/>
+      <c r="JC12" s="42"/>
+      <c r="JD12" s="42"/>
+      <c r="JE12" s="42"/>
+      <c r="JF12" s="42"/>
+      <c r="JG12" s="42"/>
+      <c r="JH12" s="42"/>
+      <c r="JI12" s="42"/>
+      <c r="JJ12" s="42"/>
+      <c r="JK12" s="42"/>
+      <c r="JL12" s="42"/>
+      <c r="JM12" s="42"/>
+      <c r="JN12" s="42"/>
+      <c r="JO12" s="42"/>
+      <c r="JP12" s="42"/>
+      <c r="JQ12" s="42"/>
+      <c r="JR12" s="42"/>
+      <c r="JS12" s="42"/>
+      <c r="JT12" s="42"/>
+      <c r="JU12" s="42"/>
     </row>
-    <row r="13" spans="1:103" s="16" customFormat="1" ht="12.75">
-      <c r="A13" s="61"/>
+    <row r="13" spans="1:281" s="16" customFormat="1" ht="12.75">
+      <c r="A13" s="49"/>
       <c r="B13" s="15" t="s">
         <v>27</v>
       </c>
@@ -2665,8 +4801,186 @@
       <c r="CW13" s="42"/>
       <c r="CX13" s="42"/>
       <c r="CY13" s="42"/>
+      <c r="CZ13" s="42"/>
+      <c r="DA13" s="42"/>
+      <c r="DB13" s="42"/>
+      <c r="DC13" s="42"/>
+      <c r="DD13" s="42"/>
+      <c r="DE13" s="42"/>
+      <c r="DF13" s="42"/>
+      <c r="DG13" s="42"/>
+      <c r="DH13" s="42"/>
+      <c r="DI13" s="42"/>
+      <c r="DJ13" s="42"/>
+      <c r="DK13" s="42"/>
+      <c r="DL13" s="42"/>
+      <c r="DM13" s="42"/>
+      <c r="DN13" s="42"/>
+      <c r="DO13" s="42"/>
+      <c r="DP13" s="42"/>
+      <c r="DQ13" s="42"/>
+      <c r="DR13" s="42"/>
+      <c r="DS13" s="42"/>
+      <c r="DT13" s="42"/>
+      <c r="DU13" s="42"/>
+      <c r="DV13" s="42"/>
+      <c r="DW13" s="42"/>
+      <c r="DX13" s="42"/>
+      <c r="DY13" s="42"/>
+      <c r="DZ13" s="42"/>
+      <c r="EA13" s="42"/>
+      <c r="EB13" s="42"/>
+      <c r="EC13" s="42"/>
+      <c r="ED13" s="42"/>
+      <c r="EE13" s="42"/>
+      <c r="EF13" s="42"/>
+      <c r="EG13" s="42"/>
+      <c r="EH13" s="42"/>
+      <c r="EI13" s="42"/>
+      <c r="EJ13" s="42"/>
+      <c r="EK13" s="42"/>
+      <c r="EL13" s="42"/>
+      <c r="EM13" s="42"/>
+      <c r="EN13" s="42"/>
+      <c r="EO13" s="42"/>
+      <c r="EP13" s="42"/>
+      <c r="EQ13" s="42"/>
+      <c r="ER13" s="42"/>
+      <c r="ES13" s="42"/>
+      <c r="ET13" s="42"/>
+      <c r="EU13" s="42"/>
+      <c r="EV13" s="42"/>
+      <c r="EW13" s="42"/>
+      <c r="EX13" s="42"/>
+      <c r="EY13" s="42"/>
+      <c r="EZ13" s="42"/>
+      <c r="FA13" s="42"/>
+      <c r="FB13" s="42"/>
+      <c r="FC13" s="42"/>
+      <c r="FD13" s="42"/>
+      <c r="FE13" s="42"/>
+      <c r="FF13" s="42"/>
+      <c r="FG13" s="42"/>
+      <c r="FH13" s="42"/>
+      <c r="FI13" s="42"/>
+      <c r="FJ13" s="42"/>
+      <c r="FK13" s="42"/>
+      <c r="FL13" s="42"/>
+      <c r="FM13" s="42"/>
+      <c r="FN13" s="42"/>
+      <c r="FO13" s="42"/>
+      <c r="FP13" s="42"/>
+      <c r="FQ13" s="42"/>
+      <c r="FR13" s="42"/>
+      <c r="FS13" s="42"/>
+      <c r="FT13" s="42"/>
+      <c r="FU13" s="42"/>
+      <c r="FV13" s="42"/>
+      <c r="FW13" s="42"/>
+      <c r="FX13" s="42"/>
+      <c r="FY13" s="42"/>
+      <c r="FZ13" s="42"/>
+      <c r="GA13" s="42"/>
+      <c r="GB13" s="42"/>
+      <c r="GC13" s="42"/>
+      <c r="GD13" s="42"/>
+      <c r="GE13" s="42"/>
+      <c r="GF13" s="42"/>
+      <c r="GG13" s="42"/>
+      <c r="GH13" s="42"/>
+      <c r="GI13" s="42"/>
+      <c r="GJ13" s="42"/>
+      <c r="GK13" s="42"/>
+      <c r="GL13" s="42"/>
+      <c r="GM13" s="42"/>
+      <c r="GN13" s="42"/>
+      <c r="GO13" s="42"/>
+      <c r="GP13" s="42"/>
+      <c r="GQ13" s="42"/>
+      <c r="GR13" s="42"/>
+      <c r="GS13" s="42"/>
+      <c r="GT13" s="42"/>
+      <c r="GU13" s="42"/>
+      <c r="GV13" s="42"/>
+      <c r="GW13" s="42"/>
+      <c r="GX13" s="42"/>
+      <c r="GY13" s="42"/>
+      <c r="GZ13" s="42"/>
+      <c r="HA13" s="42"/>
+      <c r="HB13" s="42"/>
+      <c r="HC13" s="42"/>
+      <c r="HD13" s="42"/>
+      <c r="HE13" s="42"/>
+      <c r="HF13" s="42"/>
+      <c r="HG13" s="42"/>
+      <c r="HH13" s="42"/>
+      <c r="HI13" s="42"/>
+      <c r="HJ13" s="42"/>
+      <c r="HK13" s="42"/>
+      <c r="HL13" s="42"/>
+      <c r="HM13" s="42"/>
+      <c r="HN13" s="42"/>
+      <c r="HO13" s="42"/>
+      <c r="HP13" s="42"/>
+      <c r="HQ13" s="42"/>
+      <c r="HR13" s="42"/>
+      <c r="HS13" s="42"/>
+      <c r="HT13" s="42"/>
+      <c r="HU13" s="42"/>
+      <c r="HV13" s="42"/>
+      <c r="HW13" s="42"/>
+      <c r="HX13" s="42"/>
+      <c r="HY13" s="42"/>
+      <c r="HZ13" s="42"/>
+      <c r="IA13" s="42"/>
+      <c r="IB13" s="42"/>
+      <c r="IC13" s="42"/>
+      <c r="ID13" s="42"/>
+      <c r="IE13" s="42"/>
+      <c r="IF13" s="42"/>
+      <c r="IG13" s="42"/>
+      <c r="IH13" s="42"/>
+      <c r="II13" s="42"/>
+      <c r="IJ13" s="42"/>
+      <c r="IK13" s="42"/>
+      <c r="IL13" s="42"/>
+      <c r="IM13" s="42"/>
+      <c r="IN13" s="42"/>
+      <c r="IO13" s="42"/>
+      <c r="IP13" s="42"/>
+      <c r="IQ13" s="42"/>
+      <c r="IR13" s="42"/>
+      <c r="IS13" s="42"/>
+      <c r="IT13" s="42"/>
+      <c r="IU13" s="42"/>
+      <c r="IV13" s="42"/>
+      <c r="IW13" s="42"/>
+      <c r="IX13" s="42"/>
+      <c r="IY13" s="42"/>
+      <c r="IZ13" s="42"/>
+      <c r="JA13" s="42"/>
+      <c r="JB13" s="42"/>
+      <c r="JC13" s="42"/>
+      <c r="JD13" s="42"/>
+      <c r="JE13" s="42"/>
+      <c r="JF13" s="42"/>
+      <c r="JG13" s="42"/>
+      <c r="JH13" s="42"/>
+      <c r="JI13" s="42"/>
+      <c r="JJ13" s="42"/>
+      <c r="JK13" s="42"/>
+      <c r="JL13" s="42"/>
+      <c r="JM13" s="42"/>
+      <c r="JN13" s="42"/>
+      <c r="JO13" s="42"/>
+      <c r="JP13" s="42"/>
+      <c r="JQ13" s="42"/>
+      <c r="JR13" s="42"/>
+      <c r="JS13" s="42"/>
+      <c r="JT13" s="42"/>
+      <c r="JU13" s="42"/>
     </row>
-    <row r="14" spans="1:103" ht="12.75">
+    <row r="14" spans="1:281" ht="12.75">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -2798,8 +5112,186 @@
       <c r="CW14" s="42"/>
       <c r="CX14" s="42"/>
       <c r="CY14" s="42"/>
+      <c r="CZ14" s="42"/>
+      <c r="DA14" s="42"/>
+      <c r="DB14" s="42"/>
+      <c r="DC14" s="42"/>
+      <c r="DD14" s="42"/>
+      <c r="DE14" s="42"/>
+      <c r="DF14" s="42"/>
+      <c r="DG14" s="42"/>
+      <c r="DH14" s="42"/>
+      <c r="DI14" s="42"/>
+      <c r="DJ14" s="42"/>
+      <c r="DK14" s="42"/>
+      <c r="DL14" s="42"/>
+      <c r="DM14" s="42"/>
+      <c r="DN14" s="42"/>
+      <c r="DO14" s="42"/>
+      <c r="DP14" s="42"/>
+      <c r="DQ14" s="42"/>
+      <c r="DR14" s="42"/>
+      <c r="DS14" s="42"/>
+      <c r="DT14" s="42"/>
+      <c r="DU14" s="42"/>
+      <c r="DV14" s="42"/>
+      <c r="DW14" s="42"/>
+      <c r="DX14" s="42"/>
+      <c r="DY14" s="42"/>
+      <c r="DZ14" s="42"/>
+      <c r="EA14" s="42"/>
+      <c r="EB14" s="42"/>
+      <c r="EC14" s="42"/>
+      <c r="ED14" s="42"/>
+      <c r="EE14" s="42"/>
+      <c r="EF14" s="42"/>
+      <c r="EG14" s="42"/>
+      <c r="EH14" s="42"/>
+      <c r="EI14" s="42"/>
+      <c r="EJ14" s="42"/>
+      <c r="EK14" s="42"/>
+      <c r="EL14" s="42"/>
+      <c r="EM14" s="42"/>
+      <c r="EN14" s="42"/>
+      <c r="EO14" s="42"/>
+      <c r="EP14" s="42"/>
+      <c r="EQ14" s="42"/>
+      <c r="ER14" s="42"/>
+      <c r="ES14" s="42"/>
+      <c r="ET14" s="42"/>
+      <c r="EU14" s="42"/>
+      <c r="EV14" s="42"/>
+      <c r="EW14" s="42"/>
+      <c r="EX14" s="42"/>
+      <c r="EY14" s="42"/>
+      <c r="EZ14" s="42"/>
+      <c r="FA14" s="42"/>
+      <c r="FB14" s="42"/>
+      <c r="FC14" s="42"/>
+      <c r="FD14" s="42"/>
+      <c r="FE14" s="42"/>
+      <c r="FF14" s="42"/>
+      <c r="FG14" s="42"/>
+      <c r="FH14" s="42"/>
+      <c r="FI14" s="42"/>
+      <c r="FJ14" s="42"/>
+      <c r="FK14" s="42"/>
+      <c r="FL14" s="42"/>
+      <c r="FM14" s="42"/>
+      <c r="FN14" s="42"/>
+      <c r="FO14" s="42"/>
+      <c r="FP14" s="42"/>
+      <c r="FQ14" s="42"/>
+      <c r="FR14" s="42"/>
+      <c r="FS14" s="42"/>
+      <c r="FT14" s="42"/>
+      <c r="FU14" s="42"/>
+      <c r="FV14" s="42"/>
+      <c r="FW14" s="42"/>
+      <c r="FX14" s="42"/>
+      <c r="FY14" s="42"/>
+      <c r="FZ14" s="42"/>
+      <c r="GA14" s="42"/>
+      <c r="GB14" s="42"/>
+      <c r="GC14" s="42"/>
+      <c r="GD14" s="42"/>
+      <c r="GE14" s="42"/>
+      <c r="GF14" s="42"/>
+      <c r="GG14" s="42"/>
+      <c r="GH14" s="42"/>
+      <c r="GI14" s="42"/>
+      <c r="GJ14" s="42"/>
+      <c r="GK14" s="42"/>
+      <c r="GL14" s="42"/>
+      <c r="GM14" s="42"/>
+      <c r="GN14" s="42"/>
+      <c r="GO14" s="42"/>
+      <c r="GP14" s="42"/>
+      <c r="GQ14" s="42"/>
+      <c r="GR14" s="42"/>
+      <c r="GS14" s="42"/>
+      <c r="GT14" s="42"/>
+      <c r="GU14" s="42"/>
+      <c r="GV14" s="42"/>
+      <c r="GW14" s="42"/>
+      <c r="GX14" s="42"/>
+      <c r="GY14" s="42"/>
+      <c r="GZ14" s="42"/>
+      <c r="HA14" s="42"/>
+      <c r="HB14" s="42"/>
+      <c r="HC14" s="42"/>
+      <c r="HD14" s="42"/>
+      <c r="HE14" s="42"/>
+      <c r="HF14" s="42"/>
+      <c r="HG14" s="42"/>
+      <c r="HH14" s="42"/>
+      <c r="HI14" s="42"/>
+      <c r="HJ14" s="42"/>
+      <c r="HK14" s="42"/>
+      <c r="HL14" s="42"/>
+      <c r="HM14" s="42"/>
+      <c r="HN14" s="42"/>
+      <c r="HO14" s="42"/>
+      <c r="HP14" s="42"/>
+      <c r="HQ14" s="42"/>
+      <c r="HR14" s="42"/>
+      <c r="HS14" s="42"/>
+      <c r="HT14" s="42"/>
+      <c r="HU14" s="42"/>
+      <c r="HV14" s="42"/>
+      <c r="HW14" s="42"/>
+      <c r="HX14" s="42"/>
+      <c r="HY14" s="42"/>
+      <c r="HZ14" s="42"/>
+      <c r="IA14" s="42"/>
+      <c r="IB14" s="42"/>
+      <c r="IC14" s="42"/>
+      <c r="ID14" s="42"/>
+      <c r="IE14" s="42"/>
+      <c r="IF14" s="42"/>
+      <c r="IG14" s="42"/>
+      <c r="IH14" s="42"/>
+      <c r="II14" s="42"/>
+      <c r="IJ14" s="42"/>
+      <c r="IK14" s="42"/>
+      <c r="IL14" s="42"/>
+      <c r="IM14" s="42"/>
+      <c r="IN14" s="42"/>
+      <c r="IO14" s="42"/>
+      <c r="IP14" s="42"/>
+      <c r="IQ14" s="42"/>
+      <c r="IR14" s="42"/>
+      <c r="IS14" s="42"/>
+      <c r="IT14" s="42"/>
+      <c r="IU14" s="42"/>
+      <c r="IV14" s="42"/>
+      <c r="IW14" s="42"/>
+      <c r="IX14" s="42"/>
+      <c r="IY14" s="42"/>
+      <c r="IZ14" s="42"/>
+      <c r="JA14" s="42"/>
+      <c r="JB14" s="42"/>
+      <c r="JC14" s="42"/>
+      <c r="JD14" s="42"/>
+      <c r="JE14" s="42"/>
+      <c r="JF14" s="42"/>
+      <c r="JG14" s="42"/>
+      <c r="JH14" s="42"/>
+      <c r="JI14" s="42"/>
+      <c r="JJ14" s="42"/>
+      <c r="JK14" s="42"/>
+      <c r="JL14" s="42"/>
+      <c r="JM14" s="42"/>
+      <c r="JN14" s="42"/>
+      <c r="JO14" s="42"/>
+      <c r="JP14" s="42"/>
+      <c r="JQ14" s="42"/>
+      <c r="JR14" s="42"/>
+      <c r="JS14" s="42"/>
+      <c r="JT14" s="42"/>
+      <c r="JU14" s="42"/>
     </row>
-    <row r="15" spans="1:103" s="23" customFormat="1" ht="12.75">
+    <row r="15" spans="1:281" s="23" customFormat="1" ht="12.75">
       <c r="A15" s="21">
         <v>8</v>
       </c>
@@ -2931,8 +5423,186 @@
       <c r="CW15" s="42"/>
       <c r="CX15" s="42"/>
       <c r="CY15" s="42"/>
+      <c r="CZ15" s="42"/>
+      <c r="DA15" s="42"/>
+      <c r="DB15" s="42"/>
+      <c r="DC15" s="42"/>
+      <c r="DD15" s="42"/>
+      <c r="DE15" s="42"/>
+      <c r="DF15" s="42"/>
+      <c r="DG15" s="42"/>
+      <c r="DH15" s="42"/>
+      <c r="DI15" s="42"/>
+      <c r="DJ15" s="42"/>
+      <c r="DK15" s="42"/>
+      <c r="DL15" s="42"/>
+      <c r="DM15" s="42"/>
+      <c r="DN15" s="42"/>
+      <c r="DO15" s="42"/>
+      <c r="DP15" s="42"/>
+      <c r="DQ15" s="42"/>
+      <c r="DR15" s="42"/>
+      <c r="DS15" s="42"/>
+      <c r="DT15" s="42"/>
+      <c r="DU15" s="42"/>
+      <c r="DV15" s="42"/>
+      <c r="DW15" s="42"/>
+      <c r="DX15" s="42"/>
+      <c r="DY15" s="42"/>
+      <c r="DZ15" s="42"/>
+      <c r="EA15" s="42"/>
+      <c r="EB15" s="42"/>
+      <c r="EC15" s="42"/>
+      <c r="ED15" s="42"/>
+      <c r="EE15" s="42"/>
+      <c r="EF15" s="42"/>
+      <c r="EG15" s="42"/>
+      <c r="EH15" s="42"/>
+      <c r="EI15" s="42"/>
+      <c r="EJ15" s="42"/>
+      <c r="EK15" s="42"/>
+      <c r="EL15" s="42"/>
+      <c r="EM15" s="42"/>
+      <c r="EN15" s="42"/>
+      <c r="EO15" s="42"/>
+      <c r="EP15" s="42"/>
+      <c r="EQ15" s="42"/>
+      <c r="ER15" s="42"/>
+      <c r="ES15" s="42"/>
+      <c r="ET15" s="42"/>
+      <c r="EU15" s="42"/>
+      <c r="EV15" s="42"/>
+      <c r="EW15" s="42"/>
+      <c r="EX15" s="42"/>
+      <c r="EY15" s="42"/>
+      <c r="EZ15" s="42"/>
+      <c r="FA15" s="42"/>
+      <c r="FB15" s="42"/>
+      <c r="FC15" s="42"/>
+      <c r="FD15" s="42"/>
+      <c r="FE15" s="42"/>
+      <c r="FF15" s="42"/>
+      <c r="FG15" s="42"/>
+      <c r="FH15" s="42"/>
+      <c r="FI15" s="42"/>
+      <c r="FJ15" s="42"/>
+      <c r="FK15" s="42"/>
+      <c r="FL15" s="42"/>
+      <c r="FM15" s="42"/>
+      <c r="FN15" s="42"/>
+      <c r="FO15" s="42"/>
+      <c r="FP15" s="42"/>
+      <c r="FQ15" s="42"/>
+      <c r="FR15" s="42"/>
+      <c r="FS15" s="42"/>
+      <c r="FT15" s="42"/>
+      <c r="FU15" s="42"/>
+      <c r="FV15" s="42"/>
+      <c r="FW15" s="42"/>
+      <c r="FX15" s="42"/>
+      <c r="FY15" s="42"/>
+      <c r="FZ15" s="42"/>
+      <c r="GA15" s="42"/>
+      <c r="GB15" s="42"/>
+      <c r="GC15" s="42"/>
+      <c r="GD15" s="42"/>
+      <c r="GE15" s="42"/>
+      <c r="GF15" s="42"/>
+      <c r="GG15" s="42"/>
+      <c r="GH15" s="42"/>
+      <c r="GI15" s="42"/>
+      <c r="GJ15" s="42"/>
+      <c r="GK15" s="42"/>
+      <c r="GL15" s="42"/>
+      <c r="GM15" s="42"/>
+      <c r="GN15" s="42"/>
+      <c r="GO15" s="42"/>
+      <c r="GP15" s="42"/>
+      <c r="GQ15" s="42"/>
+      <c r="GR15" s="42"/>
+      <c r="GS15" s="42"/>
+      <c r="GT15" s="42"/>
+      <c r="GU15" s="42"/>
+      <c r="GV15" s="42"/>
+      <c r="GW15" s="42"/>
+      <c r="GX15" s="42"/>
+      <c r="GY15" s="42"/>
+      <c r="GZ15" s="42"/>
+      <c r="HA15" s="42"/>
+      <c r="HB15" s="42"/>
+      <c r="HC15" s="42"/>
+      <c r="HD15" s="42"/>
+      <c r="HE15" s="42"/>
+      <c r="HF15" s="42"/>
+      <c r="HG15" s="42"/>
+      <c r="HH15" s="42"/>
+      <c r="HI15" s="42"/>
+      <c r="HJ15" s="42"/>
+      <c r="HK15" s="42"/>
+      <c r="HL15" s="42"/>
+      <c r="HM15" s="42"/>
+      <c r="HN15" s="42"/>
+      <c r="HO15" s="42"/>
+      <c r="HP15" s="42"/>
+      <c r="HQ15" s="42"/>
+      <c r="HR15" s="42"/>
+      <c r="HS15" s="42"/>
+      <c r="HT15" s="42"/>
+      <c r="HU15" s="42"/>
+      <c r="HV15" s="42"/>
+      <c r="HW15" s="42"/>
+      <c r="HX15" s="42"/>
+      <c r="HY15" s="42"/>
+      <c r="HZ15" s="42"/>
+      <c r="IA15" s="42"/>
+      <c r="IB15" s="42"/>
+      <c r="IC15" s="42"/>
+      <c r="ID15" s="42"/>
+      <c r="IE15" s="42"/>
+      <c r="IF15" s="42"/>
+      <c r="IG15" s="42"/>
+      <c r="IH15" s="42"/>
+      <c r="II15" s="42"/>
+      <c r="IJ15" s="42"/>
+      <c r="IK15" s="42"/>
+      <c r="IL15" s="42"/>
+      <c r="IM15" s="42"/>
+      <c r="IN15" s="42"/>
+      <c r="IO15" s="42"/>
+      <c r="IP15" s="42"/>
+      <c r="IQ15" s="42"/>
+      <c r="IR15" s="42"/>
+      <c r="IS15" s="42"/>
+      <c r="IT15" s="42"/>
+      <c r="IU15" s="42"/>
+      <c r="IV15" s="42"/>
+      <c r="IW15" s="42"/>
+      <c r="IX15" s="42"/>
+      <c r="IY15" s="42"/>
+      <c r="IZ15" s="42"/>
+      <c r="JA15" s="42"/>
+      <c r="JB15" s="42"/>
+      <c r="JC15" s="42"/>
+      <c r="JD15" s="42"/>
+      <c r="JE15" s="42"/>
+      <c r="JF15" s="42"/>
+      <c r="JG15" s="42"/>
+      <c r="JH15" s="42"/>
+      <c r="JI15" s="42"/>
+      <c r="JJ15" s="42"/>
+      <c r="JK15" s="42"/>
+      <c r="JL15" s="42"/>
+      <c r="JM15" s="42"/>
+      <c r="JN15" s="42"/>
+      <c r="JO15" s="42"/>
+      <c r="JP15" s="42"/>
+      <c r="JQ15" s="42"/>
+      <c r="JR15" s="42"/>
+      <c r="JS15" s="42"/>
+      <c r="JT15" s="42"/>
+      <c r="JU15" s="42"/>
     </row>
-    <row r="16" spans="1:103" s="23" customFormat="1" ht="12.75">
+    <row r="16" spans="1:281" s="23" customFormat="1" ht="12.75">
       <c r="A16" s="21">
         <v>9</v>
       </c>
@@ -3064,8 +5734,186 @@
       <c r="CW16" s="42"/>
       <c r="CX16" s="42"/>
       <c r="CY16" s="42"/>
+      <c r="CZ16" s="42"/>
+      <c r="DA16" s="42"/>
+      <c r="DB16" s="42"/>
+      <c r="DC16" s="42"/>
+      <c r="DD16" s="42"/>
+      <c r="DE16" s="42"/>
+      <c r="DF16" s="42"/>
+      <c r="DG16" s="42"/>
+      <c r="DH16" s="42"/>
+      <c r="DI16" s="42"/>
+      <c r="DJ16" s="42"/>
+      <c r="DK16" s="42"/>
+      <c r="DL16" s="42"/>
+      <c r="DM16" s="42"/>
+      <c r="DN16" s="42"/>
+      <c r="DO16" s="42"/>
+      <c r="DP16" s="42"/>
+      <c r="DQ16" s="42"/>
+      <c r="DR16" s="42"/>
+      <c r="DS16" s="42"/>
+      <c r="DT16" s="42"/>
+      <c r="DU16" s="42"/>
+      <c r="DV16" s="42"/>
+      <c r="DW16" s="42"/>
+      <c r="DX16" s="42"/>
+      <c r="DY16" s="42"/>
+      <c r="DZ16" s="42"/>
+      <c r="EA16" s="42"/>
+      <c r="EB16" s="42"/>
+      <c r="EC16" s="42"/>
+      <c r="ED16" s="42"/>
+      <c r="EE16" s="42"/>
+      <c r="EF16" s="42"/>
+      <c r="EG16" s="42"/>
+      <c r="EH16" s="42"/>
+      <c r="EI16" s="42"/>
+      <c r="EJ16" s="42"/>
+      <c r="EK16" s="42"/>
+      <c r="EL16" s="42"/>
+      <c r="EM16" s="42"/>
+      <c r="EN16" s="42"/>
+      <c r="EO16" s="42"/>
+      <c r="EP16" s="42"/>
+      <c r="EQ16" s="42"/>
+      <c r="ER16" s="42"/>
+      <c r="ES16" s="42"/>
+      <c r="ET16" s="42"/>
+      <c r="EU16" s="42"/>
+      <c r="EV16" s="42"/>
+      <c r="EW16" s="42"/>
+      <c r="EX16" s="42"/>
+      <c r="EY16" s="42"/>
+      <c r="EZ16" s="42"/>
+      <c r="FA16" s="42"/>
+      <c r="FB16" s="42"/>
+      <c r="FC16" s="42"/>
+      <c r="FD16" s="42"/>
+      <c r="FE16" s="42"/>
+      <c r="FF16" s="42"/>
+      <c r="FG16" s="42"/>
+      <c r="FH16" s="42"/>
+      <c r="FI16" s="42"/>
+      <c r="FJ16" s="42"/>
+      <c r="FK16" s="42"/>
+      <c r="FL16" s="42"/>
+      <c r="FM16" s="42"/>
+      <c r="FN16" s="42"/>
+      <c r="FO16" s="42"/>
+      <c r="FP16" s="42"/>
+      <c r="FQ16" s="42"/>
+      <c r="FR16" s="42"/>
+      <c r="FS16" s="42"/>
+      <c r="FT16" s="42"/>
+      <c r="FU16" s="42"/>
+      <c r="FV16" s="42"/>
+      <c r="FW16" s="42"/>
+      <c r="FX16" s="42"/>
+      <c r="FY16" s="42"/>
+      <c r="FZ16" s="42"/>
+      <c r="GA16" s="42"/>
+      <c r="GB16" s="42"/>
+      <c r="GC16" s="42"/>
+      <c r="GD16" s="42"/>
+      <c r="GE16" s="42"/>
+      <c r="GF16" s="42"/>
+      <c r="GG16" s="42"/>
+      <c r="GH16" s="42"/>
+      <c r="GI16" s="42"/>
+      <c r="GJ16" s="42"/>
+      <c r="GK16" s="42"/>
+      <c r="GL16" s="42"/>
+      <c r="GM16" s="42"/>
+      <c r="GN16" s="42"/>
+      <c r="GO16" s="42"/>
+      <c r="GP16" s="42"/>
+      <c r="GQ16" s="42"/>
+      <c r="GR16" s="42"/>
+      <c r="GS16" s="42"/>
+      <c r="GT16" s="42"/>
+      <c r="GU16" s="42"/>
+      <c r="GV16" s="42"/>
+      <c r="GW16" s="42"/>
+      <c r="GX16" s="42"/>
+      <c r="GY16" s="42"/>
+      <c r="GZ16" s="42"/>
+      <c r="HA16" s="42"/>
+      <c r="HB16" s="42"/>
+      <c r="HC16" s="42"/>
+      <c r="HD16" s="42"/>
+      <c r="HE16" s="42"/>
+      <c r="HF16" s="42"/>
+      <c r="HG16" s="42"/>
+      <c r="HH16" s="42"/>
+      <c r="HI16" s="42"/>
+      <c r="HJ16" s="42"/>
+      <c r="HK16" s="42"/>
+      <c r="HL16" s="42"/>
+      <c r="HM16" s="42"/>
+      <c r="HN16" s="42"/>
+      <c r="HO16" s="42"/>
+      <c r="HP16" s="42"/>
+      <c r="HQ16" s="42"/>
+      <c r="HR16" s="42"/>
+      <c r="HS16" s="42"/>
+      <c r="HT16" s="42"/>
+      <c r="HU16" s="42"/>
+      <c r="HV16" s="42"/>
+      <c r="HW16" s="42"/>
+      <c r="HX16" s="42"/>
+      <c r="HY16" s="42"/>
+      <c r="HZ16" s="42"/>
+      <c r="IA16" s="42"/>
+      <c r="IB16" s="42"/>
+      <c r="IC16" s="42"/>
+      <c r="ID16" s="42"/>
+      <c r="IE16" s="42"/>
+      <c r="IF16" s="42"/>
+      <c r="IG16" s="42"/>
+      <c r="IH16" s="42"/>
+      <c r="II16" s="42"/>
+      <c r="IJ16" s="42"/>
+      <c r="IK16" s="42"/>
+      <c r="IL16" s="42"/>
+      <c r="IM16" s="42"/>
+      <c r="IN16" s="42"/>
+      <c r="IO16" s="42"/>
+      <c r="IP16" s="42"/>
+      <c r="IQ16" s="42"/>
+      <c r="IR16" s="42"/>
+      <c r="IS16" s="42"/>
+      <c r="IT16" s="42"/>
+      <c r="IU16" s="42"/>
+      <c r="IV16" s="42"/>
+      <c r="IW16" s="42"/>
+      <c r="IX16" s="42"/>
+      <c r="IY16" s="42"/>
+      <c r="IZ16" s="42"/>
+      <c r="JA16" s="42"/>
+      <c r="JB16" s="42"/>
+      <c r="JC16" s="42"/>
+      <c r="JD16" s="42"/>
+      <c r="JE16" s="42"/>
+      <c r="JF16" s="42"/>
+      <c r="JG16" s="42"/>
+      <c r="JH16" s="42"/>
+      <c r="JI16" s="42"/>
+      <c r="JJ16" s="42"/>
+      <c r="JK16" s="42"/>
+      <c r="JL16" s="42"/>
+      <c r="JM16" s="42"/>
+      <c r="JN16" s="42"/>
+      <c r="JO16" s="42"/>
+      <c r="JP16" s="42"/>
+      <c r="JQ16" s="42"/>
+      <c r="JR16" s="42"/>
+      <c r="JS16" s="42"/>
+      <c r="JT16" s="42"/>
+      <c r="JU16" s="42"/>
     </row>
-    <row r="17" spans="1:103" ht="12.75">
+    <row r="17" spans="1:281" ht="12.75">
       <c r="A17" s="9">
         <v>10</v>
       </c>
@@ -3197,8 +6045,186 @@
       <c r="CW17" s="42"/>
       <c r="CX17" s="42"/>
       <c r="CY17" s="42"/>
+      <c r="CZ17" s="42"/>
+      <c r="DA17" s="42"/>
+      <c r="DB17" s="42"/>
+      <c r="DC17" s="42"/>
+      <c r="DD17" s="42"/>
+      <c r="DE17" s="42"/>
+      <c r="DF17" s="42"/>
+      <c r="DG17" s="42"/>
+      <c r="DH17" s="42"/>
+      <c r="DI17" s="42"/>
+      <c r="DJ17" s="42"/>
+      <c r="DK17" s="42"/>
+      <c r="DL17" s="42"/>
+      <c r="DM17" s="42"/>
+      <c r="DN17" s="42"/>
+      <c r="DO17" s="42"/>
+      <c r="DP17" s="42"/>
+      <c r="DQ17" s="42"/>
+      <c r="DR17" s="42"/>
+      <c r="DS17" s="42"/>
+      <c r="DT17" s="42"/>
+      <c r="DU17" s="42"/>
+      <c r="DV17" s="42"/>
+      <c r="DW17" s="42"/>
+      <c r="DX17" s="42"/>
+      <c r="DY17" s="42"/>
+      <c r="DZ17" s="42"/>
+      <c r="EA17" s="42"/>
+      <c r="EB17" s="42"/>
+      <c r="EC17" s="42"/>
+      <c r="ED17" s="42"/>
+      <c r="EE17" s="42"/>
+      <c r="EF17" s="42"/>
+      <c r="EG17" s="42"/>
+      <c r="EH17" s="42"/>
+      <c r="EI17" s="42"/>
+      <c r="EJ17" s="42"/>
+      <c r="EK17" s="42"/>
+      <c r="EL17" s="42"/>
+      <c r="EM17" s="42"/>
+      <c r="EN17" s="42"/>
+      <c r="EO17" s="42"/>
+      <c r="EP17" s="42"/>
+      <c r="EQ17" s="42"/>
+      <c r="ER17" s="42"/>
+      <c r="ES17" s="42"/>
+      <c r="ET17" s="42"/>
+      <c r="EU17" s="42"/>
+      <c r="EV17" s="42"/>
+      <c r="EW17" s="42"/>
+      <c r="EX17" s="42"/>
+      <c r="EY17" s="42"/>
+      <c r="EZ17" s="42"/>
+      <c r="FA17" s="42"/>
+      <c r="FB17" s="42"/>
+      <c r="FC17" s="42"/>
+      <c r="FD17" s="42"/>
+      <c r="FE17" s="42"/>
+      <c r="FF17" s="42"/>
+      <c r="FG17" s="42"/>
+      <c r="FH17" s="42"/>
+      <c r="FI17" s="42"/>
+      <c r="FJ17" s="42"/>
+      <c r="FK17" s="42"/>
+      <c r="FL17" s="42"/>
+      <c r="FM17" s="42"/>
+      <c r="FN17" s="42"/>
+      <c r="FO17" s="42"/>
+      <c r="FP17" s="42"/>
+      <c r="FQ17" s="42"/>
+      <c r="FR17" s="42"/>
+      <c r="FS17" s="42"/>
+      <c r="FT17" s="42"/>
+      <c r="FU17" s="42"/>
+      <c r="FV17" s="42"/>
+      <c r="FW17" s="42"/>
+      <c r="FX17" s="42"/>
+      <c r="FY17" s="42"/>
+      <c r="FZ17" s="42"/>
+      <c r="GA17" s="42"/>
+      <c r="GB17" s="42"/>
+      <c r="GC17" s="42"/>
+      <c r="GD17" s="42"/>
+      <c r="GE17" s="42"/>
+      <c r="GF17" s="42"/>
+      <c r="GG17" s="42"/>
+      <c r="GH17" s="42"/>
+      <c r="GI17" s="42"/>
+      <c r="GJ17" s="42"/>
+      <c r="GK17" s="42"/>
+      <c r="GL17" s="42"/>
+      <c r="GM17" s="42"/>
+      <c r="GN17" s="42"/>
+      <c r="GO17" s="42"/>
+      <c r="GP17" s="42"/>
+      <c r="GQ17" s="42"/>
+      <c r="GR17" s="42"/>
+      <c r="GS17" s="42"/>
+      <c r="GT17" s="42"/>
+      <c r="GU17" s="42"/>
+      <c r="GV17" s="42"/>
+      <c r="GW17" s="42"/>
+      <c r="GX17" s="42"/>
+      <c r="GY17" s="42"/>
+      <c r="GZ17" s="42"/>
+      <c r="HA17" s="42"/>
+      <c r="HB17" s="42"/>
+      <c r="HC17" s="42"/>
+      <c r="HD17" s="42"/>
+      <c r="HE17" s="42"/>
+      <c r="HF17" s="42"/>
+      <c r="HG17" s="42"/>
+      <c r="HH17" s="42"/>
+      <c r="HI17" s="42"/>
+      <c r="HJ17" s="42"/>
+      <c r="HK17" s="42"/>
+      <c r="HL17" s="42"/>
+      <c r="HM17" s="42"/>
+      <c r="HN17" s="42"/>
+      <c r="HO17" s="42"/>
+      <c r="HP17" s="42"/>
+      <c r="HQ17" s="42"/>
+      <c r="HR17" s="42"/>
+      <c r="HS17" s="42"/>
+      <c r="HT17" s="42"/>
+      <c r="HU17" s="42"/>
+      <c r="HV17" s="42"/>
+      <c r="HW17" s="42"/>
+      <c r="HX17" s="42"/>
+      <c r="HY17" s="42"/>
+      <c r="HZ17" s="42"/>
+      <c r="IA17" s="42"/>
+      <c r="IB17" s="42"/>
+      <c r="IC17" s="42"/>
+      <c r="ID17" s="42"/>
+      <c r="IE17" s="42"/>
+      <c r="IF17" s="42"/>
+      <c r="IG17" s="42"/>
+      <c r="IH17" s="42"/>
+      <c r="II17" s="42"/>
+      <c r="IJ17" s="42"/>
+      <c r="IK17" s="42"/>
+      <c r="IL17" s="42"/>
+      <c r="IM17" s="42"/>
+      <c r="IN17" s="42"/>
+      <c r="IO17" s="42"/>
+      <c r="IP17" s="42"/>
+      <c r="IQ17" s="42"/>
+      <c r="IR17" s="42"/>
+      <c r="IS17" s="42"/>
+      <c r="IT17" s="42"/>
+      <c r="IU17" s="42"/>
+      <c r="IV17" s="42"/>
+      <c r="IW17" s="42"/>
+      <c r="IX17" s="42"/>
+      <c r="IY17" s="42"/>
+      <c r="IZ17" s="42"/>
+      <c r="JA17" s="42"/>
+      <c r="JB17" s="42"/>
+      <c r="JC17" s="42"/>
+      <c r="JD17" s="42"/>
+      <c r="JE17" s="42"/>
+      <c r="JF17" s="42"/>
+      <c r="JG17" s="42"/>
+      <c r="JH17" s="42"/>
+      <c r="JI17" s="42"/>
+      <c r="JJ17" s="42"/>
+      <c r="JK17" s="42"/>
+      <c r="JL17" s="42"/>
+      <c r="JM17" s="42"/>
+      <c r="JN17" s="42"/>
+      <c r="JO17" s="42"/>
+      <c r="JP17" s="42"/>
+      <c r="JQ17" s="42"/>
+      <c r="JR17" s="42"/>
+      <c r="JS17" s="42"/>
+      <c r="JT17" s="42"/>
+      <c r="JU17" s="42"/>
     </row>
-    <row r="18" spans="1:103" ht="12.75">
+    <row r="18" spans="1:281" ht="12.75">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -3330,8 +6356,186 @@
       <c r="CW18" s="42"/>
       <c r="CX18" s="42"/>
       <c r="CY18" s="42"/>
+      <c r="CZ18" s="42"/>
+      <c r="DA18" s="42"/>
+      <c r="DB18" s="42"/>
+      <c r="DC18" s="42"/>
+      <c r="DD18" s="42"/>
+      <c r="DE18" s="42"/>
+      <c r="DF18" s="42"/>
+      <c r="DG18" s="42"/>
+      <c r="DH18" s="42"/>
+      <c r="DI18" s="42"/>
+      <c r="DJ18" s="42"/>
+      <c r="DK18" s="42"/>
+      <c r="DL18" s="42"/>
+      <c r="DM18" s="42"/>
+      <c r="DN18" s="42"/>
+      <c r="DO18" s="42"/>
+      <c r="DP18" s="42"/>
+      <c r="DQ18" s="42"/>
+      <c r="DR18" s="42"/>
+      <c r="DS18" s="42"/>
+      <c r="DT18" s="42"/>
+      <c r="DU18" s="42"/>
+      <c r="DV18" s="42"/>
+      <c r="DW18" s="42"/>
+      <c r="DX18" s="42"/>
+      <c r="DY18" s="42"/>
+      <c r="DZ18" s="42"/>
+      <c r="EA18" s="42"/>
+      <c r="EB18" s="42"/>
+      <c r="EC18" s="42"/>
+      <c r="ED18" s="42"/>
+      <c r="EE18" s="42"/>
+      <c r="EF18" s="42"/>
+      <c r="EG18" s="42"/>
+      <c r="EH18" s="42"/>
+      <c r="EI18" s="42"/>
+      <c r="EJ18" s="42"/>
+      <c r="EK18" s="42"/>
+      <c r="EL18" s="42"/>
+      <c r="EM18" s="42"/>
+      <c r="EN18" s="42"/>
+      <c r="EO18" s="42"/>
+      <c r="EP18" s="42"/>
+      <c r="EQ18" s="42"/>
+      <c r="ER18" s="42"/>
+      <c r="ES18" s="42"/>
+      <c r="ET18" s="42"/>
+      <c r="EU18" s="42"/>
+      <c r="EV18" s="42"/>
+      <c r="EW18" s="42"/>
+      <c r="EX18" s="42"/>
+      <c r="EY18" s="42"/>
+      <c r="EZ18" s="42"/>
+      <c r="FA18" s="42"/>
+      <c r="FB18" s="42"/>
+      <c r="FC18" s="42"/>
+      <c r="FD18" s="42"/>
+      <c r="FE18" s="42"/>
+      <c r="FF18" s="42"/>
+      <c r="FG18" s="42"/>
+      <c r="FH18" s="42"/>
+      <c r="FI18" s="42"/>
+      <c r="FJ18" s="42"/>
+      <c r="FK18" s="42"/>
+      <c r="FL18" s="42"/>
+      <c r="FM18" s="42"/>
+      <c r="FN18" s="42"/>
+      <c r="FO18" s="42"/>
+      <c r="FP18" s="42"/>
+      <c r="FQ18" s="42"/>
+      <c r="FR18" s="42"/>
+      <c r="FS18" s="42"/>
+      <c r="FT18" s="42"/>
+      <c r="FU18" s="42"/>
+      <c r="FV18" s="42"/>
+      <c r="FW18" s="42"/>
+      <c r="FX18" s="42"/>
+      <c r="FY18" s="42"/>
+      <c r="FZ18" s="42"/>
+      <c r="GA18" s="42"/>
+      <c r="GB18" s="42"/>
+      <c r="GC18" s="42"/>
+      <c r="GD18" s="42"/>
+      <c r="GE18" s="42"/>
+      <c r="GF18" s="42"/>
+      <c r="GG18" s="42"/>
+      <c r="GH18" s="42"/>
+      <c r="GI18" s="42"/>
+      <c r="GJ18" s="42"/>
+      <c r="GK18" s="42"/>
+      <c r="GL18" s="42"/>
+      <c r="GM18" s="42"/>
+      <c r="GN18" s="42"/>
+      <c r="GO18" s="42"/>
+      <c r="GP18" s="42"/>
+      <c r="GQ18" s="42"/>
+      <c r="GR18" s="42"/>
+      <c r="GS18" s="42"/>
+      <c r="GT18" s="42"/>
+      <c r="GU18" s="42"/>
+      <c r="GV18" s="42"/>
+      <c r="GW18" s="42"/>
+      <c r="GX18" s="42"/>
+      <c r="GY18" s="42"/>
+      <c r="GZ18" s="42"/>
+      <c r="HA18" s="42"/>
+      <c r="HB18" s="42"/>
+      <c r="HC18" s="42"/>
+      <c r="HD18" s="42"/>
+      <c r="HE18" s="42"/>
+      <c r="HF18" s="42"/>
+      <c r="HG18" s="42"/>
+      <c r="HH18" s="42"/>
+      <c r="HI18" s="42"/>
+      <c r="HJ18" s="42"/>
+      <c r="HK18" s="42"/>
+      <c r="HL18" s="42"/>
+      <c r="HM18" s="42"/>
+      <c r="HN18" s="42"/>
+      <c r="HO18" s="42"/>
+      <c r="HP18" s="42"/>
+      <c r="HQ18" s="42"/>
+      <c r="HR18" s="42"/>
+      <c r="HS18" s="42"/>
+      <c r="HT18" s="42"/>
+      <c r="HU18" s="42"/>
+      <c r="HV18" s="42"/>
+      <c r="HW18" s="42"/>
+      <c r="HX18" s="42"/>
+      <c r="HY18" s="42"/>
+      <c r="HZ18" s="42"/>
+      <c r="IA18" s="42"/>
+      <c r="IB18" s="42"/>
+      <c r="IC18" s="42"/>
+      <c r="ID18" s="42"/>
+      <c r="IE18" s="42"/>
+      <c r="IF18" s="42"/>
+      <c r="IG18" s="42"/>
+      <c r="IH18" s="42"/>
+      <c r="II18" s="42"/>
+      <c r="IJ18" s="42"/>
+      <c r="IK18" s="42"/>
+      <c r="IL18" s="42"/>
+      <c r="IM18" s="42"/>
+      <c r="IN18" s="42"/>
+      <c r="IO18" s="42"/>
+      <c r="IP18" s="42"/>
+      <c r="IQ18" s="42"/>
+      <c r="IR18" s="42"/>
+      <c r="IS18" s="42"/>
+      <c r="IT18" s="42"/>
+      <c r="IU18" s="42"/>
+      <c r="IV18" s="42"/>
+      <c r="IW18" s="42"/>
+      <c r="IX18" s="42"/>
+      <c r="IY18" s="42"/>
+      <c r="IZ18" s="42"/>
+      <c r="JA18" s="42"/>
+      <c r="JB18" s="42"/>
+      <c r="JC18" s="42"/>
+      <c r="JD18" s="42"/>
+      <c r="JE18" s="42"/>
+      <c r="JF18" s="42"/>
+      <c r="JG18" s="42"/>
+      <c r="JH18" s="42"/>
+      <c r="JI18" s="42"/>
+      <c r="JJ18" s="42"/>
+      <c r="JK18" s="42"/>
+      <c r="JL18" s="42"/>
+      <c r="JM18" s="42"/>
+      <c r="JN18" s="42"/>
+      <c r="JO18" s="42"/>
+      <c r="JP18" s="42"/>
+      <c r="JQ18" s="42"/>
+      <c r="JR18" s="42"/>
+      <c r="JS18" s="42"/>
+      <c r="JT18" s="42"/>
+      <c r="JU18" s="42"/>
     </row>
-    <row r="19" spans="1:103" ht="12.75">
+    <row r="19" spans="1:281" ht="12.75">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -3463,8 +6667,186 @@
       <c r="CW19" s="42"/>
       <c r="CX19" s="42"/>
       <c r="CY19" s="42"/>
+      <c r="CZ19" s="42"/>
+      <c r="DA19" s="42"/>
+      <c r="DB19" s="42"/>
+      <c r="DC19" s="42"/>
+      <c r="DD19" s="42"/>
+      <c r="DE19" s="42"/>
+      <c r="DF19" s="42"/>
+      <c r="DG19" s="42"/>
+      <c r="DH19" s="42"/>
+      <c r="DI19" s="42"/>
+      <c r="DJ19" s="42"/>
+      <c r="DK19" s="42"/>
+      <c r="DL19" s="42"/>
+      <c r="DM19" s="42"/>
+      <c r="DN19" s="42"/>
+      <c r="DO19" s="42"/>
+      <c r="DP19" s="42"/>
+      <c r="DQ19" s="42"/>
+      <c r="DR19" s="42"/>
+      <c r="DS19" s="42"/>
+      <c r="DT19" s="42"/>
+      <c r="DU19" s="42"/>
+      <c r="DV19" s="42"/>
+      <c r="DW19" s="42"/>
+      <c r="DX19" s="42"/>
+      <c r="DY19" s="42"/>
+      <c r="DZ19" s="42"/>
+      <c r="EA19" s="42"/>
+      <c r="EB19" s="42"/>
+      <c r="EC19" s="42"/>
+      <c r="ED19" s="42"/>
+      <c r="EE19" s="42"/>
+      <c r="EF19" s="42"/>
+      <c r="EG19" s="42"/>
+      <c r="EH19" s="42"/>
+      <c r="EI19" s="42"/>
+      <c r="EJ19" s="42"/>
+      <c r="EK19" s="42"/>
+      <c r="EL19" s="42"/>
+      <c r="EM19" s="42"/>
+      <c r="EN19" s="42"/>
+      <c r="EO19" s="42"/>
+      <c r="EP19" s="42"/>
+      <c r="EQ19" s="42"/>
+      <c r="ER19" s="42"/>
+      <c r="ES19" s="42"/>
+      <c r="ET19" s="42"/>
+      <c r="EU19" s="42"/>
+      <c r="EV19" s="42"/>
+      <c r="EW19" s="42"/>
+      <c r="EX19" s="42"/>
+      <c r="EY19" s="42"/>
+      <c r="EZ19" s="42"/>
+      <c r="FA19" s="42"/>
+      <c r="FB19" s="42"/>
+      <c r="FC19" s="42"/>
+      <c r="FD19" s="42"/>
+      <c r="FE19" s="42"/>
+      <c r="FF19" s="42"/>
+      <c r="FG19" s="42"/>
+      <c r="FH19" s="42"/>
+      <c r="FI19" s="42"/>
+      <c r="FJ19" s="42"/>
+      <c r="FK19" s="42"/>
+      <c r="FL19" s="42"/>
+      <c r="FM19" s="42"/>
+      <c r="FN19" s="42"/>
+      <c r="FO19" s="42"/>
+      <c r="FP19" s="42"/>
+      <c r="FQ19" s="42"/>
+      <c r="FR19" s="42"/>
+      <c r="FS19" s="42"/>
+      <c r="FT19" s="42"/>
+      <c r="FU19" s="42"/>
+      <c r="FV19" s="42"/>
+      <c r="FW19" s="42"/>
+      <c r="FX19" s="42"/>
+      <c r="FY19" s="42"/>
+      <c r="FZ19" s="42"/>
+      <c r="GA19" s="42"/>
+      <c r="GB19" s="42"/>
+      <c r="GC19" s="42"/>
+      <c r="GD19" s="42"/>
+      <c r="GE19" s="42"/>
+      <c r="GF19" s="42"/>
+      <c r="GG19" s="42"/>
+      <c r="GH19" s="42"/>
+      <c r="GI19" s="42"/>
+      <c r="GJ19" s="42"/>
+      <c r="GK19" s="42"/>
+      <c r="GL19" s="42"/>
+      <c r="GM19" s="42"/>
+      <c r="GN19" s="42"/>
+      <c r="GO19" s="42"/>
+      <c r="GP19" s="42"/>
+      <c r="GQ19" s="42"/>
+      <c r="GR19" s="42"/>
+      <c r="GS19" s="42"/>
+      <c r="GT19" s="42"/>
+      <c r="GU19" s="42"/>
+      <c r="GV19" s="42"/>
+      <c r="GW19" s="42"/>
+      <c r="GX19" s="42"/>
+      <c r="GY19" s="42"/>
+      <c r="GZ19" s="42"/>
+      <c r="HA19" s="42"/>
+      <c r="HB19" s="42"/>
+      <c r="HC19" s="42"/>
+      <c r="HD19" s="42"/>
+      <c r="HE19" s="42"/>
+      <c r="HF19" s="42"/>
+      <c r="HG19" s="42"/>
+      <c r="HH19" s="42"/>
+      <c r="HI19" s="42"/>
+      <c r="HJ19" s="42"/>
+      <c r="HK19" s="42"/>
+      <c r="HL19" s="42"/>
+      <c r="HM19" s="42"/>
+      <c r="HN19" s="42"/>
+      <c r="HO19" s="42"/>
+      <c r="HP19" s="42"/>
+      <c r="HQ19" s="42"/>
+      <c r="HR19" s="42"/>
+      <c r="HS19" s="42"/>
+      <c r="HT19" s="42"/>
+      <c r="HU19" s="42"/>
+      <c r="HV19" s="42"/>
+      <c r="HW19" s="42"/>
+      <c r="HX19" s="42"/>
+      <c r="HY19" s="42"/>
+      <c r="HZ19" s="42"/>
+      <c r="IA19" s="42"/>
+      <c r="IB19" s="42"/>
+      <c r="IC19" s="42"/>
+      <c r="ID19" s="42"/>
+      <c r="IE19" s="42"/>
+      <c r="IF19" s="42"/>
+      <c r="IG19" s="42"/>
+      <c r="IH19" s="42"/>
+      <c r="II19" s="42"/>
+      <c r="IJ19" s="42"/>
+      <c r="IK19" s="42"/>
+      <c r="IL19" s="42"/>
+      <c r="IM19" s="42"/>
+      <c r="IN19" s="42"/>
+      <c r="IO19" s="42"/>
+      <c r="IP19" s="42"/>
+      <c r="IQ19" s="42"/>
+      <c r="IR19" s="42"/>
+      <c r="IS19" s="42"/>
+      <c r="IT19" s="42"/>
+      <c r="IU19" s="42"/>
+      <c r="IV19" s="42"/>
+      <c r="IW19" s="42"/>
+      <c r="IX19" s="42"/>
+      <c r="IY19" s="42"/>
+      <c r="IZ19" s="42"/>
+      <c r="JA19" s="42"/>
+      <c r="JB19" s="42"/>
+      <c r="JC19" s="42"/>
+      <c r="JD19" s="42"/>
+      <c r="JE19" s="42"/>
+      <c r="JF19" s="42"/>
+      <c r="JG19" s="42"/>
+      <c r="JH19" s="42"/>
+      <c r="JI19" s="42"/>
+      <c r="JJ19" s="42"/>
+      <c r="JK19" s="42"/>
+      <c r="JL19" s="42"/>
+      <c r="JM19" s="42"/>
+      <c r="JN19" s="42"/>
+      <c r="JO19" s="42"/>
+      <c r="JP19" s="42"/>
+      <c r="JQ19" s="42"/>
+      <c r="JR19" s="42"/>
+      <c r="JS19" s="42"/>
+      <c r="JT19" s="42"/>
+      <c r="JU19" s="42"/>
     </row>
-    <row r="20" spans="1:103" ht="12.75">
+    <row r="20" spans="1:281" ht="12.75">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -3596,8 +6978,186 @@
       <c r="CW20" s="42"/>
       <c r="CX20" s="42"/>
       <c r="CY20" s="42"/>
+      <c r="CZ20" s="42"/>
+      <c r="DA20" s="42"/>
+      <c r="DB20" s="42"/>
+      <c r="DC20" s="42"/>
+      <c r="DD20" s="42"/>
+      <c r="DE20" s="42"/>
+      <c r="DF20" s="42"/>
+      <c r="DG20" s="42"/>
+      <c r="DH20" s="42"/>
+      <c r="DI20" s="42"/>
+      <c r="DJ20" s="42"/>
+      <c r="DK20" s="42"/>
+      <c r="DL20" s="42"/>
+      <c r="DM20" s="42"/>
+      <c r="DN20" s="42"/>
+      <c r="DO20" s="42"/>
+      <c r="DP20" s="42"/>
+      <c r="DQ20" s="42"/>
+      <c r="DR20" s="42"/>
+      <c r="DS20" s="42"/>
+      <c r="DT20" s="42"/>
+      <c r="DU20" s="42"/>
+      <c r="DV20" s="42"/>
+      <c r="DW20" s="42"/>
+      <c r="DX20" s="42"/>
+      <c r="DY20" s="42"/>
+      <c r="DZ20" s="42"/>
+      <c r="EA20" s="42"/>
+      <c r="EB20" s="42"/>
+      <c r="EC20" s="42"/>
+      <c r="ED20" s="42"/>
+      <c r="EE20" s="42"/>
+      <c r="EF20" s="42"/>
+      <c r="EG20" s="42"/>
+      <c r="EH20" s="42"/>
+      <c r="EI20" s="42"/>
+      <c r="EJ20" s="42"/>
+      <c r="EK20" s="42"/>
+      <c r="EL20" s="42"/>
+      <c r="EM20" s="42"/>
+      <c r="EN20" s="42"/>
+      <c r="EO20" s="42"/>
+      <c r="EP20" s="42"/>
+      <c r="EQ20" s="42"/>
+      <c r="ER20" s="42"/>
+      <c r="ES20" s="42"/>
+      <c r="ET20" s="42"/>
+      <c r="EU20" s="42"/>
+      <c r="EV20" s="42"/>
+      <c r="EW20" s="42"/>
+      <c r="EX20" s="42"/>
+      <c r="EY20" s="42"/>
+      <c r="EZ20" s="42"/>
+      <c r="FA20" s="42"/>
+      <c r="FB20" s="42"/>
+      <c r="FC20" s="42"/>
+      <c r="FD20" s="42"/>
+      <c r="FE20" s="42"/>
+      <c r="FF20" s="42"/>
+      <c r="FG20" s="42"/>
+      <c r="FH20" s="42"/>
+      <c r="FI20" s="42"/>
+      <c r="FJ20" s="42"/>
+      <c r="FK20" s="42"/>
+      <c r="FL20" s="42"/>
+      <c r="FM20" s="42"/>
+      <c r="FN20" s="42"/>
+      <c r="FO20" s="42"/>
+      <c r="FP20" s="42"/>
+      <c r="FQ20" s="42"/>
+      <c r="FR20" s="42"/>
+      <c r="FS20" s="42"/>
+      <c r="FT20" s="42"/>
+      <c r="FU20" s="42"/>
+      <c r="FV20" s="42"/>
+      <c r="FW20" s="42"/>
+      <c r="FX20" s="42"/>
+      <c r="FY20" s="42"/>
+      <c r="FZ20" s="42"/>
+      <c r="GA20" s="42"/>
+      <c r="GB20" s="42"/>
+      <c r="GC20" s="42"/>
+      <c r="GD20" s="42"/>
+      <c r="GE20" s="42"/>
+      <c r="GF20" s="42"/>
+      <c r="GG20" s="42"/>
+      <c r="GH20" s="42"/>
+      <c r="GI20" s="42"/>
+      <c r="GJ20" s="42"/>
+      <c r="GK20" s="42"/>
+      <c r="GL20" s="42"/>
+      <c r="GM20" s="42"/>
+      <c r="GN20" s="42"/>
+      <c r="GO20" s="42"/>
+      <c r="GP20" s="42"/>
+      <c r="GQ20" s="42"/>
+      <c r="GR20" s="42"/>
+      <c r="GS20" s="42"/>
+      <c r="GT20" s="42"/>
+      <c r="GU20" s="42"/>
+      <c r="GV20" s="42"/>
+      <c r="GW20" s="42"/>
+      <c r="GX20" s="42"/>
+      <c r="GY20" s="42"/>
+      <c r="GZ20" s="42"/>
+      <c r="HA20" s="42"/>
+      <c r="HB20" s="42"/>
+      <c r="HC20" s="42"/>
+      <c r="HD20" s="42"/>
+      <c r="HE20" s="42"/>
+      <c r="HF20" s="42"/>
+      <c r="HG20" s="42"/>
+      <c r="HH20" s="42"/>
+      <c r="HI20" s="42"/>
+      <c r="HJ20" s="42"/>
+      <c r="HK20" s="42"/>
+      <c r="HL20" s="42"/>
+      <c r="HM20" s="42"/>
+      <c r="HN20" s="42"/>
+      <c r="HO20" s="42"/>
+      <c r="HP20" s="42"/>
+      <c r="HQ20" s="42"/>
+      <c r="HR20" s="42"/>
+      <c r="HS20" s="42"/>
+      <c r="HT20" s="42"/>
+      <c r="HU20" s="42"/>
+      <c r="HV20" s="42"/>
+      <c r="HW20" s="42"/>
+      <c r="HX20" s="42"/>
+      <c r="HY20" s="42"/>
+      <c r="HZ20" s="42"/>
+      <c r="IA20" s="42"/>
+      <c r="IB20" s="42"/>
+      <c r="IC20" s="42"/>
+      <c r="ID20" s="42"/>
+      <c r="IE20" s="42"/>
+      <c r="IF20" s="42"/>
+      <c r="IG20" s="42"/>
+      <c r="IH20" s="42"/>
+      <c r="II20" s="42"/>
+      <c r="IJ20" s="42"/>
+      <c r="IK20" s="42"/>
+      <c r="IL20" s="42"/>
+      <c r="IM20" s="42"/>
+      <c r="IN20" s="42"/>
+      <c r="IO20" s="42"/>
+      <c r="IP20" s="42"/>
+      <c r="IQ20" s="42"/>
+      <c r="IR20" s="42"/>
+      <c r="IS20" s="42"/>
+      <c r="IT20" s="42"/>
+      <c r="IU20" s="42"/>
+      <c r="IV20" s="42"/>
+      <c r="IW20" s="42"/>
+      <c r="IX20" s="42"/>
+      <c r="IY20" s="42"/>
+      <c r="IZ20" s="42"/>
+      <c r="JA20" s="42"/>
+      <c r="JB20" s="42"/>
+      <c r="JC20" s="42"/>
+      <c r="JD20" s="42"/>
+      <c r="JE20" s="42"/>
+      <c r="JF20" s="42"/>
+      <c r="JG20" s="42"/>
+      <c r="JH20" s="42"/>
+      <c r="JI20" s="42"/>
+      <c r="JJ20" s="42"/>
+      <c r="JK20" s="42"/>
+      <c r="JL20" s="42"/>
+      <c r="JM20" s="42"/>
+      <c r="JN20" s="42"/>
+      <c r="JO20" s="42"/>
+      <c r="JP20" s="42"/>
+      <c r="JQ20" s="42"/>
+      <c r="JR20" s="42"/>
+      <c r="JS20" s="42"/>
+      <c r="JT20" s="42"/>
+      <c r="JU20" s="42"/>
     </row>
-    <row r="21" spans="1:103" ht="12.75">
+    <row r="21" spans="1:281" ht="12.75">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -3729,8 +7289,186 @@
       <c r="CW21" s="42"/>
       <c r="CX21" s="42"/>
       <c r="CY21" s="42"/>
+      <c r="CZ21" s="42"/>
+      <c r="DA21" s="42"/>
+      <c r="DB21" s="42"/>
+      <c r="DC21" s="42"/>
+      <c r="DD21" s="42"/>
+      <c r="DE21" s="42"/>
+      <c r="DF21" s="42"/>
+      <c r="DG21" s="42"/>
+      <c r="DH21" s="42"/>
+      <c r="DI21" s="42"/>
+      <c r="DJ21" s="42"/>
+      <c r="DK21" s="42"/>
+      <c r="DL21" s="42"/>
+      <c r="DM21" s="42"/>
+      <c r="DN21" s="42"/>
+      <c r="DO21" s="42"/>
+      <c r="DP21" s="42"/>
+      <c r="DQ21" s="42"/>
+      <c r="DR21" s="42"/>
+      <c r="DS21" s="42"/>
+      <c r="DT21" s="42"/>
+      <c r="DU21" s="42"/>
+      <c r="DV21" s="42"/>
+      <c r="DW21" s="42"/>
+      <c r="DX21" s="42"/>
+      <c r="DY21" s="42"/>
+      <c r="DZ21" s="42"/>
+      <c r="EA21" s="42"/>
+      <c r="EB21" s="42"/>
+      <c r="EC21" s="42"/>
+      <c r="ED21" s="42"/>
+      <c r="EE21" s="42"/>
+      <c r="EF21" s="42"/>
+      <c r="EG21" s="42"/>
+      <c r="EH21" s="42"/>
+      <c r="EI21" s="42"/>
+      <c r="EJ21" s="42"/>
+      <c r="EK21" s="42"/>
+      <c r="EL21" s="42"/>
+      <c r="EM21" s="42"/>
+      <c r="EN21" s="42"/>
+      <c r="EO21" s="42"/>
+      <c r="EP21" s="42"/>
+      <c r="EQ21" s="42"/>
+      <c r="ER21" s="42"/>
+      <c r="ES21" s="42"/>
+      <c r="ET21" s="42"/>
+      <c r="EU21" s="42"/>
+      <c r="EV21" s="42"/>
+      <c r="EW21" s="42"/>
+      <c r="EX21" s="42"/>
+      <c r="EY21" s="42"/>
+      <c r="EZ21" s="42"/>
+      <c r="FA21" s="42"/>
+      <c r="FB21" s="42"/>
+      <c r="FC21" s="42"/>
+      <c r="FD21" s="42"/>
+      <c r="FE21" s="42"/>
+      <c r="FF21" s="42"/>
+      <c r="FG21" s="42"/>
+      <c r="FH21" s="42"/>
+      <c r="FI21" s="42"/>
+      <c r="FJ21" s="42"/>
+      <c r="FK21" s="42"/>
+      <c r="FL21" s="42"/>
+      <c r="FM21" s="42"/>
+      <c r="FN21" s="42"/>
+      <c r="FO21" s="42"/>
+      <c r="FP21" s="42"/>
+      <c r="FQ21" s="42"/>
+      <c r="FR21" s="42"/>
+      <c r="FS21" s="42"/>
+      <c r="FT21" s="42"/>
+      <c r="FU21" s="42"/>
+      <c r="FV21" s="42"/>
+      <c r="FW21" s="42"/>
+      <c r="FX21" s="42"/>
+      <c r="FY21" s="42"/>
+      <c r="FZ21" s="42"/>
+      <c r="GA21" s="42"/>
+      <c r="GB21" s="42"/>
+      <c r="GC21" s="42"/>
+      <c r="GD21" s="42"/>
+      <c r="GE21" s="42"/>
+      <c r="GF21" s="42"/>
+      <c r="GG21" s="42"/>
+      <c r="GH21" s="42"/>
+      <c r="GI21" s="42"/>
+      <c r="GJ21" s="42"/>
+      <c r="GK21" s="42"/>
+      <c r="GL21" s="42"/>
+      <c r="GM21" s="42"/>
+      <c r="GN21" s="42"/>
+      <c r="GO21" s="42"/>
+      <c r="GP21" s="42"/>
+      <c r="GQ21" s="42"/>
+      <c r="GR21" s="42"/>
+      <c r="GS21" s="42"/>
+      <c r="GT21" s="42"/>
+      <c r="GU21" s="42"/>
+      <c r="GV21" s="42"/>
+      <c r="GW21" s="42"/>
+      <c r="GX21" s="42"/>
+      <c r="GY21" s="42"/>
+      <c r="GZ21" s="42"/>
+      <c r="HA21" s="42"/>
+      <c r="HB21" s="42"/>
+      <c r="HC21" s="42"/>
+      <c r="HD21" s="42"/>
+      <c r="HE21" s="42"/>
+      <c r="HF21" s="42"/>
+      <c r="HG21" s="42"/>
+      <c r="HH21" s="42"/>
+      <c r="HI21" s="42"/>
+      <c r="HJ21" s="42"/>
+      <c r="HK21" s="42"/>
+      <c r="HL21" s="42"/>
+      <c r="HM21" s="42"/>
+      <c r="HN21" s="42"/>
+      <c r="HO21" s="42"/>
+      <c r="HP21" s="42"/>
+      <c r="HQ21" s="42"/>
+      <c r="HR21" s="42"/>
+      <c r="HS21" s="42"/>
+      <c r="HT21" s="42"/>
+      <c r="HU21" s="42"/>
+      <c r="HV21" s="42"/>
+      <c r="HW21" s="42"/>
+      <c r="HX21" s="42"/>
+      <c r="HY21" s="42"/>
+      <c r="HZ21" s="42"/>
+      <c r="IA21" s="42"/>
+      <c r="IB21" s="42"/>
+      <c r="IC21" s="42"/>
+      <c r="ID21" s="42"/>
+      <c r="IE21" s="42"/>
+      <c r="IF21" s="42"/>
+      <c r="IG21" s="42"/>
+      <c r="IH21" s="42"/>
+      <c r="II21" s="42"/>
+      <c r="IJ21" s="42"/>
+      <c r="IK21" s="42"/>
+      <c r="IL21" s="42"/>
+      <c r="IM21" s="42"/>
+      <c r="IN21" s="42"/>
+      <c r="IO21" s="42"/>
+      <c r="IP21" s="42"/>
+      <c r="IQ21" s="42"/>
+      <c r="IR21" s="42"/>
+      <c r="IS21" s="42"/>
+      <c r="IT21" s="42"/>
+      <c r="IU21" s="42"/>
+      <c r="IV21" s="42"/>
+      <c r="IW21" s="42"/>
+      <c r="IX21" s="42"/>
+      <c r="IY21" s="42"/>
+      <c r="IZ21" s="42"/>
+      <c r="JA21" s="42"/>
+      <c r="JB21" s="42"/>
+      <c r="JC21" s="42"/>
+      <c r="JD21" s="42"/>
+      <c r="JE21" s="42"/>
+      <c r="JF21" s="42"/>
+      <c r="JG21" s="42"/>
+      <c r="JH21" s="42"/>
+      <c r="JI21" s="42"/>
+      <c r="JJ21" s="42"/>
+      <c r="JK21" s="42"/>
+      <c r="JL21" s="42"/>
+      <c r="JM21" s="42"/>
+      <c r="JN21" s="42"/>
+      <c r="JO21" s="42"/>
+      <c r="JP21" s="42"/>
+      <c r="JQ21" s="42"/>
+      <c r="JR21" s="42"/>
+      <c r="JS21" s="42"/>
+      <c r="JT21" s="42"/>
+      <c r="JU21" s="42"/>
     </row>
-    <row r="22" spans="1:103" ht="12.75">
+    <row r="22" spans="1:281" ht="12.75">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -3862,8 +7600,186 @@
       <c r="CW22" s="42"/>
       <c r="CX22" s="42"/>
       <c r="CY22" s="42"/>
+      <c r="CZ22" s="42"/>
+      <c r="DA22" s="42"/>
+      <c r="DB22" s="42"/>
+      <c r="DC22" s="42"/>
+      <c r="DD22" s="42"/>
+      <c r="DE22" s="42"/>
+      <c r="DF22" s="42"/>
+      <c r="DG22" s="42"/>
+      <c r="DH22" s="42"/>
+      <c r="DI22" s="42"/>
+      <c r="DJ22" s="42"/>
+      <c r="DK22" s="42"/>
+      <c r="DL22" s="42"/>
+      <c r="DM22" s="42"/>
+      <c r="DN22" s="42"/>
+      <c r="DO22" s="42"/>
+      <c r="DP22" s="42"/>
+      <c r="DQ22" s="42"/>
+      <c r="DR22" s="42"/>
+      <c r="DS22" s="42"/>
+      <c r="DT22" s="42"/>
+      <c r="DU22" s="42"/>
+      <c r="DV22" s="42"/>
+      <c r="DW22" s="42"/>
+      <c r="DX22" s="42"/>
+      <c r="DY22" s="42"/>
+      <c r="DZ22" s="42"/>
+      <c r="EA22" s="42"/>
+      <c r="EB22" s="42"/>
+      <c r="EC22" s="42"/>
+      <c r="ED22" s="42"/>
+      <c r="EE22" s="42"/>
+      <c r="EF22" s="42"/>
+      <c r="EG22" s="42"/>
+      <c r="EH22" s="42"/>
+      <c r="EI22" s="42"/>
+      <c r="EJ22" s="42"/>
+      <c r="EK22" s="42"/>
+      <c r="EL22" s="42"/>
+      <c r="EM22" s="42"/>
+      <c r="EN22" s="42"/>
+      <c r="EO22" s="42"/>
+      <c r="EP22" s="42"/>
+      <c r="EQ22" s="42"/>
+      <c r="ER22" s="42"/>
+      <c r="ES22" s="42"/>
+      <c r="ET22" s="42"/>
+      <c r="EU22" s="42"/>
+      <c r="EV22" s="42"/>
+      <c r="EW22" s="42"/>
+      <c r="EX22" s="42"/>
+      <c r="EY22" s="42"/>
+      <c r="EZ22" s="42"/>
+      <c r="FA22" s="42"/>
+      <c r="FB22" s="42"/>
+      <c r="FC22" s="42"/>
+      <c r="FD22" s="42"/>
+      <c r="FE22" s="42"/>
+      <c r="FF22" s="42"/>
+      <c r="FG22" s="42"/>
+      <c r="FH22" s="42"/>
+      <c r="FI22" s="42"/>
+      <c r="FJ22" s="42"/>
+      <c r="FK22" s="42"/>
+      <c r="FL22" s="42"/>
+      <c r="FM22" s="42"/>
+      <c r="FN22" s="42"/>
+      <c r="FO22" s="42"/>
+      <c r="FP22" s="42"/>
+      <c r="FQ22" s="42"/>
+      <c r="FR22" s="42"/>
+      <c r="FS22" s="42"/>
+      <c r="FT22" s="42"/>
+      <c r="FU22" s="42"/>
+      <c r="FV22" s="42"/>
+      <c r="FW22" s="42"/>
+      <c r="FX22" s="42"/>
+      <c r="FY22" s="42"/>
+      <c r="FZ22" s="42"/>
+      <c r="GA22" s="42"/>
+      <c r="GB22" s="42"/>
+      <c r="GC22" s="42"/>
+      <c r="GD22" s="42"/>
+      <c r="GE22" s="42"/>
+      <c r="GF22" s="42"/>
+      <c r="GG22" s="42"/>
+      <c r="GH22" s="42"/>
+      <c r="GI22" s="42"/>
+      <c r="GJ22" s="42"/>
+      <c r="GK22" s="42"/>
+      <c r="GL22" s="42"/>
+      <c r="GM22" s="42"/>
+      <c r="GN22" s="42"/>
+      <c r="GO22" s="42"/>
+      <c r="GP22" s="42"/>
+      <c r="GQ22" s="42"/>
+      <c r="GR22" s="42"/>
+      <c r="GS22" s="42"/>
+      <c r="GT22" s="42"/>
+      <c r="GU22" s="42"/>
+      <c r="GV22" s="42"/>
+      <c r="GW22" s="42"/>
+      <c r="GX22" s="42"/>
+      <c r="GY22" s="42"/>
+      <c r="GZ22" s="42"/>
+      <c r="HA22" s="42"/>
+      <c r="HB22" s="42"/>
+      <c r="HC22" s="42"/>
+      <c r="HD22" s="42"/>
+      <c r="HE22" s="42"/>
+      <c r="HF22" s="42"/>
+      <c r="HG22" s="42"/>
+      <c r="HH22" s="42"/>
+      <c r="HI22" s="42"/>
+      <c r="HJ22" s="42"/>
+      <c r="HK22" s="42"/>
+      <c r="HL22" s="42"/>
+      <c r="HM22" s="42"/>
+      <c r="HN22" s="42"/>
+      <c r="HO22" s="42"/>
+      <c r="HP22" s="42"/>
+      <c r="HQ22" s="42"/>
+      <c r="HR22" s="42"/>
+      <c r="HS22" s="42"/>
+      <c r="HT22" s="42"/>
+      <c r="HU22" s="42"/>
+      <c r="HV22" s="42"/>
+      <c r="HW22" s="42"/>
+      <c r="HX22" s="42"/>
+      <c r="HY22" s="42"/>
+      <c r="HZ22" s="42"/>
+      <c r="IA22" s="42"/>
+      <c r="IB22" s="42"/>
+      <c r="IC22" s="42"/>
+      <c r="ID22" s="42"/>
+      <c r="IE22" s="42"/>
+      <c r="IF22" s="42"/>
+      <c r="IG22" s="42"/>
+      <c r="IH22" s="42"/>
+      <c r="II22" s="42"/>
+      <c r="IJ22" s="42"/>
+      <c r="IK22" s="42"/>
+      <c r="IL22" s="42"/>
+      <c r="IM22" s="42"/>
+      <c r="IN22" s="42"/>
+      <c r="IO22" s="42"/>
+      <c r="IP22" s="42"/>
+      <c r="IQ22" s="42"/>
+      <c r="IR22" s="42"/>
+      <c r="IS22" s="42"/>
+      <c r="IT22" s="42"/>
+      <c r="IU22" s="42"/>
+      <c r="IV22" s="42"/>
+      <c r="IW22" s="42"/>
+      <c r="IX22" s="42"/>
+      <c r="IY22" s="42"/>
+      <c r="IZ22" s="42"/>
+      <c r="JA22" s="42"/>
+      <c r="JB22" s="42"/>
+      <c r="JC22" s="42"/>
+      <c r="JD22" s="42"/>
+      <c r="JE22" s="42"/>
+      <c r="JF22" s="42"/>
+      <c r="JG22" s="42"/>
+      <c r="JH22" s="42"/>
+      <c r="JI22" s="42"/>
+      <c r="JJ22" s="42"/>
+      <c r="JK22" s="42"/>
+      <c r="JL22" s="42"/>
+      <c r="JM22" s="42"/>
+      <c r="JN22" s="42"/>
+      <c r="JO22" s="42"/>
+      <c r="JP22" s="42"/>
+      <c r="JQ22" s="42"/>
+      <c r="JR22" s="42"/>
+      <c r="JS22" s="42"/>
+      <c r="JT22" s="42"/>
+      <c r="JU22" s="42"/>
     </row>
-    <row r="23" spans="1:103" ht="12.75">
+    <row r="23" spans="1:281" ht="12.75">
       <c r="A23" s="11">
         <v>16</v>
       </c>
@@ -3995,9 +7911,187 @@
       <c r="CW23" s="42"/>
       <c r="CX23" s="42"/>
       <c r="CY23" s="42"/>
+      <c r="CZ23" s="42"/>
+      <c r="DA23" s="42"/>
+      <c r="DB23" s="42"/>
+      <c r="DC23" s="42"/>
+      <c r="DD23" s="42"/>
+      <c r="DE23" s="42"/>
+      <c r="DF23" s="42"/>
+      <c r="DG23" s="42"/>
+      <c r="DH23" s="42"/>
+      <c r="DI23" s="42"/>
+      <c r="DJ23" s="42"/>
+      <c r="DK23" s="42"/>
+      <c r="DL23" s="42"/>
+      <c r="DM23" s="42"/>
+      <c r="DN23" s="42"/>
+      <c r="DO23" s="42"/>
+      <c r="DP23" s="42"/>
+      <c r="DQ23" s="42"/>
+      <c r="DR23" s="42"/>
+      <c r="DS23" s="42"/>
+      <c r="DT23" s="42"/>
+      <c r="DU23" s="42"/>
+      <c r="DV23" s="42"/>
+      <c r="DW23" s="42"/>
+      <c r="DX23" s="42"/>
+      <c r="DY23" s="42"/>
+      <c r="DZ23" s="42"/>
+      <c r="EA23" s="42"/>
+      <c r="EB23" s="42"/>
+      <c r="EC23" s="42"/>
+      <c r="ED23" s="42"/>
+      <c r="EE23" s="42"/>
+      <c r="EF23" s="42"/>
+      <c r="EG23" s="42"/>
+      <c r="EH23" s="42"/>
+      <c r="EI23" s="42"/>
+      <c r="EJ23" s="42"/>
+      <c r="EK23" s="42"/>
+      <c r="EL23" s="42"/>
+      <c r="EM23" s="42"/>
+      <c r="EN23" s="42"/>
+      <c r="EO23" s="42"/>
+      <c r="EP23" s="42"/>
+      <c r="EQ23" s="42"/>
+      <c r="ER23" s="42"/>
+      <c r="ES23" s="42"/>
+      <c r="ET23" s="42"/>
+      <c r="EU23" s="42"/>
+      <c r="EV23" s="42"/>
+      <c r="EW23" s="42"/>
+      <c r="EX23" s="42"/>
+      <c r="EY23" s="42"/>
+      <c r="EZ23" s="42"/>
+      <c r="FA23" s="42"/>
+      <c r="FB23" s="42"/>
+      <c r="FC23" s="42"/>
+      <c r="FD23" s="42"/>
+      <c r="FE23" s="42"/>
+      <c r="FF23" s="42"/>
+      <c r="FG23" s="42"/>
+      <c r="FH23" s="42"/>
+      <c r="FI23" s="42"/>
+      <c r="FJ23" s="42"/>
+      <c r="FK23" s="42"/>
+      <c r="FL23" s="42"/>
+      <c r="FM23" s="42"/>
+      <c r="FN23" s="42"/>
+      <c r="FO23" s="42"/>
+      <c r="FP23" s="42"/>
+      <c r="FQ23" s="42"/>
+      <c r="FR23" s="42"/>
+      <c r="FS23" s="42"/>
+      <c r="FT23" s="42"/>
+      <c r="FU23" s="42"/>
+      <c r="FV23" s="42"/>
+      <c r="FW23" s="42"/>
+      <c r="FX23" s="42"/>
+      <c r="FY23" s="42"/>
+      <c r="FZ23" s="42"/>
+      <c r="GA23" s="42"/>
+      <c r="GB23" s="42"/>
+      <c r="GC23" s="42"/>
+      <c r="GD23" s="42"/>
+      <c r="GE23" s="42"/>
+      <c r="GF23" s="42"/>
+      <c r="GG23" s="42"/>
+      <c r="GH23" s="42"/>
+      <c r="GI23" s="42"/>
+      <c r="GJ23" s="42"/>
+      <c r="GK23" s="42"/>
+      <c r="GL23" s="42"/>
+      <c r="GM23" s="42"/>
+      <c r="GN23" s="42"/>
+      <c r="GO23" s="42"/>
+      <c r="GP23" s="42"/>
+      <c r="GQ23" s="42"/>
+      <c r="GR23" s="42"/>
+      <c r="GS23" s="42"/>
+      <c r="GT23" s="42"/>
+      <c r="GU23" s="42"/>
+      <c r="GV23" s="42"/>
+      <c r="GW23" s="42"/>
+      <c r="GX23" s="42"/>
+      <c r="GY23" s="42"/>
+      <c r="GZ23" s="42"/>
+      <c r="HA23" s="42"/>
+      <c r="HB23" s="42"/>
+      <c r="HC23" s="42"/>
+      <c r="HD23" s="42"/>
+      <c r="HE23" s="42"/>
+      <c r="HF23" s="42"/>
+      <c r="HG23" s="42"/>
+      <c r="HH23" s="42"/>
+      <c r="HI23" s="42"/>
+      <c r="HJ23" s="42"/>
+      <c r="HK23" s="42"/>
+      <c r="HL23" s="42"/>
+      <c r="HM23" s="42"/>
+      <c r="HN23" s="42"/>
+      <c r="HO23" s="42"/>
+      <c r="HP23" s="42"/>
+      <c r="HQ23" s="42"/>
+      <c r="HR23" s="42"/>
+      <c r="HS23" s="42"/>
+      <c r="HT23" s="42"/>
+      <c r="HU23" s="42"/>
+      <c r="HV23" s="42"/>
+      <c r="HW23" s="42"/>
+      <c r="HX23" s="42"/>
+      <c r="HY23" s="42"/>
+      <c r="HZ23" s="42"/>
+      <c r="IA23" s="42"/>
+      <c r="IB23" s="42"/>
+      <c r="IC23" s="42"/>
+      <c r="ID23" s="42"/>
+      <c r="IE23" s="42"/>
+      <c r="IF23" s="42"/>
+      <c r="IG23" s="42"/>
+      <c r="IH23" s="42"/>
+      <c r="II23" s="42"/>
+      <c r="IJ23" s="42"/>
+      <c r="IK23" s="42"/>
+      <c r="IL23" s="42"/>
+      <c r="IM23" s="42"/>
+      <c r="IN23" s="42"/>
+      <c r="IO23" s="42"/>
+      <c r="IP23" s="42"/>
+      <c r="IQ23" s="42"/>
+      <c r="IR23" s="42"/>
+      <c r="IS23" s="42"/>
+      <c r="IT23" s="42"/>
+      <c r="IU23" s="42"/>
+      <c r="IV23" s="42"/>
+      <c r="IW23" s="42"/>
+      <c r="IX23" s="42"/>
+      <c r="IY23" s="42"/>
+      <c r="IZ23" s="42"/>
+      <c r="JA23" s="42"/>
+      <c r="JB23" s="42"/>
+      <c r="JC23" s="42"/>
+      <c r="JD23" s="42"/>
+      <c r="JE23" s="42"/>
+      <c r="JF23" s="42"/>
+      <c r="JG23" s="42"/>
+      <c r="JH23" s="42"/>
+      <c r="JI23" s="42"/>
+      <c r="JJ23" s="42"/>
+      <c r="JK23" s="42"/>
+      <c r="JL23" s="42"/>
+      <c r="JM23" s="42"/>
+      <c r="JN23" s="42"/>
+      <c r="JO23" s="42"/>
+      <c r="JP23" s="42"/>
+      <c r="JQ23" s="42"/>
+      <c r="JR23" s="42"/>
+      <c r="JS23" s="42"/>
+      <c r="JT23" s="42"/>
+      <c r="JU23" s="42"/>
     </row>
-    <row r="24" spans="1:103" ht="12.75">
-      <c r="A24" s="59">
+    <row r="24" spans="1:281" ht="12.75">
+      <c r="A24" s="47">
         <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -4104,9 +8198,187 @@
       <c r="CW24" s="42"/>
       <c r="CX24" s="42"/>
       <c r="CY24" s="42"/>
+      <c r="CZ24" s="42"/>
+      <c r="DA24" s="42"/>
+      <c r="DB24" s="42"/>
+      <c r="DC24" s="42"/>
+      <c r="DD24" s="42"/>
+      <c r="DE24" s="42"/>
+      <c r="DF24" s="42"/>
+      <c r="DG24" s="42"/>
+      <c r="DH24" s="42"/>
+      <c r="DI24" s="42"/>
+      <c r="DJ24" s="42"/>
+      <c r="DK24" s="42"/>
+      <c r="DL24" s="42"/>
+      <c r="DM24" s="42"/>
+      <c r="DN24" s="42"/>
+      <c r="DO24" s="42"/>
+      <c r="DP24" s="42"/>
+      <c r="DQ24" s="42"/>
+      <c r="DR24" s="42"/>
+      <c r="DS24" s="42"/>
+      <c r="DT24" s="42"/>
+      <c r="DU24" s="42"/>
+      <c r="DV24" s="42"/>
+      <c r="DW24" s="42"/>
+      <c r="DX24" s="42"/>
+      <c r="DY24" s="42"/>
+      <c r="DZ24" s="42"/>
+      <c r="EA24" s="42"/>
+      <c r="EB24" s="42"/>
+      <c r="EC24" s="42"/>
+      <c r="ED24" s="42"/>
+      <c r="EE24" s="42"/>
+      <c r="EF24" s="42"/>
+      <c r="EG24" s="42"/>
+      <c r="EH24" s="42"/>
+      <c r="EI24" s="42"/>
+      <c r="EJ24" s="42"/>
+      <c r="EK24" s="42"/>
+      <c r="EL24" s="42"/>
+      <c r="EM24" s="42"/>
+      <c r="EN24" s="42"/>
+      <c r="EO24" s="42"/>
+      <c r="EP24" s="42"/>
+      <c r="EQ24" s="42"/>
+      <c r="ER24" s="42"/>
+      <c r="ES24" s="42"/>
+      <c r="ET24" s="42"/>
+      <c r="EU24" s="42"/>
+      <c r="EV24" s="42"/>
+      <c r="EW24" s="42"/>
+      <c r="EX24" s="42"/>
+      <c r="EY24" s="42"/>
+      <c r="EZ24" s="42"/>
+      <c r="FA24" s="42"/>
+      <c r="FB24" s="42"/>
+      <c r="FC24" s="42"/>
+      <c r="FD24" s="42"/>
+      <c r="FE24" s="42"/>
+      <c r="FF24" s="42"/>
+      <c r="FG24" s="42"/>
+      <c r="FH24" s="42"/>
+      <c r="FI24" s="42"/>
+      <c r="FJ24" s="42"/>
+      <c r="FK24" s="42"/>
+      <c r="FL24" s="42"/>
+      <c r="FM24" s="42"/>
+      <c r="FN24" s="42"/>
+      <c r="FO24" s="42"/>
+      <c r="FP24" s="42"/>
+      <c r="FQ24" s="42"/>
+      <c r="FR24" s="42"/>
+      <c r="FS24" s="42"/>
+      <c r="FT24" s="42"/>
+      <c r="FU24" s="42"/>
+      <c r="FV24" s="42"/>
+      <c r="FW24" s="42"/>
+      <c r="FX24" s="42"/>
+      <c r="FY24" s="42"/>
+      <c r="FZ24" s="42"/>
+      <c r="GA24" s="42"/>
+      <c r="GB24" s="42"/>
+      <c r="GC24" s="42"/>
+      <c r="GD24" s="42"/>
+      <c r="GE24" s="42"/>
+      <c r="GF24" s="42"/>
+      <c r="GG24" s="42"/>
+      <c r="GH24" s="42"/>
+      <c r="GI24" s="42"/>
+      <c r="GJ24" s="42"/>
+      <c r="GK24" s="42"/>
+      <c r="GL24" s="42"/>
+      <c r="GM24" s="42"/>
+      <c r="GN24" s="42"/>
+      <c r="GO24" s="42"/>
+      <c r="GP24" s="42"/>
+      <c r="GQ24" s="42"/>
+      <c r="GR24" s="42"/>
+      <c r="GS24" s="42"/>
+      <c r="GT24" s="42"/>
+      <c r="GU24" s="42"/>
+      <c r="GV24" s="42"/>
+      <c r="GW24" s="42"/>
+      <c r="GX24" s="42"/>
+      <c r="GY24" s="42"/>
+      <c r="GZ24" s="42"/>
+      <c r="HA24" s="42"/>
+      <c r="HB24" s="42"/>
+      <c r="HC24" s="42"/>
+      <c r="HD24" s="42"/>
+      <c r="HE24" s="42"/>
+      <c r="HF24" s="42"/>
+      <c r="HG24" s="42"/>
+      <c r="HH24" s="42"/>
+      <c r="HI24" s="42"/>
+      <c r="HJ24" s="42"/>
+      <c r="HK24" s="42"/>
+      <c r="HL24" s="42"/>
+      <c r="HM24" s="42"/>
+      <c r="HN24" s="42"/>
+      <c r="HO24" s="42"/>
+      <c r="HP24" s="42"/>
+      <c r="HQ24" s="42"/>
+      <c r="HR24" s="42"/>
+      <c r="HS24" s="42"/>
+      <c r="HT24" s="42"/>
+      <c r="HU24" s="42"/>
+      <c r="HV24" s="42"/>
+      <c r="HW24" s="42"/>
+      <c r="HX24" s="42"/>
+      <c r="HY24" s="42"/>
+      <c r="HZ24" s="42"/>
+      <c r="IA24" s="42"/>
+      <c r="IB24" s="42"/>
+      <c r="IC24" s="42"/>
+      <c r="ID24" s="42"/>
+      <c r="IE24" s="42"/>
+      <c r="IF24" s="42"/>
+      <c r="IG24" s="42"/>
+      <c r="IH24" s="42"/>
+      <c r="II24" s="42"/>
+      <c r="IJ24" s="42"/>
+      <c r="IK24" s="42"/>
+      <c r="IL24" s="42"/>
+      <c r="IM24" s="42"/>
+      <c r="IN24" s="42"/>
+      <c r="IO24" s="42"/>
+      <c r="IP24" s="42"/>
+      <c r="IQ24" s="42"/>
+      <c r="IR24" s="42"/>
+      <c r="IS24" s="42"/>
+      <c r="IT24" s="42"/>
+      <c r="IU24" s="42"/>
+      <c r="IV24" s="42"/>
+      <c r="IW24" s="42"/>
+      <c r="IX24" s="42"/>
+      <c r="IY24" s="42"/>
+      <c r="IZ24" s="42"/>
+      <c r="JA24" s="42"/>
+      <c r="JB24" s="42"/>
+      <c r="JC24" s="42"/>
+      <c r="JD24" s="42"/>
+      <c r="JE24" s="42"/>
+      <c r="JF24" s="42"/>
+      <c r="JG24" s="42"/>
+      <c r="JH24" s="42"/>
+      <c r="JI24" s="42"/>
+      <c r="JJ24" s="42"/>
+      <c r="JK24" s="42"/>
+      <c r="JL24" s="42"/>
+      <c r="JM24" s="42"/>
+      <c r="JN24" s="42"/>
+      <c r="JO24" s="42"/>
+      <c r="JP24" s="42"/>
+      <c r="JQ24" s="42"/>
+      <c r="JR24" s="42"/>
+      <c r="JS24" s="42"/>
+      <c r="JT24" s="42"/>
+      <c r="JU24" s="42"/>
     </row>
-    <row r="25" spans="1:103" s="16" customFormat="1" ht="12.75">
-      <c r="A25" s="60"/>
+    <row r="25" spans="1:281" s="16" customFormat="1" ht="12.75">
+      <c r="A25" s="48"/>
       <c r="B25" s="15" t="s">
         <v>39</v>
       </c>
@@ -4235,9 +8507,187 @@
       <c r="CW25" s="42"/>
       <c r="CX25" s="42"/>
       <c r="CY25" s="42"/>
+      <c r="CZ25" s="42"/>
+      <c r="DA25" s="42"/>
+      <c r="DB25" s="42"/>
+      <c r="DC25" s="42"/>
+      <c r="DD25" s="42"/>
+      <c r="DE25" s="42"/>
+      <c r="DF25" s="42"/>
+      <c r="DG25" s="42"/>
+      <c r="DH25" s="42"/>
+      <c r="DI25" s="42"/>
+      <c r="DJ25" s="42"/>
+      <c r="DK25" s="42"/>
+      <c r="DL25" s="42"/>
+      <c r="DM25" s="42"/>
+      <c r="DN25" s="42"/>
+      <c r="DO25" s="42"/>
+      <c r="DP25" s="42"/>
+      <c r="DQ25" s="42"/>
+      <c r="DR25" s="42"/>
+      <c r="DS25" s="42"/>
+      <c r="DT25" s="42"/>
+      <c r="DU25" s="42"/>
+      <c r="DV25" s="42"/>
+      <c r="DW25" s="42"/>
+      <c r="DX25" s="42"/>
+      <c r="DY25" s="42"/>
+      <c r="DZ25" s="42"/>
+      <c r="EA25" s="42"/>
+      <c r="EB25" s="42"/>
+      <c r="EC25" s="42"/>
+      <c r="ED25" s="42"/>
+      <c r="EE25" s="42"/>
+      <c r="EF25" s="42"/>
+      <c r="EG25" s="42"/>
+      <c r="EH25" s="42"/>
+      <c r="EI25" s="42"/>
+      <c r="EJ25" s="42"/>
+      <c r="EK25" s="42"/>
+      <c r="EL25" s="42"/>
+      <c r="EM25" s="42"/>
+      <c r="EN25" s="42"/>
+      <c r="EO25" s="42"/>
+      <c r="EP25" s="42"/>
+      <c r="EQ25" s="42"/>
+      <c r="ER25" s="42"/>
+      <c r="ES25" s="42"/>
+      <c r="ET25" s="42"/>
+      <c r="EU25" s="42"/>
+      <c r="EV25" s="42"/>
+      <c r="EW25" s="42"/>
+      <c r="EX25" s="42"/>
+      <c r="EY25" s="42"/>
+      <c r="EZ25" s="42"/>
+      <c r="FA25" s="42"/>
+      <c r="FB25" s="42"/>
+      <c r="FC25" s="42"/>
+      <c r="FD25" s="42"/>
+      <c r="FE25" s="42"/>
+      <c r="FF25" s="42"/>
+      <c r="FG25" s="42"/>
+      <c r="FH25" s="42"/>
+      <c r="FI25" s="42"/>
+      <c r="FJ25" s="42"/>
+      <c r="FK25" s="42"/>
+      <c r="FL25" s="42"/>
+      <c r="FM25" s="42"/>
+      <c r="FN25" s="42"/>
+      <c r="FO25" s="42"/>
+      <c r="FP25" s="42"/>
+      <c r="FQ25" s="42"/>
+      <c r="FR25" s="42"/>
+      <c r="FS25" s="42"/>
+      <c r="FT25" s="42"/>
+      <c r="FU25" s="42"/>
+      <c r="FV25" s="42"/>
+      <c r="FW25" s="42"/>
+      <c r="FX25" s="42"/>
+      <c r="FY25" s="42"/>
+      <c r="FZ25" s="42"/>
+      <c r="GA25" s="42"/>
+      <c r="GB25" s="42"/>
+      <c r="GC25" s="42"/>
+      <c r="GD25" s="42"/>
+      <c r="GE25" s="42"/>
+      <c r="GF25" s="42"/>
+      <c r="GG25" s="42"/>
+      <c r="GH25" s="42"/>
+      <c r="GI25" s="42"/>
+      <c r="GJ25" s="42"/>
+      <c r="GK25" s="42"/>
+      <c r="GL25" s="42"/>
+      <c r="GM25" s="42"/>
+      <c r="GN25" s="42"/>
+      <c r="GO25" s="42"/>
+      <c r="GP25" s="42"/>
+      <c r="GQ25" s="42"/>
+      <c r="GR25" s="42"/>
+      <c r="GS25" s="42"/>
+      <c r="GT25" s="42"/>
+      <c r="GU25" s="42"/>
+      <c r="GV25" s="42"/>
+      <c r="GW25" s="42"/>
+      <c r="GX25" s="42"/>
+      <c r="GY25" s="42"/>
+      <c r="GZ25" s="42"/>
+      <c r="HA25" s="42"/>
+      <c r="HB25" s="42"/>
+      <c r="HC25" s="42"/>
+      <c r="HD25" s="42"/>
+      <c r="HE25" s="42"/>
+      <c r="HF25" s="42"/>
+      <c r="HG25" s="42"/>
+      <c r="HH25" s="42"/>
+      <c r="HI25" s="42"/>
+      <c r="HJ25" s="42"/>
+      <c r="HK25" s="42"/>
+      <c r="HL25" s="42"/>
+      <c r="HM25" s="42"/>
+      <c r="HN25" s="42"/>
+      <c r="HO25" s="42"/>
+      <c r="HP25" s="42"/>
+      <c r="HQ25" s="42"/>
+      <c r="HR25" s="42"/>
+      <c r="HS25" s="42"/>
+      <c r="HT25" s="42"/>
+      <c r="HU25" s="42"/>
+      <c r="HV25" s="42"/>
+      <c r="HW25" s="42"/>
+      <c r="HX25" s="42"/>
+      <c r="HY25" s="42"/>
+      <c r="HZ25" s="42"/>
+      <c r="IA25" s="42"/>
+      <c r="IB25" s="42"/>
+      <c r="IC25" s="42"/>
+      <c r="ID25" s="42"/>
+      <c r="IE25" s="42"/>
+      <c r="IF25" s="42"/>
+      <c r="IG25" s="42"/>
+      <c r="IH25" s="42"/>
+      <c r="II25" s="42"/>
+      <c r="IJ25" s="42"/>
+      <c r="IK25" s="42"/>
+      <c r="IL25" s="42"/>
+      <c r="IM25" s="42"/>
+      <c r="IN25" s="42"/>
+      <c r="IO25" s="42"/>
+      <c r="IP25" s="42"/>
+      <c r="IQ25" s="42"/>
+      <c r="IR25" s="42"/>
+      <c r="IS25" s="42"/>
+      <c r="IT25" s="42"/>
+      <c r="IU25" s="42"/>
+      <c r="IV25" s="42"/>
+      <c r="IW25" s="42"/>
+      <c r="IX25" s="42"/>
+      <c r="IY25" s="42"/>
+      <c r="IZ25" s="42"/>
+      <c r="JA25" s="42"/>
+      <c r="JB25" s="42"/>
+      <c r="JC25" s="42"/>
+      <c r="JD25" s="42"/>
+      <c r="JE25" s="42"/>
+      <c r="JF25" s="42"/>
+      <c r="JG25" s="42"/>
+      <c r="JH25" s="42"/>
+      <c r="JI25" s="42"/>
+      <c r="JJ25" s="42"/>
+      <c r="JK25" s="42"/>
+      <c r="JL25" s="42"/>
+      <c r="JM25" s="42"/>
+      <c r="JN25" s="42"/>
+      <c r="JO25" s="42"/>
+      <c r="JP25" s="42"/>
+      <c r="JQ25" s="42"/>
+      <c r="JR25" s="42"/>
+      <c r="JS25" s="42"/>
+      <c r="JT25" s="42"/>
+      <c r="JU25" s="42"/>
     </row>
-    <row r="26" spans="1:103" s="16" customFormat="1" ht="12.75">
-      <c r="A26" s="60"/>
+    <row r="26" spans="1:281" s="16" customFormat="1" ht="12.75">
+      <c r="A26" s="48"/>
       <c r="B26" s="15" t="s">
         <v>40</v>
       </c>
@@ -4366,9 +8816,187 @@
       <c r="CW26" s="42"/>
       <c r="CX26" s="42"/>
       <c r="CY26" s="42"/>
+      <c r="CZ26" s="42"/>
+      <c r="DA26" s="42"/>
+      <c r="DB26" s="42"/>
+      <c r="DC26" s="42"/>
+      <c r="DD26" s="42"/>
+      <c r="DE26" s="42"/>
+      <c r="DF26" s="42"/>
+      <c r="DG26" s="42"/>
+      <c r="DH26" s="42"/>
+      <c r="DI26" s="42"/>
+      <c r="DJ26" s="42"/>
+      <c r="DK26" s="42"/>
+      <c r="DL26" s="42"/>
+      <c r="DM26" s="42"/>
+      <c r="DN26" s="42"/>
+      <c r="DO26" s="42"/>
+      <c r="DP26" s="42"/>
+      <c r="DQ26" s="42"/>
+      <c r="DR26" s="42"/>
+      <c r="DS26" s="42"/>
+      <c r="DT26" s="42"/>
+      <c r="DU26" s="42"/>
+      <c r="DV26" s="42"/>
+      <c r="DW26" s="42"/>
+      <c r="DX26" s="42"/>
+      <c r="DY26" s="42"/>
+      <c r="DZ26" s="42"/>
+      <c r="EA26" s="42"/>
+      <c r="EB26" s="42"/>
+      <c r="EC26" s="42"/>
+      <c r="ED26" s="42"/>
+      <c r="EE26" s="42"/>
+      <c r="EF26" s="42"/>
+      <c r="EG26" s="42"/>
+      <c r="EH26" s="42"/>
+      <c r="EI26" s="42"/>
+      <c r="EJ26" s="42"/>
+      <c r="EK26" s="42"/>
+      <c r="EL26" s="42"/>
+      <c r="EM26" s="42"/>
+      <c r="EN26" s="42"/>
+      <c r="EO26" s="42"/>
+      <c r="EP26" s="42"/>
+      <c r="EQ26" s="42"/>
+      <c r="ER26" s="42"/>
+      <c r="ES26" s="42"/>
+      <c r="ET26" s="42"/>
+      <c r="EU26" s="42"/>
+      <c r="EV26" s="42"/>
+      <c r="EW26" s="42"/>
+      <c r="EX26" s="42"/>
+      <c r="EY26" s="42"/>
+      <c r="EZ26" s="42"/>
+      <c r="FA26" s="42"/>
+      <c r="FB26" s="42"/>
+      <c r="FC26" s="42"/>
+      <c r="FD26" s="42"/>
+      <c r="FE26" s="42"/>
+      <c r="FF26" s="42"/>
+      <c r="FG26" s="42"/>
+      <c r="FH26" s="42"/>
+      <c r="FI26" s="42"/>
+      <c r="FJ26" s="42"/>
+      <c r="FK26" s="42"/>
+      <c r="FL26" s="42"/>
+      <c r="FM26" s="42"/>
+      <c r="FN26" s="42"/>
+      <c r="FO26" s="42"/>
+      <c r="FP26" s="42"/>
+      <c r="FQ26" s="42"/>
+      <c r="FR26" s="42"/>
+      <c r="FS26" s="42"/>
+      <c r="FT26" s="42"/>
+      <c r="FU26" s="42"/>
+      <c r="FV26" s="42"/>
+      <c r="FW26" s="42"/>
+      <c r="FX26" s="42"/>
+      <c r="FY26" s="42"/>
+      <c r="FZ26" s="42"/>
+      <c r="GA26" s="42"/>
+      <c r="GB26" s="42"/>
+      <c r="GC26" s="42"/>
+      <c r="GD26" s="42"/>
+      <c r="GE26" s="42"/>
+      <c r="GF26" s="42"/>
+      <c r="GG26" s="42"/>
+      <c r="GH26" s="42"/>
+      <c r="GI26" s="42"/>
+      <c r="GJ26" s="42"/>
+      <c r="GK26" s="42"/>
+      <c r="GL26" s="42"/>
+      <c r="GM26" s="42"/>
+      <c r="GN26" s="42"/>
+      <c r="GO26" s="42"/>
+      <c r="GP26" s="42"/>
+      <c r="GQ26" s="42"/>
+      <c r="GR26" s="42"/>
+      <c r="GS26" s="42"/>
+      <c r="GT26" s="42"/>
+      <c r="GU26" s="42"/>
+      <c r="GV26" s="42"/>
+      <c r="GW26" s="42"/>
+      <c r="GX26" s="42"/>
+      <c r="GY26" s="42"/>
+      <c r="GZ26" s="42"/>
+      <c r="HA26" s="42"/>
+      <c r="HB26" s="42"/>
+      <c r="HC26" s="42"/>
+      <c r="HD26" s="42"/>
+      <c r="HE26" s="42"/>
+      <c r="HF26" s="42"/>
+      <c r="HG26" s="42"/>
+      <c r="HH26" s="42"/>
+      <c r="HI26" s="42"/>
+      <c r="HJ26" s="42"/>
+      <c r="HK26" s="42"/>
+      <c r="HL26" s="42"/>
+      <c r="HM26" s="42"/>
+      <c r="HN26" s="42"/>
+      <c r="HO26" s="42"/>
+      <c r="HP26" s="42"/>
+      <c r="HQ26" s="42"/>
+      <c r="HR26" s="42"/>
+      <c r="HS26" s="42"/>
+      <c r="HT26" s="42"/>
+      <c r="HU26" s="42"/>
+      <c r="HV26" s="42"/>
+      <c r="HW26" s="42"/>
+      <c r="HX26" s="42"/>
+      <c r="HY26" s="42"/>
+      <c r="HZ26" s="42"/>
+      <c r="IA26" s="42"/>
+      <c r="IB26" s="42"/>
+      <c r="IC26" s="42"/>
+      <c r="ID26" s="42"/>
+      <c r="IE26" s="42"/>
+      <c r="IF26" s="42"/>
+      <c r="IG26" s="42"/>
+      <c r="IH26" s="42"/>
+      <c r="II26" s="42"/>
+      <c r="IJ26" s="42"/>
+      <c r="IK26" s="42"/>
+      <c r="IL26" s="42"/>
+      <c r="IM26" s="42"/>
+      <c r="IN26" s="42"/>
+      <c r="IO26" s="42"/>
+      <c r="IP26" s="42"/>
+      <c r="IQ26" s="42"/>
+      <c r="IR26" s="42"/>
+      <c r="IS26" s="42"/>
+      <c r="IT26" s="42"/>
+      <c r="IU26" s="42"/>
+      <c r="IV26" s="42"/>
+      <c r="IW26" s="42"/>
+      <c r="IX26" s="42"/>
+      <c r="IY26" s="42"/>
+      <c r="IZ26" s="42"/>
+      <c r="JA26" s="42"/>
+      <c r="JB26" s="42"/>
+      <c r="JC26" s="42"/>
+      <c r="JD26" s="42"/>
+      <c r="JE26" s="42"/>
+      <c r="JF26" s="42"/>
+      <c r="JG26" s="42"/>
+      <c r="JH26" s="42"/>
+      <c r="JI26" s="42"/>
+      <c r="JJ26" s="42"/>
+      <c r="JK26" s="42"/>
+      <c r="JL26" s="42"/>
+      <c r="JM26" s="42"/>
+      <c r="JN26" s="42"/>
+      <c r="JO26" s="42"/>
+      <c r="JP26" s="42"/>
+      <c r="JQ26" s="42"/>
+      <c r="JR26" s="42"/>
+      <c r="JS26" s="42"/>
+      <c r="JT26" s="42"/>
+      <c r="JU26" s="42"/>
     </row>
-    <row r="27" spans="1:103" s="16" customFormat="1" ht="12.75">
-      <c r="A27" s="61"/>
+    <row r="27" spans="1:281" s="16" customFormat="1" ht="12.75">
+      <c r="A27" s="49"/>
       <c r="B27" s="15" t="s">
         <v>41</v>
       </c>
@@ -4497,8 +9125,186 @@
       <c r="CW27" s="42"/>
       <c r="CX27" s="42"/>
       <c r="CY27" s="42"/>
+      <c r="CZ27" s="42"/>
+      <c r="DA27" s="42"/>
+      <c r="DB27" s="42"/>
+      <c r="DC27" s="42"/>
+      <c r="DD27" s="42"/>
+      <c r="DE27" s="42"/>
+      <c r="DF27" s="42"/>
+      <c r="DG27" s="42"/>
+      <c r="DH27" s="42"/>
+      <c r="DI27" s="42"/>
+      <c r="DJ27" s="42"/>
+      <c r="DK27" s="42"/>
+      <c r="DL27" s="42"/>
+      <c r="DM27" s="42"/>
+      <c r="DN27" s="42"/>
+      <c r="DO27" s="42"/>
+      <c r="DP27" s="42"/>
+      <c r="DQ27" s="42"/>
+      <c r="DR27" s="42"/>
+      <c r="DS27" s="42"/>
+      <c r="DT27" s="42"/>
+      <c r="DU27" s="42"/>
+      <c r="DV27" s="42"/>
+      <c r="DW27" s="42"/>
+      <c r="DX27" s="42"/>
+      <c r="DY27" s="42"/>
+      <c r="DZ27" s="42"/>
+      <c r="EA27" s="42"/>
+      <c r="EB27" s="42"/>
+      <c r="EC27" s="42"/>
+      <c r="ED27" s="42"/>
+      <c r="EE27" s="42"/>
+      <c r="EF27" s="42"/>
+      <c r="EG27" s="42"/>
+      <c r="EH27" s="42"/>
+      <c r="EI27" s="42"/>
+      <c r="EJ27" s="42"/>
+      <c r="EK27" s="42"/>
+      <c r="EL27" s="42"/>
+      <c r="EM27" s="42"/>
+      <c r="EN27" s="42"/>
+      <c r="EO27" s="42"/>
+      <c r="EP27" s="42"/>
+      <c r="EQ27" s="42"/>
+      <c r="ER27" s="42"/>
+      <c r="ES27" s="42"/>
+      <c r="ET27" s="42"/>
+      <c r="EU27" s="42"/>
+      <c r="EV27" s="42"/>
+      <c r="EW27" s="42"/>
+      <c r="EX27" s="42"/>
+      <c r="EY27" s="42"/>
+      <c r="EZ27" s="42"/>
+      <c r="FA27" s="42"/>
+      <c r="FB27" s="42"/>
+      <c r="FC27" s="42"/>
+      <c r="FD27" s="42"/>
+      <c r="FE27" s="42"/>
+      <c r="FF27" s="42"/>
+      <c r="FG27" s="42"/>
+      <c r="FH27" s="42"/>
+      <c r="FI27" s="42"/>
+      <c r="FJ27" s="42"/>
+      <c r="FK27" s="42"/>
+      <c r="FL27" s="42"/>
+      <c r="FM27" s="42"/>
+      <c r="FN27" s="42"/>
+      <c r="FO27" s="42"/>
+      <c r="FP27" s="42"/>
+      <c r="FQ27" s="42"/>
+      <c r="FR27" s="42"/>
+      <c r="FS27" s="42"/>
+      <c r="FT27" s="42"/>
+      <c r="FU27" s="42"/>
+      <c r="FV27" s="42"/>
+      <c r="FW27" s="42"/>
+      <c r="FX27" s="42"/>
+      <c r="FY27" s="42"/>
+      <c r="FZ27" s="42"/>
+      <c r="GA27" s="42"/>
+      <c r="GB27" s="42"/>
+      <c r="GC27" s="42"/>
+      <c r="GD27" s="42"/>
+      <c r="GE27" s="42"/>
+      <c r="GF27" s="42"/>
+      <c r="GG27" s="42"/>
+      <c r="GH27" s="42"/>
+      <c r="GI27" s="42"/>
+      <c r="GJ27" s="42"/>
+      <c r="GK27" s="42"/>
+      <c r="GL27" s="42"/>
+      <c r="GM27" s="42"/>
+      <c r="GN27" s="42"/>
+      <c r="GO27" s="42"/>
+      <c r="GP27" s="42"/>
+      <c r="GQ27" s="42"/>
+      <c r="GR27" s="42"/>
+      <c r="GS27" s="42"/>
+      <c r="GT27" s="42"/>
+      <c r="GU27" s="42"/>
+      <c r="GV27" s="42"/>
+      <c r="GW27" s="42"/>
+      <c r="GX27" s="42"/>
+      <c r="GY27" s="42"/>
+      <c r="GZ27" s="42"/>
+      <c r="HA27" s="42"/>
+      <c r="HB27" s="42"/>
+      <c r="HC27" s="42"/>
+      <c r="HD27" s="42"/>
+      <c r="HE27" s="42"/>
+      <c r="HF27" s="42"/>
+      <c r="HG27" s="42"/>
+      <c r="HH27" s="42"/>
+      <c r="HI27" s="42"/>
+      <c r="HJ27" s="42"/>
+      <c r="HK27" s="42"/>
+      <c r="HL27" s="42"/>
+      <c r="HM27" s="42"/>
+      <c r="HN27" s="42"/>
+      <c r="HO27" s="42"/>
+      <c r="HP27" s="42"/>
+      <c r="HQ27" s="42"/>
+      <c r="HR27" s="42"/>
+      <c r="HS27" s="42"/>
+      <c r="HT27" s="42"/>
+      <c r="HU27" s="42"/>
+      <c r="HV27" s="42"/>
+      <c r="HW27" s="42"/>
+      <c r="HX27" s="42"/>
+      <c r="HY27" s="42"/>
+      <c r="HZ27" s="42"/>
+      <c r="IA27" s="42"/>
+      <c r="IB27" s="42"/>
+      <c r="IC27" s="42"/>
+      <c r="ID27" s="42"/>
+      <c r="IE27" s="42"/>
+      <c r="IF27" s="42"/>
+      <c r="IG27" s="42"/>
+      <c r="IH27" s="42"/>
+      <c r="II27" s="42"/>
+      <c r="IJ27" s="42"/>
+      <c r="IK27" s="42"/>
+      <c r="IL27" s="42"/>
+      <c r="IM27" s="42"/>
+      <c r="IN27" s="42"/>
+      <c r="IO27" s="42"/>
+      <c r="IP27" s="42"/>
+      <c r="IQ27" s="42"/>
+      <c r="IR27" s="42"/>
+      <c r="IS27" s="42"/>
+      <c r="IT27" s="42"/>
+      <c r="IU27" s="42"/>
+      <c r="IV27" s="42"/>
+      <c r="IW27" s="42"/>
+      <c r="IX27" s="42"/>
+      <c r="IY27" s="42"/>
+      <c r="IZ27" s="42"/>
+      <c r="JA27" s="42"/>
+      <c r="JB27" s="42"/>
+      <c r="JC27" s="42"/>
+      <c r="JD27" s="42"/>
+      <c r="JE27" s="42"/>
+      <c r="JF27" s="42"/>
+      <c r="JG27" s="42"/>
+      <c r="JH27" s="42"/>
+      <c r="JI27" s="42"/>
+      <c r="JJ27" s="42"/>
+      <c r="JK27" s="42"/>
+      <c r="JL27" s="42"/>
+      <c r="JM27" s="42"/>
+      <c r="JN27" s="42"/>
+      <c r="JO27" s="42"/>
+      <c r="JP27" s="42"/>
+      <c r="JQ27" s="42"/>
+      <c r="JR27" s="42"/>
+      <c r="JS27" s="42"/>
+      <c r="JT27" s="42"/>
+      <c r="JU27" s="42"/>
     </row>
-    <row r="28" spans="1:103" ht="12.75">
+    <row r="28" spans="1:281" ht="12.75">
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -4528,7 +9334,7 @@
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
     </row>
-    <row r="29" spans="1:103" ht="12.75">
+    <row r="29" spans="1:281" ht="12.75">
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -4558,7 +9364,7 @@
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
     </row>
-    <row r="30" spans="1:103" ht="12.75">
+    <row r="30" spans="1:281" ht="12.75">
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -4588,7 +9394,7 @@
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
     </row>
-    <row r="31" spans="1:103" ht="12.75">
+    <row r="31" spans="1:281" ht="12.75">
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -4618,7 +9424,7 @@
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
     </row>
-    <row r="32" spans="1:103" ht="12.75">
+    <row r="32" spans="1:281" ht="12.75">
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -4740,16 +9546,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U2:AD2"/>
-    <mergeCell ref="AE2:AL2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:T2"/>
     <mergeCell ref="AM2:AN3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="AK3:AL3"/>
@@ -4766,6 +9562,16 @@
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="U2:AD2"/>
+    <mergeCell ref="AE2:AL2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:T2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Dashboard/media/overall.xlsx
+++ b/Dashboard/media/overall.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\__gitam__\DashBoard-BackEnd\Dashboard\media\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C7C04-1C9F-437F-8B0E-A4C0151570A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="CF 2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>2022 OVERALL CAREER FULFILLMENT STATISTICS - GCGC</t>
   </si>
@@ -50,36 +44,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>GIT</t>
-  </si>
-  <si>
-    <t>GIM</t>
-  </si>
-  <si>
-    <t>GIS</t>
-  </si>
-  <si>
-    <t>GSoA</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>GIP</t>
-  </si>
-  <si>
-    <t>GSoL</t>
-  </si>
-  <si>
-    <t>GSGS</t>
-  </si>
-  <si>
-    <t>HBS</t>
-  </si>
-  <si>
-    <t>GSBB</t>
   </si>
   <si>
     <t>UG</t>
@@ -157,25 +121,34 @@
     <t>(c) Average (Per annum)Rs.in lakhs</t>
   </si>
   <si>
-    <t>SoTH</t>
+    <t>GST</t>
   </si>
   <si>
-    <t>SoPH</t>
+    <t>GSB</t>
   </si>
   <si>
-    <t>SoSH</t>
+    <t>GSS</t>
   </si>
   <si>
-    <t>SoTB</t>
+    <t>GSA</t>
   </si>
   <si>
-    <t>SoSB</t>
+    <t>GSN</t>
+  </si>
+  <si>
+    <t>GSP</t>
+  </si>
+  <si>
+    <t>GSL</t>
+  </si>
+  <si>
+    <t>GHSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -889,18 +862,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:JU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AP5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AP1" sqref="AP1"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1513,35 +1486,35 @@
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
       <c r="C3" s="50" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="50" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="57" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H3" s="45"/>
       <c r="I3" s="50" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="50" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L3" s="45"/>
       <c r="M3" s="50" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N3" s="45"/>
       <c r="O3" s="50" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P3" s="45"/>
       <c r="Q3" s="50" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="R3" s="45"/>
       <c r="S3" s="50" t="s">
@@ -1549,19 +1522,19 @@
       </c>
       <c r="T3" s="45"/>
       <c r="U3" s="43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="V3" s="45"/>
       <c r="W3" s="58" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="X3" s="55"/>
       <c r="Y3" s="59" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="45"/>
       <c r="AA3" s="59" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AB3" s="45"/>
       <c r="AC3" s="60" t="s">
@@ -1569,15 +1542,15 @@
       </c>
       <c r="AD3" s="61"/>
       <c r="AE3" s="62" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AF3" s="61"/>
       <c r="AG3" s="62" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AH3" s="61"/>
       <c r="AI3" s="56" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="AJ3" s="45"/>
       <c r="AK3" s="56" t="s">
@@ -1832,118 +1805,118 @@
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AO4" s="42"/>
       <c r="AP4" s="42"/>
@@ -2192,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -2503,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -2814,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -3125,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -3436,7 +3409,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -3747,7 +3720,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -4056,7 +4029,7 @@
     <row r="11" spans="1:281" s="16" customFormat="1" ht="12.75">
       <c r="A11" s="48"/>
       <c r="B11" s="15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -4365,7 +4338,7 @@
     <row r="12" spans="1:281" s="16" customFormat="1" ht="12.75">
       <c r="A12" s="48"/>
       <c r="B12" s="15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -4674,7 +4647,7 @@
     <row r="13" spans="1:281" s="16" customFormat="1" ht="12.75">
       <c r="A13" s="49"/>
       <c r="B13" s="15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -4985,7 +4958,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -5296,7 +5269,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -5607,7 +5580,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -5918,7 +5891,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -6229,7 +6202,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -6540,7 +6513,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -6851,7 +6824,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -7162,7 +7135,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -7473,7 +7446,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -7784,7 +7757,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -8095,7 +8068,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -8380,7 +8353,7 @@
     <row r="25" spans="1:281" s="16" customFormat="1" ht="12.75">
       <c r="A25" s="48"/>
       <c r="B25" s="15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -8689,7 +8662,7 @@
     <row r="26" spans="1:281" s="16" customFormat="1" ht="12.75">
       <c r="A26" s="48"/>
       <c r="B26" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -8998,7 +8971,7 @@
     <row r="27" spans="1:281" s="16" customFormat="1" ht="12.75">
       <c r="A27" s="49"/>
       <c r="B27" s="15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
